--- a/Summary_TR_predictions_with_rs.xlsx
+++ b/Summary_TR_predictions_with_rs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Promotion\sys_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PsyThera\Projekte_Meinke\Systematic_review\7_Final_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDCBF41-9A3C-4E42-81A1-807E557C10B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3B672-0EF5-4055-96D3-930DA9F6DF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{66A8DC06-0BB1-4A3D-A4A8-B85BACC4D187}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26130" windowHeight="8130" activeTab="1" xr2:uid="{66A8DC06-0BB1-4A3D-A4A8-B85BACC4D187}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="16" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="403">
   <si>
     <t>Autor</t>
   </si>
@@ -59,9 +48,6 @@
     <t>Cash, 2019</t>
   </si>
   <si>
-    <t>depression</t>
-  </si>
-  <si>
     <t>medication</t>
   </si>
   <si>
@@ -98,9 +84,6 @@
     <t>Withfield-Gabrieli, 2015</t>
   </si>
   <si>
-    <t>SAD</t>
-  </si>
-  <si>
     <t xml:space="preserve">PTSD </t>
   </si>
   <si>
@@ -122,9 +105,6 @@
     <t>inclusion</t>
   </si>
   <si>
-    <t>escitalopram</t>
-  </si>
-  <si>
     <t>Harris, 2022</t>
   </si>
   <si>
@@ -146,15 +126,9 @@
     <t>Yuan,2018</t>
   </si>
   <si>
-    <t>paroxetine</t>
-  </si>
-  <si>
     <t>SSRI</t>
   </si>
   <si>
-    <t>medication + CBT</t>
-  </si>
-  <si>
     <t>Schultz, 2018</t>
   </si>
   <si>
@@ -182,15 +156,9 @@
     <t>n</t>
   </si>
   <si>
-    <t>y (aber nur als 2nd analysis)</t>
-  </si>
-  <si>
     <t xml:space="preserve">y </t>
   </si>
   <si>
-    <t>medication (and placebo)</t>
-  </si>
-  <si>
     <t>n: regression</t>
   </si>
   <si>
@@ -213,9 +181,6 @@
   </si>
   <si>
     <t>Chen, 2017</t>
-  </si>
-  <si>
-    <t>TRD</t>
   </si>
   <si>
     <t>Gao, 2021</t>
@@ -282,15 +247,9 @@
     <t>linear SVM</t>
   </si>
   <si>
-    <t>MDD and bipolar, no seperation</t>
-  </si>
-  <si>
     <t>exclusion, no single model</t>
   </si>
   <si>
-    <t>Quin, 2015</t>
-  </si>
-  <si>
     <t>Göttlich, 2015</t>
   </si>
   <si>
@@ -315,9 +274,6 @@
     <t>Berwian, 2020</t>
   </si>
   <si>
-    <t>remitted MDD</t>
-  </si>
-  <si>
     <t>no: prediction of relapse after discontinuation of treatment</t>
   </si>
   <si>
@@ -372,9 +328,6 @@
     <t>exclusion (reported model based on rsFC AND DTI)</t>
   </si>
   <si>
-    <t>Goldstein-Pieckarski</t>
-  </si>
-  <si>
     <t>exclusion (rsFC-model is also based on age, gender…)</t>
   </si>
   <si>
@@ -390,31 +343,12 @@
     <t>exclusion (no model only based on RS)</t>
   </si>
   <si>
-    <r>
-      <t>y -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> leakage? (based on comparisons in the whole set)</t>
-    </r>
-  </si>
-  <si>
     <t>70 responders, 54 nonresponders</t>
   </si>
   <si>
     <t>single connectivities</t>
   </si>
   <si>
-    <t>Paetl, 2015</t>
-  </si>
-  <si>
     <t>exclusion (no cat. Outcome)</t>
   </si>
   <si>
@@ -424,15 +358,6 @@
     <t>exclusion (no rs)</t>
   </si>
   <si>
-    <t>Sie sagen nicht vorher ob jemand respondiert, sondern wovon er/sie am meisten profitiert! Die Möglichkeit einer Nonresponse gibt es nicht.</t>
-  </si>
-  <si>
-    <t>subgroups are based on rs FC and symptoms!</t>
-  </si>
-  <si>
-    <t>n (correlation, statistical comparison, ROC-AUC analysis)</t>
-  </si>
-  <si>
     <t>logistic regression</t>
   </si>
   <si>
@@ -527,10 +452,6 @@
   </si>
   <si>
     <t>MDD &amp; BPD</t>
-  </si>
-  <si>
-    <t>71 responders, 51 nonresponders; 
-47 remitters, 73 nonremitters</t>
   </si>
   <si>
     <t>LOOCV, 10-fold-CV</t>
@@ -681,9 +602,6 @@
     <t>Classification metrics of the best model reported</t>
   </si>
   <si>
-    <t>(mutliple) linear regression, applying binarization afterwards</t>
-  </si>
-  <si>
     <t>mean_acc_other_models</t>
   </si>
   <si>
@@ -1052,26 +970,7 @@
     <t>1. atlas-based brain parcellation (90 ROIs), 2. theory-based ROI selection (14 ROIs) 3. 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 4. 2nd-level model: SVM</t>
   </si>
   <si>
-    <t>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 3. aggreate features by summing correlations</t>
-  </si>
-  <si>
     <t>1. atlas-based brain parcellation (258 nodes: 33.153 connectivities), 2. feature selection: wilcoxon rank sum test</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. brain parcellation (95 ROIs) 2. Feature Extraction: Extract time-dependent communities via a multilayer detection algorithm; Create module allegiance matrices (show whether two nodes are assigned to the same community); Calculate node flexiblities for 95 ROIs, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. feature selection: minimum redundancy maximum relevance (mRMR) (Maybe data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</t>
-    </r>
   </si>
   <si>
     <t>1. theory-based ROI selection (36 ROIs: 630 connectivities), 2. feature selection in inner loop: SVM-RFE</t>
@@ -1128,9 +1027,6 @@
     <t>Way of measuring predictive value - categories</t>
   </si>
   <si>
-    <t>Approach to reduce the number of initially available connectivities</t>
-  </si>
-  <si>
     <t>Dorsolateral PFC_tested</t>
   </si>
   <si>
@@ -1156,10 +1052,6 @@
   </si>
   <si>
     <t>In the paper, MRMR is called a wrapper approach, however, in other papers it´s called a filter approach</t>
-  </si>
-  <si>
-    <t>Initially, the authors planned to investigate short-term und long-term outcome. However, as the statistical comparison showed only differences in functional connectivity for long-lerm outcome, they only used long-term outcome for the machine learning pipeline.
-The dataset callled the "independent test dataset" is not independent, it is 30% of the original sample.</t>
   </si>
   <si>
     <t>Age group</t>
@@ -1216,13 +1108,6 @@
     <t>response: ≥ 30% ↓ CAPS-CA (after 8 weeks treatment)</t>
   </si>
   <si>
-    <t>response: ≥ 50% ↓ MADRS  (2 month after treatment lasting 4 weeks)</t>
-  </si>
-  <si>
-    <t>response: &gt; 50% ↓ HDRS-17;
-remission: HDRS-17 &lt;7 (post treatment)</t>
-  </si>
-  <si>
     <t>10-fold CV</t>
   </si>
   <si>
@@ -1245,12 +1130,6 @@
   </si>
   <si>
     <t>Group-information guided ICA, Pearson correlation, partial correlation</t>
-  </si>
-  <si>
-    <t>total number of models tested : 240;
-varying: parcellation, connectivity estimation, dimensionality reduction, classifier
-accuracies: 39.0% (SD 11.7) to 61.2% (SD 10.5), 
-no model got significant</t>
   </si>
   <si>
     <t>subject-specific spatial maps (wb: including brainstem and cerebellum)</t>
@@ -1285,12 +1164,6 @@
     <t>Parahippocampal gyrus_important</t>
   </si>
   <si>
-    <t>total number of models tested: 14; 
-varying: combination of 4 connectivities,
-3 models got significant with respect to all classification metrics (accuracy, sensitivity, specifity, negative predictive value, positive predictive value),
-accuracies: ca. 35% (visually reported) - 90%</t>
-  </si>
-  <si>
     <t>total number of models tested: 5;
 varying classifier: SVM, RF, deep-auto encoder, GCN; 
 metrics are only reported visually; accuracies: ca. 50% - 90%</t>
@@ -1318,9 +1191,6 @@
   </si>
   <si>
     <t>Study</t>
-  </si>
-  <si>
-    <t>putamen (left/right), pallidum (right), hippocampus (left), amygdala (right), Caudate (right), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are seperately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant, insula left, lingual left, rectus left</t>
   </si>
   <si>
     <t>21 connectivities, mainly between emotion networks 1 and 3 and networks 1 and 4: 
@@ -1374,13 +1244,6 @@
     <t>How were regions defined?</t>
   </si>
   <si>
-    <t xml:space="preserve">bilateral orbital part of superior frontale gyrus (L: more than 50% of voxels belong to "L OFC 157", "L a10p 156", R: more than 50% of voxels belong to "R 13l 333", "R OFC 337", "R a10p 336") = orbitofrontal cortex; 
-</t>
-  </si>
-  <si>
-    <t>atlas not clear; subcortical areas are probably included as pallidum, hippcampus, amygdala and caudate have shown to be important, midbrain structures are probably not investigated</t>
-  </si>
-  <si>
     <t>inferior frontal gyrus (triangular part) = ventrolateral PFC; lingual = visual areas;
 rectus = orbitofrontal cortex, we rate midbrain_tested as no, as the is no evidence that the atlas Kong et al have used included the midbrain</t>
   </si>
@@ -1408,12 +1271,6 @@
     </r>
   </si>
   <si>
-    <t>Important connectivities of the negative feaure model (best model):  inferior frontal gyrus (IFG) -  inferior temporal gyrus (ITG), IFG - parahippocampal gyrus (PhG), IFG - fusiform gyrus (FuG), Precuneus (Pcun) - middle frontal gyrus (MFG), BG - insular (INS).</t>
-  </si>
-  <si>
-    <t>node-felxibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral ACC</t>
-  </si>
-  <si>
     <t>Poweratlas (10 mm spheres) + subcortical and midbrain regions</t>
   </si>
   <si>
@@ -1422,23 +1279,12 @@
   <si>
     <t>visual cortex (left middle occipital: more than 50% of voxels belong to "L V3 3", "L V4  4", right lingual visual areas: more than 50% of voxels belong to "R V2 182", "R V1 181") = 
 primary sensorimotor cortex = sensorimotor areas</t>
-  </si>
-  <si>
-    <t>superior frontal gyrus (BA  9) =  dorsolateral PFC;
-inferior frontal gyrus (BA 47) = orbitofrontal cortex;
-middle frontal gyrus (BA 6) = dorsolateral PFC; 
-postcentral gyrus (BA 2) = sensorimotor areas;
-inferior occipital gyrus (BA 19; most voxels belong to "L FFC 11" and "L PH 24" ) = visual areas;
-cuneus (BA 18) = visual areas (Glasser: 2);</t>
   </si>
   <si>
     <t>inferior frontal gyrus (A44d, IFS, A45c, A45r, 44op, 44v in Brainnetome) = inferior frontal cortex; 
 middle frontal gyrus (MFG 77 (l/r) = A10l in Brainnetome) = orbitofrontal cortex;
 middle frontal gyrus (MFG 73 (l) = A46 in Brainnetome) = dorsolateral PFC;
 fusiform gyrus (FuG 31 = A20rv in Brainnetome) = visual areas;</t>
-  </si>
-  <si>
-    <t>Connectivity betwen DLPFC(p9-46v) and MT+(FST)(= Fundal area of the superio temporal sulcus in the middle temporal visual area), and within-connectivtiy in visual ventral stream network (Glasser coarse area 4)</t>
   </si>
   <si>
     <t>ventral visual stream network = visual areas (Glasser area 4), MT+(FST) = visual areas (Glasser area 5)</t>
@@ -1496,10 +1342,6 @@
 sgACC (l/r), amygdala (l/r), intraparietal sulcus (l/r), DLPFC (l/r), anterior insula (l/r), dACC, medial PFC, precuneus</t>
   </si>
   <si>
-    <t>4 specific ROI-to-cluster FCs:
-sgACC - frontal pole (l), sgACC - superior parietal lobule (l) , sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</t>
-  </si>
-  <si>
     <t>seed-based whole-brain connectivity of 14 ROIs (all l/r):
 orbital part superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate and paracingulate gyri, posterior cingulate gyrus, hippocampus, amygdala</t>
   </si>
@@ -1523,6 +1365,147 @@
   </si>
   <si>
     <t xml:space="preserve">3. Predicting outcome to any treatment or intervention that might improve the patients` condition </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>n: relation between changed functional connectivities (after ECT minus before ECT) and treatment response</t>
+  </si>
+  <si>
+    <t>y (BUT not using baseline features)</t>
+  </si>
+  <si>
+    <t>y (but only as 2nd analysis)</t>
+  </si>
+  <si>
+    <t>n: 2 years follow-up</t>
+  </si>
+  <si>
+    <t>Connectivity between DLPFC(p9-46v) and MT+(FST)(= Fundal area of the superior temporal sulcus in the middle temporal visual area), and within-connectivtiy in visual ventral stream network (Glasser coarse area 4)</t>
+  </si>
+  <si>
+    <t>response: ≥ 50% ↓ MADRS (2 month after treatment lasting 4 weeks)</t>
+  </si>
+  <si>
+    <t>4 specific ROI-to-cluster FCs:
+sgACC - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</t>
+  </si>
+  <si>
+    <t>total number of models tested: 14; 
+varying: combination of 4 connectivities,
+3 models got significant with respect to all classification metrics (accuracy, sensitivity, specificity, negative predictive value, positive predictive value),
+accuracies: ca. 35% (visually reported) - 90%</t>
+  </si>
+  <si>
+    <t>(multiple) linear regression, applying binarization afterwards</t>
+  </si>
+  <si>
+    <t>total number of models tested: 240;
+varying: parcellation, connectivity estimation, dimensionality reduction, classifier
+accuracies: 39.0% (SD 11.7) to 61.2% (SD 10.5), 
+no model got significant</t>
+  </si>
+  <si>
+    <t>putamen (left/right), pallidum (right), hippocampus (left), amygdala (right), Caudate (right), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are separately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant, insula left, lingual left, rectus left</t>
+  </si>
+  <si>
+    <t>node-flexibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral ACC</t>
+  </si>
+  <si>
+    <t>Important connectivities of the negative feature model (best model):  inferior frontal gyrus (IFG) -  inferior temporal gyrus (ITG), IFG - parahippocampal gyrus (PhG), IFG - fusiform gyrus (FuG), Precuneus (Pcun) - middle frontal gyrus (MFG), BG - insular (INS).</t>
+  </si>
+  <si>
+    <t>Initially, the authors planned to investigate short-term und long-term outcome. However, as the statistical comparison showed only differences in functional connectivity for long-term outcome, they only used long-term outcome for the machine learning pipeline.
+The dataset called the "independent test dataset" is not independent, it is 30% of the original sample.</t>
+  </si>
+  <si>
+    <t>atlas not clear; subcortical areas are probably included as pallidum, hippocampus, amygdala and caudate have shown to be important, midbrain structures are probably not investigated</t>
+  </si>
+  <si>
+    <t>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 3. aggregate features by summing correlations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. brain parcellation (95 ROIs) 2. Feature Extraction: Extract time-dependent communities via a multilayer detection algorithm; Create module allegiance matrices (show whether two nodes are assigned to the same community); Calculate node flexibilities for 95 ROIs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. feature selection: minimum redundancy maximum relevance (mRMR) (Maybe data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</t>
+    </r>
+  </si>
+  <si>
+    <t>superior frontal gyrus (BA  9) = dorsolateral PFC;
+inferior frontal gyrus (BA 47) = orbitofrontal cortex;
+middle frontal gyrus (BA 6) = dorsolateral PFC; 
+postcentral gyrus (BA 2) = sensorimotor areas;
+inferior occipital gyrus (BA 19; most voxels belong to "L FFC 11" and "L PH 24" ) = visual areas;
+cuneus (BA 18) = visual areas (Glasser: 2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilateral orbital part of superior frontal gyrus (L: more than 50% of voxels belong to "L OFC 157", "L a10p 156", R: more than 50% of voxels belong to "R 13l 333", "R OFC 337", "R a10p 336") = orbitofrontal cortex; 
+</t>
+  </si>
+  <si>
+    <t>Patel, 2015</t>
+  </si>
+  <si>
+    <t>SSRIs and CBT</t>
+  </si>
+  <si>
+    <t>SSRIs, Alpha2-RA, Atypical Antipsychotics, Group BT</t>
+  </si>
+  <si>
+    <t>Qin, 2015</t>
+  </si>
+  <si>
+    <t>Social Anxiety Disorder</t>
+  </si>
+  <si>
+    <t>Approach to reduce the number of initially available connectivities</t>
+  </si>
+  <si>
+    <t>n: They don't predict if someone will respond, but what he/she will benefit from the most! The possibility of non-response is not given.</t>
+  </si>
+  <si>
+    <t>This excel-file belongs to the paper: Meinke, C., Ulrike, L., Walter, H., &amp; Hilbert, K. Predicting treatment outcome in internalizing mental disorders based on resting-state functional connectivity: A systematic review of machine learning studies. (Manuscript in preparation)</t>
+  </si>
+  <si>
+    <t>Sheets whose name starts with "RQ" (= research question) are created to answer the corresponding research question. If information of the sheet "internalizing_dis_extraction" (data extraction table) is used, the column name is italic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldstein-Pieckarski, </t>
+  </si>
+  <si>
+    <t>medication (escitalopram, sertraline, or venlafaxine-XR)</t>
+  </si>
+  <si>
+    <t>MDD (treatment-resistant)</t>
+  </si>
+  <si>
+    <t>MDD (remitted)</t>
+  </si>
+  <si>
+    <t>PTSD &amp; MDD</t>
+  </si>
+  <si>
+    <t>medication (escitalopram)</t>
+  </si>
+  <si>
+    <t>medication (escitalopram, sertraline or venlafaxine-XR)</t>
+  </si>
+  <si>
+    <t>medication (duloxetine, venlafaxine, nimodipine, or escitalopram)</t>
+  </si>
+  <si>
+    <t>medication (paroxetine)</t>
   </si>
   <si>
     <r>
@@ -1546,17 +1529,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(SOME kind of validation; no correlation/association!, at least linear regression)</t>
+      <t>(SOME kind of validation; no correlation/association, at least linear regression)</t>
     </r>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>n: relation between changed functional connectivities (after ECT minus before ECT) and treatment response</t>
-  </si>
-  <si>
-    <t>y (BUT not using baseline features)</t>
+    <t xml:space="preserve">remission: HDRS-17 &lt;7 (post treatment);
+response: &gt; 50% ↓ HDRS-17;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 remitters, 75 nonremitters;
+71 responders, 51 nonresponders
+</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,18 +1631,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,14 +1735,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2417,7 +2389,7 @@
     <tableColumn id="3" xr3:uid="{58480E87-DD7C-4AD0-9E75-4A984E0767D3}" name="treatment" dataDxfId="131"/>
     <tableColumn id="17" xr3:uid="{AB7320B9-8ED8-4AE3-84D3-5DA1447A2FCC}" name="6. Reporting at least one classifier whose input features are only based on or derived of/from resting-state functional connectivities" dataDxfId="130"/>
     <tableColumn id="16" xr3:uid="{34B3A89A-51AF-48AC-A491-06B5EC0CCB25}" name="5. Predicting treatment outcome as a categorical outcome" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{63F283E2-347C-4F8C-8E3E-154154CADC6A}" name="4. Using a machine learning approach (SOME kind of validation; no correlation/association!, at least linear regression)" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{63F283E2-347C-4F8C-8E3E-154154CADC6A}" name="4. Using a machine learning approach (SOME kind of validation; no correlation/association, at least linear regression)" dataDxfId="128"/>
     <tableColumn id="5" xr3:uid="{2657D022-A7A6-4149-8296-9CD8FCBCDCAA}" name="3. Predicting outcome to any treatment or intervention that might improve the patients` condition " dataDxfId="127"/>
     <tableColumn id="6" xr3:uid="{EB4DA99F-C74D-4584-9A46-26F53E4C7F07}" name="2. Analysing a sample of patients with one of the following disorders as primary_x000a_disorder: unipolar depressive disorders, anxiety disorders, obsessive compulsive disorder, or post-traumatic_x000a_stress disorder" dataDxfId="126"/>
     <tableColumn id="7" xr3:uid="{AB77DDDB-A77A-4509-95E9-F0D1F804EA94}" name="1. Publication in a peer-reviewed journal, written in English" dataDxfId="125"/>
@@ -2429,8 +2401,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}" name="Tabelle_extract" displayName="Tabelle_extract" ref="A1:T14" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A1:T14" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T14">
-    <sortCondition ref="G1:G14"/>
+  <sortState ref="A2:T14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{303D52A4-F70F-4E10-BC40-21F5078D7514}" name="Study" dataDxfId="122"/>
@@ -2508,7 +2480,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}" name="TabelleRQ1" displayName="TabelleRQ1" ref="A1:S14" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:S14" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S14">
+  <sortState ref="A2:S14">
     <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="19">
@@ -2943,20 +2915,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D19F1-87AB-41C7-903E-1C5E1CB4AA00}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="113.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2968,1599 +2950,1669 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548DE46C-A38C-4529-BAF0-C94F85D32C37}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>394</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>396</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>396</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>397</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>383</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>398</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
-        <v>83</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>77</v>
+      <c r="H34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>385</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>396</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>205</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>34</v>
+        <v>399</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -4581,875 +4633,875 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1B465A-9749-46BF-8A21-FA206FEA8B0D}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" customWidth="1"/>
-    <col min="9" max="9" width="31.7265625" customWidth="1"/>
-    <col min="10" max="10" width="80.26953125" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" customWidth="1"/>
-    <col min="13" max="13" width="29.81640625" customWidth="1"/>
-    <col min="14" max="14" width="60.90625" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" customWidth="1"/>
-    <col min="16" max="16" width="46.7265625" customWidth="1"/>
-    <col min="17" max="17" width="38.453125" customWidth="1"/>
-    <col min="18" max="19" width="46.7265625" customWidth="1"/>
-    <col min="20" max="20" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="10" max="10" width="80.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="14" max="14" width="60.85546875" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" customWidth="1"/>
+    <col min="17" max="17" width="38.42578125" customWidth="1"/>
+    <col min="18" max="19" width="46.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="2">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="2">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="2">
+        <v>144</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G3" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2021</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="2">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="K5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="2">
         <v>2019</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="2">
+        <v>98</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="164.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G7" s="2">
-        <v>61</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>328</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="290" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="281.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="2">
         <v>122</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="2">
-        <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="281" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="2">
-        <v>82</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2">
         <v>2020</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G10" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>348</v>
       </c>
       <c r="B11" s="2">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="G11" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>329</v>
+        <v>62</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="G12" s="2">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>311</v>
+        <v>170</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>41</v>
+    <row r="13" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G13" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="G14" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
   </sheetData>
@@ -5466,75 +5518,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5264EB-2DBF-4E7C-8ADD-3E4120755ADC}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="G4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="12"/>
-    <col min="3" max="3" width="16.26953125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="31.7265625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="29.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="12"/>
+    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="12" customWidth="1"/>
     <col min="9" max="9" width="52" style="12" customWidth="1"/>
     <col min="10" max="10" width="31" style="12" customWidth="1"/>
-    <col min="11" max="11" width="33.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="52.1796875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="52.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>212</v>
-      </c>
       <c r="K1" s="16" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>2017</v>
@@ -5588,9 +5640,9 @@
         <v>no other models tested</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>2022</v>
@@ -5646,9 +5698,9 @@
 accuracies: 39% - 61% </v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>2021</v>
@@ -5667,7 +5719,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Definition of treatment outcome]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>response: ≥ 50% ↓ MADRS  (2 month after treatment lasting 4 weeks)</v>
+        <v>response: ≥ 50% ↓ MADRS (2 month after treatment lasting 4 weeks)</v>
       </c>
       <c r="G4" s="12">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -5684,7 +5736,7 @@
       <c r="J4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>4 specific ROI-to-cluster FCs:
-sgACC - frontal pole (l), sgACC - superior parietal lobule (l) , sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</v>
+sgACC - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</v>
       </c>
       <c r="K4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -5706,9 +5758,9 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>2021</v>
@@ -5764,9 +5816,9 @@
 accuracies: ca. 50% - 90%</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -5824,9 +5876,9 @@
 accuracies: 72% - 89% (mean: 83%)</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -5883,9 +5935,9 @@
 accuracies: 81%</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>2018</v>
@@ -5942,9 +5994,9 @@
 accuracies: 44% - 89%</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>2020</v>
@@ -5963,8 +6015,9 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Definition of treatment outcome]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>response: &gt; 50% ↓ HDRS-17;
-remission: HDRS-17 &lt;7 (post treatment)</v>
+        <v xml:space="preserve">remission: HDRS-17 &lt;7 (post treatment);
+response: &gt; 50% ↓ HDRS-17;
+</v>
       </c>
       <c r="G9" s="12">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -5972,8 +6025,9 @@
       </c>
       <c r="H9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>71 responders, 51 nonresponders; 
-47 remitters, 73 nonremitters</v>
+        <v xml:space="preserve">47 remitters, 75 nonremitters;
+71 responders, 51 nonresponders
+</v>
       </c>
       <c r="I9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Way of estimating the underlying functional connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -5985,7 +6039,7 @@
       </c>
       <c r="K9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>(mutliple) linear regression, applying binarization afterwards</v>
+        <v>(multiple) linear regression, applying binarization afterwards</v>
       </c>
       <c r="L9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Validation method]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -5993,7 +6047,7 @@
       </c>
       <c r="M9" s="12">
         <f>VLOOKUP(A9,TabelleRQ1[#All],(MATCH(TabelleRQ0[[#Headers],[Accuracy_rounded]],TabelleRQ1[#Headers],0)),FALSE)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N9" s="12" t="str">
         <f>VLOOKUP(A9,TabelleRQ1[#All],(MATCH(TabelleRQ0[[#Headers],[Information on models tested]],TabelleRQ1[#Headers],0)),FALSE)</f>
@@ -6002,9 +6056,9 @@
 accuracies: 58% - 75% (mean: 67%)</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2">
         <v>2020</v>
@@ -6060,9 +6114,9 @@
 accuracies: 69% - 79% (mean: 73%)</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -6118,9 +6172,9 @@
 2 of 25 models got significant</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="406" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2022</v>
@@ -6175,9 +6229,9 @@
         <v>no other models tested</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>2019</v>
@@ -6233,9 +6287,9 @@
 1 of 48 models got significant</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>2021</v>
@@ -6293,7 +6347,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6305,87 +6359,87 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" customWidth="1"/>
-    <col min="8" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" customWidth="1"/>
-    <col min="13" max="14" width="10.81640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="53.453125" customWidth="1"/>
-    <col min="16" max="16" width="24.1796875" customWidth="1"/>
-    <col min="17" max="19" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="53.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="17" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="12">
         <v>2017</v>
@@ -6403,7 +6457,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G2" s="12" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6440,21 +6494,21 @@
         <v>no other models tested</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>2022</v>
@@ -6472,7 +6526,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" s="12" t="str">
         <f>VLOOKUP(A3,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6506,16 +6560,16 @@
       </c>
       <c r="O3" s="12" t="str">
         <f>VLOOKUP(A3,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Information about all other models tested]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>total number of models tested : 240;
+        <v>total number of models tested: 240;
 varying: parcellation, connectivity estimation, dimensionality reduction, classifier
 accuracies: 39.0% (SD 11.7) to 61.2% (SD 10.5), 
 no model got significant</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R3" s="12">
         <v>39</v>
@@ -6524,9 +6578,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2021</v>
@@ -6544,7 +6598,7 @@
         <v>89</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6580,25 +6634,25 @@
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Information about all other models tested]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>total number of models tested: 14; 
 varying: combination of 4 connectivities,
-3 models got significant with respect to all classification metrics (accuracy, sensitivity, specifity, negative predictive value, positive predictive value),
+3 models got significant with respect to all classification metrics (accuracy, sensitivity, specificity, negative predictive value, positive predictive value),
 accuracies: ca. 35% (visually reported) - 90%</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="S4" s="12">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>2021</v>
@@ -6617,7 +6671,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G5" s="12" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6656,21 +6710,21 @@
 metrics are only reported visually; accuracies: ca. 50% - 90%</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="S5" s="12">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -6687,7 +6741,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6" s="12" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6726,10 +6780,10 @@
 accuracy: 0.72 - 0.89, CI: lower end 0.56 - 0.83</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="R6" s="12">
         <v>72</v>
@@ -6738,9 +6792,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6761,7 +6815,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G7" s="12" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6800,7 +6854,7 @@
 </v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="12">
         <v>81</v>
@@ -6812,9 +6866,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>2018</v>
@@ -6833,7 +6887,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" s="12" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6871,7 +6925,7 @@
 2nd significant model: left IPS: 83.3; mean accuracy of all models: 59.0 (CI: 15.3), range 44.4 - 88.9</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="12">
         <v>59</v>
@@ -6883,9 +6937,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="322" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="321.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>2020</v>
@@ -6897,39 +6951,42 @@
 Predicting remission</v>
       </c>
       <c r="D9" s="12">
-        <v>70</v>
+        <v>72.13</v>
       </c>
       <c r="E9" s="12">
         <f>ROUND(TabelleRQ1[[#This Row],[Accuracy (of the best model reported)]],0)</f>
-        <v>70</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="G9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>71 responders, 51 nonresponders; 
-47 remitters, 73 nonremitters</v>
-      </c>
-      <c r="H9" s="12">
-        <v>9</v>
-      </c>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
-      <c r="J9" s="12">
+        <v xml:space="preserve">47 remitters, 75 nonremitters;
+71 responders, 51 nonresponders
+</v>
+      </c>
+      <c r="H9" s="26">
+        <v>47</v>
+      </c>
+      <c r="I9" s="26">
+        <v>75</v>
+      </c>
+      <c r="J9" s="26">
         <f>IF(TabelleRQ1[[#This Row],[responders]]&gt;TabelleRQ1[[#This Row],[nonresponders]],TabelleRQ1[[#This Row],[responders]],TabelleRQ1[[#This Row],[nonresponders]])</f>
-        <v>9</v>
-      </c>
-      <c r="K9" s="12">
+        <v>75</v>
+      </c>
+      <c r="K9" s="26">
         <f>ROUND(TabelleRQ1[[#This Row],[n_maj_class]]/(TabelleRQ1[[#This Row],[responders]]+TabelleRQ1[[#This Row],[nonresponders]])*100,0)</f>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L9" s="12">
         <f xml:space="preserve"> TabelleRQ1[[#This Row],[Accuracy_rounded]]-TabelleRQ1[[#This Row],[acc maj. class]]</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M9" s="12">
         <f>TabelleRQ1[[#This Row],[improvement_above_chance]]+50</f>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N9" s="12">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6949,10 +7006,10 @@
 LOOCV - response - negative + positive features: accuracy: 70.49%, sensitivity: 71.83%, specificity: 68.63%; </v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="R9" s="12">
         <v>58</v>
@@ -6961,9 +7018,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2">
         <v>2020</v>
@@ -6983,7 +7040,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G10" s="12" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7022,10 +7079,10 @@
 LOOCV: accuracy: 79.41; sens: 84.21%; spec: 73.33%</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="R10" s="12">
         <v>69</v>
@@ -7034,9 +7091,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="105.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -7055,7 +7112,7 @@
         <v>85</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="12" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7068,7 +7125,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K11" s="12">
         <v>50</v>
@@ -7092,21 +7149,21 @@
 1 other significant model: 80% sensitivity, 75% specificity and 80% positive predictive value</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2022</v>
@@ -7125,7 +7182,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="12" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7162,21 +7219,21 @@
         <v>no other models tested</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="87" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>2019</v>
@@ -7195,7 +7252,7 @@
         <v>81</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="12" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7208,7 +7265,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K13" s="12">
         <v>50</v>
@@ -7232,21 +7289,21 @@
 no other model got significant</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="116" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>2021</v>
@@ -7265,7 +7322,7 @@
         <v>76</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G14" s="12" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7278,7 +7335,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K14" s="12">
         <v>50</v>
@@ -7302,16 +7359,16 @@
 no other model got significant</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7330,220 +7387,220 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="3" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" customWidth="1"/>
-    <col min="7" max="8" width="35.54296875" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
-    <col min="10" max="11" width="3.453125" customWidth="1"/>
-    <col min="12" max="12" width="3.54296875" customWidth="1"/>
-    <col min="13" max="16" width="3.453125" customWidth="1"/>
-    <col min="17" max="17" width="4.6328125" customWidth="1"/>
-    <col min="18" max="18" width="3.453125" customWidth="1"/>
-    <col min="19" max="19" width="3.81640625" customWidth="1"/>
-    <col min="20" max="23" width="3.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.26953125" customWidth="1"/>
-    <col min="25" max="25" width="3.453125" customWidth="1"/>
-    <col min="26" max="26" width="4.54296875" customWidth="1"/>
-    <col min="27" max="28" width="3.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="3" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="8" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="10" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="23" width="3.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" customWidth="1"/>
+    <col min="27" max="28" width="3.42578125" customWidth="1"/>
     <col min="29" max="30" width="4" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="33" width="3.453125" customWidth="1"/>
-    <col min="34" max="34" width="4.54296875" customWidth="1"/>
-    <col min="35" max="35" width="5.1796875" customWidth="1"/>
-    <col min="36" max="37" width="3.453125" customWidth="1"/>
-    <col min="38" max="38" width="5.7265625" customWidth="1"/>
-    <col min="39" max="39" width="3.453125" customWidth="1"/>
-    <col min="40" max="40" width="6.1796875" customWidth="1"/>
-    <col min="41" max="41" width="7.54296875" customWidth="1"/>
-    <col min="42" max="43" width="6.81640625" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" customWidth="1"/>
+    <col min="32" max="33" width="3.42578125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="37" width="3.42578125" customWidth="1"/>
+    <col min="38" max="38" width="5.7109375" customWidth="1"/>
+    <col min="39" max="39" width="3.42578125" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" customWidth="1"/>
+    <col min="42" max="43" width="6.85546875" customWidth="1"/>
     <col min="44" max="44" width="6" customWidth="1"/>
-    <col min="45" max="45" width="6.26953125" customWidth="1"/>
-    <col min="46" max="46" width="5.453125" customWidth="1"/>
-    <col min="47" max="47" width="3.453125" customWidth="1"/>
-    <col min="48" max="49" width="4.453125" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" customWidth="1"/>
+    <col min="46" max="46" width="5.42578125" customWidth="1"/>
+    <col min="47" max="47" width="3.42578125" customWidth="1"/>
+    <col min="48" max="49" width="4.42578125" customWidth="1"/>
     <col min="50" max="50" width="5" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" customWidth="1"/>
-    <col min="52" max="52" width="3.453125" customWidth="1"/>
-    <col min="56" max="57" width="3.453125" customWidth="1"/>
-    <col min="58" max="58" width="5.54296875" customWidth="1"/>
-    <col min="59" max="59" width="5.453125" customWidth="1"/>
-    <col min="61" max="61" width="5.81640625" customWidth="1"/>
-    <col min="62" max="62" width="6.54296875" customWidth="1"/>
-    <col min="64" max="64" width="5.7265625" customWidth="1"/>
-    <col min="65" max="66" width="5.81640625" customWidth="1"/>
-    <col min="67" max="67" width="5.453125" customWidth="1"/>
-    <col min="68" max="68" width="6.26953125" customWidth="1"/>
-    <col min="72" max="72" width="3.453125" customWidth="1"/>
-    <col min="73" max="73" width="5.54296875" customWidth="1"/>
-    <col min="74" max="74" width="6.54296875" customWidth="1"/>
-    <col min="75" max="82" width="3.453125" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" customWidth="1"/>
+    <col min="52" max="52" width="3.42578125" customWidth="1"/>
+    <col min="56" max="57" width="3.42578125" customWidth="1"/>
+    <col min="58" max="58" width="5.5703125" customWidth="1"/>
+    <col min="59" max="59" width="5.42578125" customWidth="1"/>
+    <col min="61" max="61" width="5.85546875" customWidth="1"/>
+    <col min="62" max="62" width="6.5703125" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" customWidth="1"/>
+    <col min="65" max="66" width="5.85546875" customWidth="1"/>
+    <col min="67" max="67" width="5.42578125" customWidth="1"/>
+    <col min="68" max="68" width="6.28515625" customWidth="1"/>
+    <col min="72" max="72" width="3.42578125" customWidth="1"/>
+    <col min="73" max="73" width="5.5703125" customWidth="1"/>
+    <col min="74" max="74" width="6.5703125" customWidth="1"/>
+    <col min="75" max="82" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="N1" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW1" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS1" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT1" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU1" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>385</v>
-      </c>
       <c r="AX1" s="22" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AY1" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="148" customHeight="1" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2">
         <v>2017</v>
@@ -7553,7 +7610,7 @@
         <v>selection frequency in feature selection with Wilcoxon rank sum test</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7572,138 +7629,138 @@
         <v>Poweratlas (10 mm spheres) + subcortical and midbrain regions</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>2022</v>
@@ -7713,7 +7770,7 @@
         <v>NA</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>VLOOKUP(A3,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7732,138 +7789,138 @@
         <v>NA</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2021</v>
@@ -7873,7 +7930,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7882,7 +7939,7 @@
       <c r="F4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>4 specific ROI-to-cluster FCs:
-sgACC - frontal pole (l), sgACC - superior parietal lobule (l) , sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</v>
+sgACC - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7893,138 +7950,138 @@
         <v>peaks of clusters of connectivity with sgACC and DLPFC</v>
       </c>
       <c r="I4" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" ht="167" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" ht="167.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>2021</v>
@@ -8034,7 +8091,7 @@
         <v>feature weights in STCGN</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8046,145 +8103,145 @@
       </c>
       <c r="G5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>putamen (left/right), pallidum (right), hippocampus (left), amygdala (right), Caudate (right), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are seperately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant, insula left, lingual left, rectus left</v>
+        <v>putamen (left/right), pallidum (right), hippocampus (left), amygdala (right), Caudate (right), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are separately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant, insula left, lingual left, rectus left</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>atlas not clear; subcortical areas are probably included as pallidum, hippcampus, amygdala and caudate have shown to be important, midbrain structures are probably not investigated</v>
+        <v>atlas not clear; subcortical areas are probably included as pallidum, hippocampus, amygdala and caudate have shown to be important, midbrain structures are probably not investigated</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AW5" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" ht="188.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -8194,7 +8251,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8208,145 +8265,145 @@
       </c>
       <c r="G6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>Connectivity betwen DLPFC(p9-46v) and MT+(FST)(= Fundal area of the superio temporal sulcus in the middle temporal visual area), and within-connectivtiy in visual ventral stream network (Glasser coarse area 4)</v>
+        <v>Connectivity between DLPFC(p9-46v) and MT+(FST)(= Fundal area of the superior temporal sulcus in the middle temporal visual area), and within-connectivtiy in visual ventral stream network (Glasser coarse area 4)</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>Glasser atlas</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" ht="134.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="134.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -8356,7 +8413,7 @@
         <v>position ranking in linear SVM with RFE (final classifier)</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8377,138 +8434,138 @@
         <v>AAL atlas</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" s="9" customFormat="1" ht="119.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="9" customFormat="1" ht="119.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>2018</v>
@@ -8518,7 +8575,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8538,138 +8595,138 @@
         <v>5 mm spheres around coordinates</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>2020</v>
@@ -8679,7 +8736,7 @@
         <v>selection frequency in feature selection with correlation analysis</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8691,145 +8748,145 @@
       </c>
       <c r="G9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>Important connectivities of the negative feaure model (best model):  inferior frontal gyrus (IFG) -  inferior temporal gyrus (ITG), IFG - parahippocampal gyrus (PhG), IFG - fusiform gyrus (FuG), Precuneus (Pcun) - middle frontal gyrus (MFG), BG - insular (INS).</v>
+        <v>Important connectivities of the negative feature model (best model):  inferior frontal gyrus (IFG) -  inferior temporal gyrus (ITG), IFG - parahippocampal gyrus (PhG), IFG - fusiform gyrus (FuG), Precuneus (Pcun) - middle frontal gyrus (MFG), BG - insular (INS).</v>
       </c>
       <c r="H9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>Brainnetome, exact coordinates can be extracted from the atlas</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AW9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2">
         <v>2020</v>
@@ -8839,7 +8896,7 @@
         <v>feature weights in SVM (final classifier)</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8851,145 +8908,145 @@
       </c>
       <c r="G10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>node-felxibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral ACC</v>
+        <v>node-flexibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral ACC</v>
       </c>
       <c r="H10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>6 mm spheres around coordinates (supplement)</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AS10" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV10" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AW10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -8999,7 +9056,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9019,135 +9076,135 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AS11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" ht="327" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2022</v>
@@ -9157,7 +9214,7 @@
         <v>selection frequency in feature selection with SVM RFE</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9195,138 +9252,138 @@
         <v>5 mm spheres based on meta-analysis (Brodmann area reported!)</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AS12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AX12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>2019</v>
@@ -9336,7 +9393,7 @@
         <v>two levels: 1. comparison of models based on different features, 2. selection frequency in univariate feature selection</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9355,138 +9412,138 @@
         <v>not clear, but coordinates are roughly given!</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AT13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX13" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY13" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" ht="72.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>2021</v>
@@ -9497,7 +9554,7 @@
 </v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9517,130 +9574,130 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM14" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AV14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9662,57 +9719,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E63A5-4E10-42DF-8355-05B40A93C0B4}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>2017</v>
@@ -9722,21 +9779,21 @@
         <v>1. atlas-based brain parcellation (258 nodes: 33.153 connectivities), 2. feature selection: wilcoxon rank sum test</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>2022</v>
@@ -9746,25 +9803,25 @@
         <v>1. atlas-based brain parcellation (5 different atlases), 2. dimensionality reduction and feature selection in inner loop (4 different approaches: PCA, ANOVA, Agglomeration, None)</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>2021</v>
@@ -9776,7 +9833,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -9784,9 +9841,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>2021</v>
@@ -9796,23 +9853,23 @@
         <v>1. atlas-based brain parcellation, 2. threshold functional connectivities (proportional), 3. pooling layers within STCGN (first layer: 90 ROIs, last layer: 14 ROIs)</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B6" s="3">
         <v>2019</v>
@@ -9824,21 +9881,21 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>2020</v>
@@ -9848,23 +9905,23 @@
         <v>1. atlas-based brain parcellation (90 ROIs), 2. theory-based ROI selection (14 ROIs) 3. 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 4. 2nd-level model: SVM</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>2018</v>
@@ -9876,71 +9933,71 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3">
         <v>2020</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 3. aggreate features by summing correlations</v>
+        <v>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 3. aggregate features by summing correlations</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
         <v>2020</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. brain parcellation (95 ROIs) 2. Feature Extraction: Extract time-dependent communities via a multilayer detection algorithm; Create module allegiance matrices (show whether two nodes are assigned to the same community); Calculate node flexiblities for 95 ROIs, 3. feature selection: minimum redundancy maximum relevance (mRMR) (Maybe data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</v>
+        <v>1. brain parcellation (95 ROIs) 2. Feature Extraction: Extract time-dependent communities via a multilayer detection algorithm; Create module allegiance matrices (show whether two nodes are assigned to the same community); Calculate node flexibilities for 95 ROIs, 3. feature selection: minimum redundancy maximum relevance (mRMR) (Maybe data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B11" s="3">
         <v>2015</v>
@@ -9953,20 +10010,20 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
         <v>2022</v>
@@ -9978,19 +10035,19 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>2019</v>
@@ -10001,22 +10058,22 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>2021</v>
@@ -10027,11 +10084,11 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>

--- a/Summary_TR_predictions_with_rs.xlsx
+++ b/Summary_TR_predictions_with_rs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Promotion\sys_review\Analysis_sys_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meinkcha.PSYCHOLOGIE\Documents\GitHub\Analysis_sys_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A9576-E94A-4676-94C9-A9F3B255D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF72B8-3EAB-419C-9DA8-A7E71CC944E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{66A8DC06-0BB1-4A3D-A4A8-B85BACC4D187}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{66A8DC06-0BB1-4A3D-A4A8-B85BACC4D187}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="16" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="449">
   <si>
     <t>Autor</t>
   </si>
@@ -463,9 +452,6 @@
   </si>
   <si>
     <t>LOOCV, 10-fold-CV</t>
-  </si>
-  <si>
-    <t>after multiple comparisons: 2 networks:  best network: centered in the DMPFC, including DLPFC, OFC, PCC; 2nd network: centered in the ACC, including sensorimotor cortex, parahippocampal gyrus and midbrain</t>
   </si>
   <si>
     <t>accuracy; 61.2% (SD 10.5), not significant
@@ -533,9 +519,6 @@
     <t>balanced accuracy due to undersampling</t>
   </si>
   <si>
-    <t>approach to reduce the number of initially available connectivities</t>
-  </si>
-  <si>
     <t>data-driven parcellation</t>
   </si>
   <si>
@@ -871,25 +854,10 @@
     <t>Visual areas_important</t>
   </si>
   <si>
-    <t>DLPFC-left model had highest model accuracy (and was significant), 2nd significant model: left intraparietal sulcus</t>
-  </si>
-  <si>
     <t>ROI-based connectivity features</t>
   </si>
   <si>
     <t>single between-ROI or within-ROI connectivities</t>
-  </si>
-  <si>
-    <t>1 significant network: ICN centered on the bilateral superior temporal gyrus (STG), 2. no clear picture with respect to important voxels</t>
-  </si>
-  <si>
-    <t>1. brain regions IC components belong to, 2. brain regions voxel-clusters belonged to</t>
-  </si>
-  <si>
-    <t>1. brain regions IC components belong to, 2. single voxels</t>
-  </si>
-  <si>
-    <t>brain regions IC components belong to</t>
   </si>
   <si>
     <t>Comments/unclear assigments</t>
@@ -1023,9 +991,6 @@
     <t>subject-specific spatial maps (wb: including brainstem and cerebellum)</t>
   </si>
   <si>
-    <t>subject-specific spatial maps, connectivity between ICs (wb: including brainstem and cerebellum)</t>
-  </si>
-  <si>
     <t>whole-brain between-ROI FCs (wb:  including subcortex and midbrain)</t>
   </si>
   <si>
@@ -1081,30 +1046,6 @@
     <t>Study</t>
   </si>
   <si>
-    <t>21 connectivities, mainly between emotion networks 1 and 3 and networks 1 and 4: 
-medial superior frontal gyrus (BA 8)
-inferior parietal lobule (BA 40)
-middle frontal gyrus (BA 6)
-insula (13)
-precuneus (BA 7)
-inferior frontal gyrus (BA 47)
-superior frontal gyrus (BA 9)
-caudate
-amygdala
-thalamus
-medial PFC (BA 10)
-precuneus (BA 19)
-superior parietal lobule (BA 7)
-posterior cingulate (BA 30)
-postcentral gyrus (BA 2)
-inferior occipital gyrus (BA 19)
-parahippocampal gyrus (BA 27)
-cuneus (BA 18)</t>
-  </si>
-  <si>
-    <t>single connectivities, grouped into connectivities between 24 coarse brain regions)</t>
-  </si>
-  <si>
     <t>peaks of clusters of connectivity with sgACC and DLPFC</t>
   </si>
   <si>
@@ -1134,26 +1075,6 @@
   <si>
     <t>inferior frontal gyrus (triangular part) = ventrolateral PFC; lingual = visual areas;
 rectus = orbitofrontal cortex, we rate midbrain_tested as no, as the is no evidence that the atlas Kong et al have used included the midbrain</t>
-  </si>
-  <si>
-    <t>From the 3 models that got significant across all metrics (A,D,E), one model used all 4 connectivities, the two other models used 3 connectivities, excluding either "sgACC-lateral occipital cortex" OR "sgACC - frontal pole". As 2 connectivities, namely "sgACC - superior parietal lobule" and "DLPFC -  central opercular cortex", were among all significant models, we defined them as the most important connectivties.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">subset: whole-brain connectivities from left HIP, left ORBsup, right HIP, (right PCG), right AMYG, and left ACG
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wb: whole-brain connectivities from: left hip, right PCG</t>
-    </r>
   </si>
   <si>
     <t>Poweratlas (10 mm spheres) + subcortical and midbrain regions</t>
@@ -1223,23 +1144,6 @@
     <t>node flexibilities per ROI (wb: no amygdala, no hippocampus, no midbrain)</t>
   </si>
   <si>
-    <t>between-ROI FCs between 13 ROIs:
-sgACC (l/r), amygdala (l/r), intraparietal sulcus (l/r), DLPFC (l/r), anterior insula (l/r), dACC, medial PFC, precuneus</t>
-  </si>
-  <si>
-    <t>seed-based whole-brain connectivity of 14 ROIs (all l/r):
-orbital part superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate and paracingulate gyri, posterior cingulate gyrus, hippocampus, amygdala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 specific between- &amp; within-ROI FCs:
-DLPFC(p9-46v) - Fundal area of the superior temporal sulcus within MT+ Complex, DLPFC(p9-46v) - MT+ Complex, DLPFC(46) - s32(part of the ACC), connectivity within the ventral stream visual cortex, connectivity within 10r(part of medial prefrontal cortex)
-</t>
-  </si>
-  <si>
-    <t>between-ROI FCs between 36 emotion regulation regions of 4 networks: 
-network 1: medial superior frontal gyrus (l, BA 8), middle frontal gyrus (r, BA 8), inferior parietal lobule (l/r, BA 40), medial PFC (l, BA 10), middle frontal gyrus (l, BA 6), middle frontal gyrus (r, BA 11), insula (r), cingulate gyrus (r, BA 23), precuneus (r); network 2: inferior frontal gyrus (l/r, BA 47), superior frontal gyrus (l, BA 6), superior temporal gyrus (l, BA 39), middle temporal gyrus (l, no BA), middle frontal gyrus (l, BA 6), superior frontal gyrus (l, BA 9), caudate (l), tuber (r); network 3: amygdala (l/r), fusiform gyrus (l/r, BA 37), thalamus (r), parahippocampal gyrus (l), medial PFC (bilateral, BA 10), inferior occipital gyrus (l, BA 19); network 4: postcentral gyrus (l/r, BA 2), insula (l, BA 13), superior parietal lobule (l, BA 7), cuneus (l, BA 18), middle occipital gyrus (l, BA 19), thalamus (r), precuneus (r, BA 19), posterior cingulate (r, BA 30)</t>
-  </si>
-  <si>
     <t>Here, we include all 3 different approaches of dimensionality reduction (PCA, Agglomeration) and feature selection that have been used</t>
   </si>
   <si>
@@ -1267,14 +1171,7 @@
     <t>n: 2 years follow-up</t>
   </si>
   <si>
-    <t>Connectivity between DLPFC(p9-46v) and MT+(FST)(= Fundal area of the superior temporal sulcus in the middle temporal visual area), and within-connectivtiy in visual ventral stream network (Glasser coarse area 4)</t>
-  </si>
-  <si>
     <t>response: ≥ 50% ↓ MADRS (2 month after treatment lasting 4 weeks)</t>
-  </si>
-  <si>
-    <t>4 specific ROI-to-cluster FCs:
-sgACC - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</t>
   </si>
   <si>
     <t>total number of models tested: 14; 
@@ -1290,15 +1187,6 @@
 varying: parcellation, connectivity estimation, dimensionality reduction, classifier
 accuracies: 39.0% (SD 11.7) to 61.2% (SD 10.5), 
 no model got significant</t>
-  </si>
-  <si>
-    <t>putamen (left/right), pallidum (right), hippocampus (left), amygdala (right), Caudate (right), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are separately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant, insula left, lingual left, rectus left</t>
-  </si>
-  <si>
-    <t>node-flexibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral ACC</t>
-  </si>
-  <si>
-    <t>Important connectivities of the negative feature model (best model):  inferior frontal gyrus (IFG) -  inferior temporal gyrus (ITG), IFG - parahippocampal gyrus (PhG), IFG - fusiform gyrus (FuG), Precuneus (Pcun) - middle frontal gyrus (MFG), BG - insular (INS).</t>
   </si>
   <si>
     <t>Initially, the authors planned to investigate short-term und long-term outcome. However, as the statistical comparison showed only differences in functional connectivity for long-term outcome, they only used long-term outcome for the machine learning pipeline.
@@ -1544,12 +1432,6 @@
 3. pooling layers within STCGN (first layer: 90 ROIs, last layer: 14 ROIs)</t>
   </si>
   <si>
-    <t>1. atlas-based brain parcellation (90 ROIs), 
-2. theory-based ROI selection (14 ROIs), 
-3. 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 
-4. 2nd-level model: SVM</t>
-  </si>
-  <si>
     <t>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 
 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 
 3. aggregate features by summing correlations</t>
@@ -1559,16 +1441,9 @@
 2. feature selection in inner loop: SVM-RFE</t>
   </si>
   <si>
-    <t>distribution to different models</t>
-  </si>
-  <si>
     <t>theory-based selection</t>
   </si>
   <si>
-    <t>1. atlas-based brain parcellation (5 different atlases), 
-2. dimensionality reduction or feature selection in inner loop (4 different approaches: PCA, ANOVA, Agglomeration, None)</t>
-  </si>
-  <si>
     <t>Technique of calculating balanced acc</t>
   </si>
   <si>
@@ -1599,87 +1474,104 @@
     <t>two levels: 1. comparison of models based on different features; 2. permutation testing of SVM weights for each voxel</t>
   </si>
   <si>
-    <t>Functional connectivities between: dorsomedial PFC, amygdala, dorsolateral PFC,  bilateral orbitofrontal, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, VLPFC, primary sensorimotor cortex, ACC, ventral tegmentum area</t>
+    <t>1. brain parcellation (95 ROIs), 
+2. feature extraction: extract time-dependent communities via a multilayer detection algorithm; create module allegiance matrices (show whether two nodes are assigned to the same community); calculate node flexibilities for 95 ROIs,
+3. feature selection: minimum redundancy maximum relevance (mRMR) (potential data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</t>
+  </si>
+  <si>
+    <t>1. theory-based ROI selection: 13 ROIs, 
+2. create one model per ROI (input features: connectivities to the 12 other ROIs)</t>
+  </si>
+  <si>
+    <t>putamen (l/r), pallidum (r), hippocampus (l), amygdala (r), caudate (r), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are separately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant), insula (l), lingual (l), rectus (l)</t>
+  </si>
+  <si>
+    <t>node-flexibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral anterior cingulate cortex</t>
+  </si>
+  <si>
+    <t>1 significant network: centered on the bilateral superior temporal gyrus (STG), 2. no clear picture with respect to important voxels</t>
+  </si>
+  <si>
+    <t>Dorsolateral PFC (l) model had highest model accuracy (and was significant), 2nd significant model: left intraparietal sulcus</t>
+  </si>
+  <si>
+    <t>single connectivities, grouped into connectivities between 24 coarse brain regions</t>
+  </si>
+  <si>
+    <t>1. brain regions belonging to independent component, 2. brain regions voxel-clusters belonged to</t>
+  </si>
+  <si>
+    <t>1. brain regions belonging to independent component, 2. single voxels</t>
+  </si>
+  <si>
+    <t>brain regions belonging to independent component</t>
+  </si>
+  <si>
+    <t>subject-specific spatial maps, connectivity between independent components (wb: including brainstem and cerebellum)</t>
+  </si>
+  <si>
+    <t>between-ROI FCs between 36 emotion regulation regions of 4 networks: 
+network 1: medial superior frontal gyrus (l, BA 8), middle frontal gyrus (r, BA 8), inferior parietal lobule (l/r, BA 40), medial PFC (l, BA 10), middle frontal gyrus (l, BA 6), middle frontal gyrus (r, BA 11), insula (r), cingulate gyrus (r, BA 23), precuneus (r); 
+network 2: inferior frontal gyrus (l/r, BA 47), superior frontal gyrus (l, BA 6), superior temporal gyrus (l, BA 39), middle temporal gyrus (l, no BA), middle frontal gyrus (l, BA 6), superior frontal gyrus (l, BA 9), caudate (l), tuber (r); 
+network 3: amygdala (l/r), fusiform gyrus (l/r, BA 37), thalamus (r), parahippocampal gyrus (l), medial PFC (bilateral, BA 10), inferior occipital gyrus (l, BA 19);
+network 4: postcentral gyrus (l/r, BA 2), insula (l, BA 13), superior parietal lobule (l, BA 7), cuneus (l, BA 18), middle occipital gyrus (l, BA 19), thalamus (r), precuneus (r, BA 19), posterior cingulate (r, BA 30)</t>
+  </si>
+  <si>
+    <t>between-ROI FCs between 13 ROIs:
+subgenual anterior cingulate cortex (l/r), amygdala (l/r), intraparietal sulcus (l/r), dorsolateral PFC (l/r), anterior insula (l/r), dorsal anterior cingulate cortex, medial PFC, precuneus</t>
+  </si>
+  <si>
+    <t>seed-based whole-brain connectivity of 14 ROIs (all l/r):
+orbital part of superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate gyrus, paracingulate gyrus, posterior cingulate gyrus, hippocampus, amygdala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 specific between- &amp; within-ROI FCs:
+dorsolateral PFC (p9-46v) - Fundal area of the superior temporal sulcus within MT+ Complex, dorsolateral PFC (p9-46v) - MT+ Complex, dorsolateral PFC (46) - subgenual anterior cingulate cortex, connectivity within the ventral stream visual cortex, connectivity within 10r (part of medial prefrontal cortex)
+</t>
+  </si>
+  <si>
+    <t>4 specific ROI-to-cluster FCs:
+subgenual anterior cingulate cortex (sgACC) - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), dorsolateral PFC (l) - central opercular cortex (l)</t>
+  </si>
+  <si>
+    <t>FCs of: dorsomedial PFC, amygdala, dorsolateral PCF,  bilateral orbitofrontal cortex, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, ventrolateral , primary sensorimotor cortex, anterior cingulate cortex, ventral tegmental area</t>
+  </si>
+  <si>
+    <t>From the 3 models that got significant across all metrics (A, D, E), one model used all 4 FCs, the two other models used 3 FCs, excluding either "subgenual anterior cingulate cortex - lateral occipital cortex" OR "subgenual anterior cingulate cortex - frontal pole". As 2 FCs, namely "subgenual anterior cingulate cortex - superior parietal lobule" and "dorsolateral PFC - central opercular cortex", were among all significant models, we defined them as the most important FCs.</t>
+  </si>
+  <si>
+    <t>FC between dorsolateral PFC(p9-46v) and MT+(FST)(= Fundal area of the superior temporal sulcus in the middle temporal visual area), and FC within the visual ventral stream network (Glasser coarse area 4)</t>
   </si>
   <si>
     <r>
-      <t>1. theory-based seed selection: sgACC &amp; DLPFC, 
-2. feature selection outside ML (data leakage): seed-based analysis comparing responders vs. nonresponde</t>
+      <t xml:space="preserve">subset: whole-brain FCs from hippocampus (l), orbital part of the superior frontal gyrus (l), hippocampus (r), posterior cingulate gyrus (r), amygdala (r), and anterior cingulate gyrus (l)
+</t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r</t>
+      <t>wb: whole-brain FCs from: hippocampus (left), posterior cingulate gyrus (r)</t>
     </r>
+  </si>
+  <si>
+    <t>Important FCs of the negative feature model (best model):  inferior frontal gyrus -  inferior temporal gyrus, inferior frontal gyrus - parahippocampal gyrus, inferior frontal gyrus - fusiform gyrus, precuneus - middle frontal gyrus, basal ganglia - insula.</t>
+  </si>
+  <si>
+    <t>best network: centered in the dorsomedial PFC, including dorsolateral PFC, orbitofrontal cortex, posterior cingulate cortex; 
+2nd network: centered in the anterior cingulate cortex, including sensorimotor cortex, parahippocampal gyrus and midbrain</t>
+  </si>
+  <si>
+    <t>21 FCs, mainly between emotion networks 1 and 3 and networks 1 and 4: medial superior frontal gyrus (BA 8), inferior parietal lobule (BA 40), middle frontal gyrus (BA 6), insula (13), precuneus (BA 7), inferior frontal gyrus (BA 47), superior frontal gyrus (BA 9), caudate, amygdala, thalamus, medial PFC (BA 10), precuneus (BA 19), superior parietal lobule (BA 7), posterior cingulate (BA 30), postcentral gyrus (BA 2), inferior occipital gyrus (BA 19), parahippocampal gyrus (BA 27), cuneus (BA 18)</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s in whole data set -&gt; use seed-cluster correlation of the 4 clusters that got significant (4 connectivities) and combine them in different models</t>
-    </r>
-  </si>
-  <si>
-    <t>1. brain parcellation (95 ROIs), 
-2. feature extraction: extract time-dependent communities via a multilayer detection algorithm; create module allegiance matrices (show whether two nodes are assigned to the same community); calculate node flexibilities for 95 ROIs,
-3. feature selection: minimum redundancy maximum relevance (mRMR) (potential data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</t>
-  </si>
-  <si>
-    <r>
-      <t>1. data-based parcellation: MELODIC (Group-ICA. data leakage) -&gt; result: 25 non-noise related independent components (ICs)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. feature extraction: create subject-specific maps of group-based coomponents via dual regression, 
-3. create a model for each IC,
-4. feature selection within ML: Group comparison per voxel; voxels whose average values differ most between groups are kept (z-threshold)</t>
-    </r>
-  </si>
-  <si>
-    <t>1. data-driven parcellation: meta-ICA (based on combat controls) -&gt; result: 48 non-noise-related  independent components (ICs), 
-2. feature extraction: create subject-specific maps of group-based coomponents via dual regression,
-3. create a model for each IC,
-4. univariate feature selection within ML: group comparison per voxel; voxels whose values differ most between groups are kept (z-threshold)</t>
-  </si>
-  <si>
-    <t>1. data-driven parcellation: meta-ICA (based on trauma-exposed subjects) -&gt; result: 48 non-noise-related independent components (ICs),
-2. feature extraction: create subject-specific maps of group-based coomponents via GIG-ICA, 
-3. create a model for each IC and for each measure of between-IC-connectivity</t>
-  </si>
-  <si>
-    <t>1. theory-based ROI selection: 13 ROIs, 
-2. create one model per ROI (input features: connectivities to the 12 other ROIs)</t>
-  </si>
-  <si>
-    <r>
-      <t>1. theory-based ROI selection: 9 areas in DLPFC, DMN, VIS (38 between- and within-ROI-connectivities), 
+      <t>1. theory-based ROI selection: 9 brain regions (38 between- and within-ROI-connectivities), 
 2. feature selection outside ML (data leakage): use connectivities that correlate significantly with treatment response</t>
     </r>
     <r>
@@ -1702,8 +1594,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3. create one model for each of the 4 connectivities (1-feature-model), and add Intra-Vis-connectivity to each connectivity</t>
+      <t>3. create a 1-feature-model for each of the 4 connectivities, create three 2-features-models by adding the feature that performed best in the 1-feature models</t>
     </r>
+  </si>
+  <si>
+    <t>1. atlas-based brain parcellation (5 different atlases), 
+2. dimensionality reduction or feature selection in inner loop (4 different approaches: PCA, ANOVA, agglomeration, None)</t>
+  </si>
+  <si>
+    <r>
+      <t>1. data-based parcellation: MELODIC (Group-ICA, data leakage) -&gt; result: 25 non-noise related independent components (ICs)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. feature extraction: create subject-specific maps of group-based components via dual regression, 
+3. create a model for each IC,
+4. feature selection within ML: Group comparison per voxel; voxels whose average values differ most between groups are kept (z-threshold)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. atlas-based brain parcellation (90 ROIs), 
+2. theory-based ROI selection (14 ROIs), 
+3. create 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 
+4. 2nd-level model: SVM</t>
+  </si>
+  <si>
+    <r>
+      <t>1. theory-based seed selection (2 brain regions), 
+2. feature selection outside ML (data leakage): seed-based analysis comparing responders vs. nonresponde</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s in whole data set -&gt; use seed-cluster correlation of the 4 clusters that got significant (4 connectivities), 
+3. create 15 models with different combinations of these 4 connectivities</t>
+    </r>
+  </si>
+  <si>
+    <t>1. data-driven parcellation: meta-ICA (based on trauma-exposed subjects) -&gt; result: 48 non-noise-related independent components (ICs),
+2. feature extraction: create subject-specific maps of group-based components via GIG-ICA, 
+3. create a model for each IC and for each measure of between-IC-connectivity</t>
+  </si>
+  <si>
+    <t>1. data-driven parcellation: meta-ICA (based on combat controls) -&gt; result: 48 non-noise-related independent components (ICs), 
+2. feature extraction: create subject-specific maps of group-based components via dual regression,
+3. create a model for each IC,
+4. feature selection within ML: group comparison per voxel; voxels whose values differ most between groups are kept (z-threshold)</t>
+  </si>
+  <si>
+    <t>model allocation</t>
   </si>
 </sst>
 </file>
@@ -1919,26 +1892,6 @@
   </cellStyles>
   <dxfs count="146">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2228,6 +2181,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2555,6 +2518,16 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2569,101 +2542,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B93AC4FA-042C-41F0-816F-B3FB3FF7B6AC}" name="Tabelle449" displayName="Tabelle449" ref="A1:K50" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B93AC4FA-042C-41F0-816F-B3FB3FF7B6AC}" name="Tabelle449" displayName="Tabelle449" ref="A1:K50" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A1:K50" xr:uid="{AB7B0D2D-3E80-4270-9E29-90B19FED948E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5CF22EEB-0578-4AC4-86DE-80D9C8A1C134}" name="Autor" dataDxfId="143"/>
-    <tableColumn id="9" xr3:uid="{1E9E917A-8F1D-40F5-B43F-E8D7F661A38A}" name="Exclusion/inclusion" dataDxfId="142"/>
-    <tableColumn id="10" xr3:uid="{46439928-6F70-47E8-995A-C5008FA1F2B8}" name="Reason for exclusion" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{6F7FACA6-1DF8-4B08-9DB9-8B2C1D297113}" name="Primary disorder" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{58480E87-DD7C-4AD0-9E75-4A984E0767D3}" name="treatment" dataDxfId="139"/>
-    <tableColumn id="17" xr3:uid="{AB7320B9-8ED8-4AE3-84D3-5DA1447A2FCC}" name="6. Reporting at least one classifier whose input features are only based on or derived of/from resting-state functional connectivities" dataDxfId="138"/>
-    <tableColumn id="16" xr3:uid="{34B3A89A-51AF-48AC-A491-06B5EC0CCB25}" name="5. Predicting treatment outcome as a categorical outcome" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{63F283E2-347C-4F8C-8E3E-154154CADC6A}" name="4. Using a machine learning approach (SOME kind of validation; no correlation/association, at least linear regression)" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{2657D022-A7A6-4149-8296-9CD8FCBCDCAA}" name="3. Predicting outcome to any treatment or intervention that might improve the patients` condition " dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{EB4DA99F-C74D-4584-9A46-26F53E4C7F07}" name="2. Analysing a sample of patients with one of the following disorders as primary_x000a_disorder: unipolar depressive disorders, anxiety disorders, obsessive compulsive disorder, or post-traumatic_x000a_stress disorder" dataDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{AB77DDDB-A77A-4509-95E9-F0D1F804EA94}" name="1. Publication in a peer-reviewed journal, written in English" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{5CF22EEB-0578-4AC4-86DE-80D9C8A1C134}" name="Autor" dataDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{1E9E917A-8F1D-40F5-B43F-E8D7F661A38A}" name="Exclusion/inclusion" dataDxfId="141"/>
+    <tableColumn id="10" xr3:uid="{46439928-6F70-47E8-995A-C5008FA1F2B8}" name="Reason for exclusion" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{6F7FACA6-1DF8-4B08-9DB9-8B2C1D297113}" name="Primary disorder" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{58480E87-DD7C-4AD0-9E75-4A984E0767D3}" name="treatment" dataDxfId="138"/>
+    <tableColumn id="17" xr3:uid="{AB7320B9-8ED8-4AE3-84D3-5DA1447A2FCC}" name="6. Reporting at least one classifier whose input features are only based on or derived of/from resting-state functional connectivities" dataDxfId="137"/>
+    <tableColumn id="16" xr3:uid="{34B3A89A-51AF-48AC-A491-06B5EC0CCB25}" name="5. Predicting treatment outcome as a categorical outcome" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{63F283E2-347C-4F8C-8E3E-154154CADC6A}" name="4. Using a machine learning approach (SOME kind of validation; no correlation/association, at least linear regression)" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{2657D022-A7A6-4149-8296-9CD8FCBCDCAA}" name="3. Predicting outcome to any treatment or intervention that might improve the patients` condition " dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{EB4DA99F-C74D-4584-9A46-26F53E4C7F07}" name="2. Analysing a sample of patients with one of the following disorders as primary_x000a_disorder: unipolar depressive disorders, anxiety disorders, obsessive compulsive disorder, or post-traumatic_x000a_stress disorder" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{AB77DDDB-A77A-4509-95E9-F0D1F804EA94}" name="1. Publication in a peer-reviewed journal, written in English" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}" name="Tabelle_extract" displayName="Tabelle_extract" ref="A1:X14" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}" name="Tabelle_extract" displayName="Tabelle_extract" ref="A1:X14" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:X14" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X14">
+  <sortState ref="A2:X14">
     <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{303D52A4-F70F-4E10-BC40-21F5078D7514}" name="Study" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{9FD19389-1E46-4DB1-A20D-4D6964A4D9CD}" name="Year" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{40DC112B-6045-4F8F-9C5D-D258EEB975DF}" name="Primary disorder" dataDxfId="128"/>
-    <tableColumn id="22" xr3:uid="{E993F4CB-8480-430D-9B62-1328EF5A8A10}" name="How was diagnosis assessed?" dataDxfId="127"/>
-    <tableColumn id="19" xr3:uid="{16F940CF-D313-4B00-8FF5-D1344BC00A4C}" name="More specific diagnosis" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{303D52A4-F70F-4E10-BC40-21F5078D7514}" name="Study" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{9FD19389-1E46-4DB1-A20D-4D6964A4D9CD}" name="Year" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{40DC112B-6045-4F8F-9C5D-D258EEB975DF}" name="Primary disorder" dataDxfId="127"/>
+    <tableColumn id="22" xr3:uid="{E993F4CB-8480-430D-9B62-1328EF5A8A10}" name="How was diagnosis assessed?" dataDxfId="126"/>
+    <tableColumn id="19" xr3:uid="{16F940CF-D313-4B00-8FF5-D1344BC00A4C}" name="More specific diagnosis" dataDxfId="125"/>
     <tableColumn id="24" xr3:uid="{7F6FFA97-BBB5-4062-9245-3AABDE06025B}" name="mean severity "/>
-    <tableColumn id="20" xr3:uid="{2C923386-DD51-4240-8686-5C7D8D67810C}" name="inpatient/outpatient" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{1CF73E0B-6172-4CE9-98E1-2D7EDAF4BCAB}" name="Age group" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{BD5AEECF-DDF1-40E3-8289-EBA00FA3878E}" name="Treatment" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{EDDBEE09-F1E6-48A1-8762-06BD25ECBBCF}" name="Definition of treatment outcome" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{AC493E59-D67F-4C05-BA00-98B7CA3C763D}" name="Sample size" dataDxfId="121"/>
-    <tableColumn id="17" xr3:uid="{DCA81452-B3CB-4584-AEAB-EEE90E36C12B}" name="responders/nonresponders" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{29A83AC4-6D61-4F65-9948-C7266DCDC861}" name="Way of estimating the underlying functional connectivities" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{723E62BF-476A-4186-96E7-1944610C27A4}" name="Type of functional-connectivity-based input features" dataDxfId="118"/>
-    <tableColumn id="10" xr3:uid="{C61BF466-AF87-4B7D-B3EB-6A4E3E08591F}" name="Algorithm(s) of the final classifier(s)" dataDxfId="117"/>
-    <tableColumn id="11" xr3:uid="{399ACFD1-ECD0-4D6A-9AB0-5D9830C3BDC2}" name="Validation method" dataDxfId="116"/>
-    <tableColumn id="12" xr3:uid="{73B944F1-2A6E-4FAE-9E8E-E516F6235F38}" name="Classification metrics of the best model reported" dataDxfId="115"/>
-    <tableColumn id="21" xr3:uid="{8335D2B7-9B83-4894-93D8-48EC76B10566}" name="Information about all other models tested" dataDxfId="114"/>
-    <tableColumn id="13" xr3:uid="{8CE8E53E-3392-4892-B132-8E5D3E4F0CEE}" name="Way of measuring predictive value" dataDxfId="113"/>
-    <tableColumn id="14" xr3:uid="{11725636-EC25-4720-BDCD-5FDC50A9ACD3}" name="Resolution of reporting features with high predictive value" dataDxfId="112"/>
-    <tableColumn id="15" xr3:uid="{B6CC0645-E5E2-48DD-99FB-65CF941C0014}" name="Features with high predictive value" dataDxfId="111"/>
-    <tableColumn id="16" xr3:uid="{212BF901-6AF0-4E2D-BB8B-AE09C9A82706}" name="Approach to reduce the number of initially available connectivities" dataDxfId="110"/>
-    <tableColumn id="18" xr3:uid="{44F820D4-8EA5-403F-AB63-6A88A53D0AF9}" name="How were regions defined?" dataDxfId="109"/>
-    <tableColumn id="23" xr3:uid="{61AB724A-B83C-45FE-8213-7EA05196F4A4}" name="Comments" dataDxfId="108"/>
+    <tableColumn id="20" xr3:uid="{2C923386-DD51-4240-8686-5C7D8D67810C}" name="inpatient/outpatient" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{1CF73E0B-6172-4CE9-98E1-2D7EDAF4BCAB}" name="Age group" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{BD5AEECF-DDF1-40E3-8289-EBA00FA3878E}" name="Treatment" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{EDDBEE09-F1E6-48A1-8762-06BD25ECBBCF}" name="Definition of treatment outcome" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{AC493E59-D67F-4C05-BA00-98B7CA3C763D}" name="Sample size" dataDxfId="120"/>
+    <tableColumn id="17" xr3:uid="{DCA81452-B3CB-4584-AEAB-EEE90E36C12B}" name="responders/nonresponders" dataDxfId="119"/>
+    <tableColumn id="8" xr3:uid="{29A83AC4-6D61-4F65-9948-C7266DCDC861}" name="Way of estimating the underlying functional connectivities" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{723E62BF-476A-4186-96E7-1944610C27A4}" name="Type of functional-connectivity-based input features" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{C61BF466-AF87-4B7D-B3EB-6A4E3E08591F}" name="Algorithm(s) of the final classifier(s)" dataDxfId="116"/>
+    <tableColumn id="11" xr3:uid="{399ACFD1-ECD0-4D6A-9AB0-5D9830C3BDC2}" name="Validation method" dataDxfId="115"/>
+    <tableColumn id="12" xr3:uid="{73B944F1-2A6E-4FAE-9E8E-E516F6235F38}" name="Classification metrics of the best model reported" dataDxfId="114"/>
+    <tableColumn id="21" xr3:uid="{8335D2B7-9B83-4894-93D8-48EC76B10566}" name="Information about all other models tested" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{8CE8E53E-3392-4892-B132-8E5D3E4F0CEE}" name="Way of measuring predictive value" dataDxfId="112"/>
+    <tableColumn id="14" xr3:uid="{11725636-EC25-4720-BDCD-5FDC50A9ACD3}" name="Resolution of reporting features with high predictive value" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{B6CC0645-E5E2-48DD-99FB-65CF941C0014}" name="Features with high predictive value" dataDxfId="110"/>
+    <tableColumn id="16" xr3:uid="{212BF901-6AF0-4E2D-BB8B-AE09C9A82706}" name="Approach to reduce the number of initially available connectivities" dataDxfId="109"/>
+    <tableColumn id="18" xr3:uid="{44F820D4-8EA5-403F-AB63-6A88A53D0AF9}" name="How were regions defined?" dataDxfId="108"/>
+    <tableColumn id="23" xr3:uid="{61AB724A-B83C-45FE-8213-7EA05196F4A4}" name="Comments" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{78EFE8E8-F850-4284-B59D-FBB75F2E87A6}" name="TabelleRQ0" displayName="TabelleRQ0" ref="A1:N14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{78EFE8E8-F850-4284-B59D-FBB75F2E87A6}" name="TabelleRQ0" displayName="TabelleRQ0" ref="A1:N14" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A1:N14" xr:uid="{78EFE8E8-F850-4284-B59D-FBB75F2E87A6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C7393895-ED15-4F2E-A989-1CCA8CF0D9E2}" name="Study" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{3AF91C48-2F73-43D1-AA5B-8CD6A64B1DEA}" name="Year" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{29590781-5792-4AD1-9BB1-61DB7518322B}" name="Primary disorder" dataDxfId="103">
+    <tableColumn id="1" xr3:uid="{C7393895-ED15-4F2E-A989-1CCA8CF0D9E2}" name="Study" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{3AF91C48-2F73-43D1-AA5B-8CD6A64B1DEA}" name="Year" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{29590781-5792-4AD1-9BB1-61DB7518322B}" name="Primary disorder" dataDxfId="102">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Primary disorder]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B6820231-B0F5-4EA3-8977-ACBF62C62400}" name="Age group" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{B6820231-B0F5-4EA3-8977-ACBF62C62400}" name="Age group" dataDxfId="101">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Age group]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C16F6EDB-61FA-43F7-8453-02A73E32092E}" name="Treatment" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{C16F6EDB-61FA-43F7-8453-02A73E32092E}" name="Treatment" dataDxfId="100">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Treatment]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A52A86F4-B99E-4CB7-81A3-1E9E5BE7F7C3}" name="Definition of treatment outcome" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{A52A86F4-B99E-4CB7-81A3-1E9E5BE7F7C3}" name="Definition of treatment outcome" dataDxfId="99">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Definition of treatment outcome]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9EB0DB04-D0F9-427A-89E5-E47E36F5F23B}" name="Sample size" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{9EB0DB04-D0F9-427A-89E5-E47E36F5F23B}" name="Sample size" dataDxfId="98">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1BC3FD7D-03CD-4B39-9D46-158CB06FEE04}" name="Responders/nonresponders" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{1BC3FD7D-03CD-4B39-9D46-158CB06FEE04}" name="Responders/nonresponders" dataDxfId="97">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5C0B472B-14EC-4F77-890E-BDDD8DCCC857}" name="Way of estimating the underlying functional connectivities" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{5C0B472B-14EC-4F77-890E-BDDD8DCCC857}" name="Way of estimating the underlying functional connectivities" dataDxfId="96">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Way of estimating the underlying functional connectivities]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{549E771D-9F78-47A8-9FE9-67F5D76C5867}" name="Type of functional-connectivity-based input features" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{549E771D-9F78-47A8-9FE9-67F5D76C5867}" name="Type of functional-connectivity-based input features" dataDxfId="95">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{2CDD70C2-C04F-4B91-9C88-6F683313C071}" name="Algorithm(s) of the final classifier(s)" dataDxfId="95">
+    <tableColumn id="11" xr3:uid="{2CDD70C2-C04F-4B91-9C88-6F683313C071}" name="Algorithm(s) of the final classifier(s)" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6E2C9E31-FC06-4DB8-ACE2-CCEA6B5D507C}" name="Validation method" dataDxfId="94">
+    <tableColumn id="12" xr3:uid="{6E2C9E31-FC06-4DB8-ACE2-CCEA6B5D507C}" name="Validation method" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Validation method]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{73B9EBC2-24F7-4B50-AD72-4CE3D3A97257}" name="Balanced_acc_final" dataDxfId="93">
+    <tableColumn id="13" xr3:uid="{73B9EBC2-24F7-4B50-AD72-4CE3D3A97257}" name="Balanced_acc_final" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP(A2,TabelleRQ1[#All],(MATCH(TabelleRQ0[[#Headers],[Balanced_acc_final]],TabelleRQ1[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{41ABA4C7-53C9-4319-B821-10E105A60176}" name="Information on models tested" dataDxfId="92">
+    <tableColumn id="14" xr3:uid="{41ABA4C7-53C9-4319-B821-10E105A60176}" name="Information on models tested" dataDxfId="91">
       <calculatedColumnFormula>VLOOKUP(A2,TabelleRQ1[#All],(MATCH(TabelleRQ0[[#Headers],[Information on models tested]],TabelleRQ1[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2672,7 +2645,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}" name="TabelleRQ1" displayName="TabelleRQ1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}" name="TabelleRQ1" displayName="TabelleRQ1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:W14" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}">
     <filterColumn colId="15">
       <filters>
@@ -2680,62 +2653,62 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W14">
+  <sortState ref="A2:W14">
     <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{ED57257D-9738-4588-9815-662A66415EF1}" name="Study" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{E498A5B8-931F-4B60-9292-00755C54BBBE}" name="Year" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{45676C08-837F-4954-B266-5D9A426B1630}" name="Classification metrics of the best model reported" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{ED57257D-9738-4588-9815-662A66415EF1}" name="Study" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{E498A5B8-931F-4B60-9292-00755C54BBBE}" name="Year" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{45676C08-837F-4954-B266-5D9A426B1630}" name="Classification metrics of the best model reported" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2697BAC4-7C68-4BA5-928F-72703A5AE8E3}" name="Accuracy (of the best model reported)" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{7E029B47-132C-4956-8C32-45BCD2DE74CF}" name="Reported_Accuracy_rounded" dataDxfId="85">
+    <tableColumn id="4" xr3:uid="{2697BAC4-7C68-4BA5-928F-72703A5AE8E3}" name="Accuracy (of the best model reported)" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{7E029B47-132C-4956-8C32-45BCD2DE74CF}" name="Reported_Accuracy_rounded" dataDxfId="84">
       <calculatedColumnFormula>ROUND(TabelleRQ1[[#This Row],[Accuracy (of the best model reported)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{82C42500-CF6C-44D9-83A7-BF19EE605BB2}" name="Significant prediction" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{A1B2E231-8C33-4040-8CCA-E7A840F62E1C}" name="responders/nonresponders" dataDxfId="83">
+    <tableColumn id="13" xr3:uid="{82C42500-CF6C-44D9-83A7-BF19EE605BB2}" name="Significant prediction" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{A1B2E231-8C33-4040-8CCA-E7A840F62E1C}" name="responders/nonresponders" dataDxfId="82">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{45B6005B-26A4-4178-8967-3F127EFD242E}" name="responders" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{ADDFEA65-4F9D-4A5D-9F1E-BBCB166C83BD}" name="nonresponders" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{0A7DF5CD-792E-4D04-A86E-706E5160E13B}" name="n_maj_class" dataDxfId="80">
+    <tableColumn id="8" xr3:uid="{45B6005B-26A4-4178-8967-3F127EFD242E}" name="responders" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{ADDFEA65-4F9D-4A5D-9F1E-BBCB166C83BD}" name="nonresponders" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{0A7DF5CD-792E-4D04-A86E-706E5160E13B}" name="n_maj_class" dataDxfId="79">
       <calculatedColumnFormula>IF(TabelleRQ1[[#This Row],[responders]]&gt;TabelleRQ1[[#This Row],[nonresponders]],TabelleRQ1[[#This Row],[responders]],TabelleRQ1[[#This Row],[nonresponders]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{970D86F6-FB12-4100-80A5-42A454EE8654}" name="acc maj. class" dataDxfId="79">
+    <tableColumn id="10" xr3:uid="{970D86F6-FB12-4100-80A5-42A454EE8654}" name="acc maj. class" dataDxfId="78">
       <calculatedColumnFormula>ROUND(TabelleRQ1[[#This Row],[n_maj_class]]/(TabelleRQ1[[#This Row],[responders]]+TabelleRQ1[[#This Row],[nonresponders]])*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A74524C5-06F9-4070-87C0-7A2096C4C728}" name="improvement_above_chance" dataDxfId="78">
+    <tableColumn id="12" xr3:uid="{A74524C5-06F9-4070-87C0-7A2096C4C728}" name="improvement_above_chance" dataDxfId="77">
       <calculatedColumnFormula xml:space="preserve"> TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]]-TabelleRQ1[[#This Row],[acc maj. class]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{4411F087-9B45-4E5A-8C4A-4DC472D738FE}" name="Balanced_acc_proxy" dataDxfId="77">
+    <tableColumn id="21" xr3:uid="{4411F087-9B45-4E5A-8C4A-4DC472D738FE}" name="Balanced_acc_proxy" dataDxfId="76">
       <calculatedColumnFormula>TabelleRQ1[[#This Row],[improvement_above_chance]]+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6375C778-144E-4BCF-9FB8-A0251EFA3F08}" name="Balanced_acc_based_on_sens_and_spec" dataDxfId="76"/>
-    <tableColumn id="24" xr3:uid="{0D95107A-FD96-408C-A7CC-9261DD01761B}" name="Balanced_acc_based_on_sens_and_spec_round" dataDxfId="75">
+    <tableColumn id="6" xr3:uid="{6375C778-144E-4BCF-9FB8-A0251EFA3F08}" name="Balanced_acc_based_on_sens_and_spec" dataDxfId="75"/>
+    <tableColumn id="24" xr3:uid="{0D95107A-FD96-408C-A7CC-9261DD01761B}" name="Balanced_acc_based_on_sens_and_spec_round" dataDxfId="74">
       <calculatedColumnFormula xml:space="preserve"> ROUND(TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{85018829-7282-4F60-90B7-96E702548402}" name="Technique of calculating balanced acc" dataDxfId="74"/>
-    <tableColumn id="23" xr3:uid="{13C8BACB-17FB-42C5-B31F-E2FE859D8903}" name="Balanced_acc_final" dataDxfId="73">
+    <tableColumn id="5" xr3:uid="{85018829-7282-4F60-90B7-96E702548402}" name="Technique of calculating balanced acc" dataDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{13C8BACB-17FB-42C5-B31F-E2FE859D8903}" name="Balanced_acc_final" dataDxfId="72">
       <calculatedColumnFormula xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7AFF4EA4-9825-48BC-91A5-4557E81E3C05}" name="Sample size" dataDxfId="72">
+    <tableColumn id="15" xr3:uid="{7AFF4EA4-9825-48BC-91A5-4557E81E3C05}" name="Sample size" dataDxfId="71">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7143B2EE-E343-462D-83F9-B0C544D45732}" name="Information about all other models tested" dataDxfId="71">
+    <tableColumn id="16" xr3:uid="{7143B2EE-E343-462D-83F9-B0C544D45732}" name="Information about all other models tested" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Information about all other models tested]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{43600BC9-99D3-451C-A36C-388C5218E288}" name="Information on models tested" dataDxfId="70"/>
-    <tableColumn id="17" xr3:uid="{D5024A1E-1428-4F0C-9475-D98D48DE56E5}" name="mean_acc_other_models" dataDxfId="69"/>
-    <tableColumn id="18" xr3:uid="{28FE75F4-20A5-4BA4-A4B8-D8D8EFEBAD3F}" name="min_acc_other_models" dataDxfId="68"/>
-    <tableColumn id="19" xr3:uid="{F3C496B4-2DC5-4C89-8A37-BFA11FE33FA7}" name="max_acc_other_models" dataDxfId="67"/>
+    <tableColumn id="20" xr3:uid="{43600BC9-99D3-451C-A36C-388C5218E288}" name="Information on models tested" dataDxfId="69"/>
+    <tableColumn id="17" xr3:uid="{D5024A1E-1428-4F0C-9475-D98D48DE56E5}" name="mean_acc_other_models" dataDxfId="68"/>
+    <tableColumn id="18" xr3:uid="{28FE75F4-20A5-4BA4-A4B8-D8D8EFEBAD3F}" name="min_acc_other_models" dataDxfId="67"/>
+    <tableColumn id="19" xr3:uid="{F3C496B4-2DC5-4C89-8A37-BFA11FE33FA7}" name="max_acc_other_models" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{64B94352-7FCC-40BA-91A4-C7D8E68A5804}" name="TabelleRQ2" displayName="TabelleRQ2" ref="A1:AY14" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{64B94352-7FCC-40BA-91A4-C7D8E68A5804}" name="TabelleRQ2" displayName="TabelleRQ2" ref="A1:AY14" totalsRowShown="0" headerRowDxfId="64">
   <autoFilter ref="A1:AY14" xr:uid="{64B94352-7FCC-40BA-91A4-C7D8E68A5804}">
     <filterColumn colId="3">
       <filters>
@@ -2745,89 +2718,89 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="51">
-    <tableColumn id="1" xr3:uid="{7FFA2538-CD17-4287-96E8-8041F65E83A1}" name="Study" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{94EFB65D-B7E3-4260-9C98-3A0FDD02B7F4}" name="year" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{96EB699E-8415-4ECC-BE58-AC36AF219F10}" name="Way of measuring predictive value" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{7FFA2538-CD17-4287-96E8-8041F65E83A1}" name="Study" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{94EFB65D-B7E3-4260-9C98-3A0FDD02B7F4}" name="year" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{96EB699E-8415-4ECC-BE58-AC36AF219F10}" name="Way of measuring predictive value" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Way of measuring predictive value]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{E9C3DD70-0381-4396-8ADD-E98DEE2F0816}" name="Way of measuring predictive value - categories" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{1F7A4417-535C-4567-9DCC-3445F6DAF4FF}" name="Resolution of reporting features with high predictive value" dataDxfId="61">
+    <tableColumn id="18" xr3:uid="{E9C3DD70-0381-4396-8ADD-E98DEE2F0816}" name="Way of measuring predictive value - categories" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{1F7A4417-535C-4567-9DCC-3445F6DAF4FF}" name="Resolution of reporting features with high predictive value" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CFF2BCF-613D-4FF8-B154-C55889618C19}" name="Type of FC-based input features" dataDxfId="60">
+    <tableColumn id="17" xr3:uid="{0CFF2BCF-613D-4FF8-B154-C55889618C19}" name="Type of FC-based input features" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6A5A5F13-F5D6-4BFA-AE92-51B1AC2C90BD}" name="Features with high predictive value" dataDxfId="59">
+    <tableColumn id="6" xr3:uid="{6A5A5F13-F5D6-4BFA-AE92-51B1AC2C90BD}" name="Features with high predictive value" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{2377D5CF-32E2-47E0-A83F-D35C9BAEC336}" name="How were regions defined?" dataDxfId="58">
+    <tableColumn id="23" xr3:uid="{2377D5CF-32E2-47E0-A83F-D35C9BAEC336}" name="How were regions defined?" dataDxfId="56">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E11B576B-BA5D-4D1F-92B5-A58210B411FA}" name="Comments/unclear assigments" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{4E4F98AB-3FD4-45E1-B50E-C62C876A8D74}" name="Dorsolateral PFC_tested" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{BC53AF80-E873-4133-9AFA-625CF1AA14B2}" name="Ventrolateral PFC_tested" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{7E97AE28-BEBB-44E8-9D29-31D9096B99C0}" name="Orbitofrontal Cortex_tested" dataDxfId="54"/>
-    <tableColumn id="41" xr3:uid="{5433F938-9FB1-4B85-9ADB-E2445E4317BA}" name="Medial PFC_tested" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{B1FB5E72-3320-44AE-815D-35CF027F779B}" name="Anterior cingulate cortex_tested" dataDxfId="52"/>
-    <tableColumn id="19" xr3:uid="{DADE950E-BD3B-4153-BEFA-677EC1521569}" name="Posterior cingulate cortex_tested" dataDxfId="51"/>
-    <tableColumn id="39" xr3:uid="{8104C15F-96D8-4140-A155-EA490F3B8920}" name="Precuneus_tested" dataDxfId="50"/>
-    <tableColumn id="50" xr3:uid="{830BFEDE-71A8-4ED1-BAA0-DDE21B6ED1D8}" name="Superior parietal lobule_tested" dataDxfId="49"/>
-    <tableColumn id="51" xr3:uid="{F38E2651-2865-431D-A73E-7165F207C1DA}" name="Inferior parietal lobule_tested" dataDxfId="48"/>
-    <tableColumn id="53" xr3:uid="{93010864-E163-4CC3-BAD3-27A1FF7B3AAB}" name="Superior temporal gyrus_tested" dataDxfId="47"/>
-    <tableColumn id="52" xr3:uid="{23D0396A-7FE5-4801-8888-D110ACCB3954}" name="Middle temporal gyrus_tested" dataDxfId="46"/>
-    <tableColumn id="54" xr3:uid="{4E85F3F2-E410-4BB7-8926-CAFC4CEDE9AC}" name="Inferior temporal gyrus_tested" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{1A40ABF2-1D5A-48E7-8A8F-9C18DB344981}" name="Parahippocampal gyrus_tested" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{FD2C8383-C149-4BDE-AA69-7C81182CA214}" name="Sensorimotor areas_tested" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{726FD500-95FD-4A7F-8C2F-751D88BB7D39}" name="Visual areas_tested" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{49DA7377-C1AD-4BF9-B9C7-885C3E9E91B9}" name="Amygdala_tested" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{B703DEDD-9CF5-4B3D-A8F6-250DFE259608}" name="Hippocampus_tested" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{122064C3-0D1F-4DB3-A7F8-03A1A21529D6}" name="Insula_tested" dataDxfId="39"/>
-    <tableColumn id="20" xr3:uid="{1DF26E41-FEF3-463F-BCA7-143E993A49F5}" name="Basal_ganglia_tested" dataDxfId="38"/>
-    <tableColumn id="57" xr3:uid="{CE3FFBAC-BD44-4892-B7E4-D841DDFD5444}" name="Thalamus_tested" dataDxfId="37"/>
-    <tableColumn id="55" xr3:uid="{BE220E44-1A9A-445F-B37B-FDD20A59ED26}" name="Midbrain_tested" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{5DB2C2FF-C382-4777-AAF3-621D0C0542B8}" name="Dorsolateral PFC_important" dataDxfId="35"/>
-    <tableColumn id="29" xr3:uid="{4FDED995-C633-48DF-94EB-BBF02D15BB1C}" name="Ventrolateral PFC_important" dataDxfId="34"/>
-    <tableColumn id="30" xr3:uid="{F257F39A-1803-4703-95AC-6D2BC8F7FD02}" name="Orbitofrontal cortex_important" dataDxfId="33"/>
-    <tableColumn id="42" xr3:uid="{DC78A950-11D6-4535-ACC8-0D875CCFE71C}" name="Medial PFC_important" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{70EE6249-79C4-4BC5-947F-85CD35642B20}" name="Anterior cingulate cortex_important" dataDxfId="31"/>
-    <tableColumn id="34" xr3:uid="{6A8921B7-30D3-4D4A-948A-6A77F9E6AA47}" name="Posterior cingulate cortex_important" dataDxfId="30"/>
-    <tableColumn id="40" xr3:uid="{AC9DB8A2-1DCB-4AFD-A384-F32F55FC51D5}" name="Precuneus_important" dataDxfId="29"/>
-    <tableColumn id="37" xr3:uid="{ADA57684-7482-42B5-AF81-A09B85F2FABE}" name="Superior  parietal lobule_important" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{2CFFD25A-E301-499A-9C5D-31E7CD41016B}" name="Inferior parietal lobule_important" dataDxfId="27"/>
-    <tableColumn id="36" xr3:uid="{86E47DE8-16C0-4A53-AA00-8955818065E6}" name="Superior temporal gyrus_important" dataDxfId="26"/>
-    <tableColumn id="33" xr3:uid="{E3929741-3F6E-44E0-BEBE-B6BDEC12A78B}" name="Middle temporal gyrus_important" dataDxfId="25"/>
-    <tableColumn id="49" xr3:uid="{7B8A258A-6B83-4025-86E8-483138F11985}" name="Inferior temporal gyrus_important" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{9FC3A2F6-0A63-46B1-95B5-348CF82D25BE}" name="Parahippocampal gyrus_important" dataDxfId="23"/>
-    <tableColumn id="38" xr3:uid="{CB0DD76B-1163-4547-AC35-2361709F42C4}" name="Sensorimotor areas_important" dataDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{4E5B1A9B-DC8D-4117-89ED-CA19D041ED5D}" name="Visual areas_important" dataDxfId="21"/>
-    <tableColumn id="25" xr3:uid="{57CAB004-DA13-4120-8DEB-8832763848F8}" name="Amygdala_important" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{539151F3-0451-4E0B-8174-9CF3320B94D5}" name="Hippocampus_important" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{DDE71D82-19EC-46C5-95EF-D0196C5DA329}" name="Insula_important" dataDxfId="18"/>
-    <tableColumn id="35" xr3:uid="{756B6726-6E80-49E5-A226-384030D21472}" name="Basal_ganglia_important" dataDxfId="17"/>
-    <tableColumn id="43" xr3:uid="{D02C732B-A81D-425C-8EC6-F265D7135724}" name="Thalamus_important" dataDxfId="16"/>
-    <tableColumn id="44" xr3:uid="{A6C73A45-5E44-4C06-BAF0-6629472670FB}" name="Midbrain_important" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{E11B576B-BA5D-4D1F-92B5-A58210B411FA}" name="Comments/unclear assigments" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{4E4F98AB-3FD4-45E1-B50E-C62C876A8D74}" name="Dorsolateral PFC_tested" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{BC53AF80-E873-4133-9AFA-625CF1AA14B2}" name="Ventrolateral PFC_tested" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{7E97AE28-BEBB-44E8-9D29-31D9096B99C0}" name="Orbitofrontal Cortex_tested" dataDxfId="52"/>
+    <tableColumn id="41" xr3:uid="{5433F938-9FB1-4B85-9ADB-E2445E4317BA}" name="Medial PFC_tested" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{B1FB5E72-3320-44AE-815D-35CF027F779B}" name="Anterior cingulate cortex_tested" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{DADE950E-BD3B-4153-BEFA-677EC1521569}" name="Posterior cingulate cortex_tested" dataDxfId="49"/>
+    <tableColumn id="39" xr3:uid="{8104C15F-96D8-4140-A155-EA490F3B8920}" name="Precuneus_tested" dataDxfId="48"/>
+    <tableColumn id="50" xr3:uid="{830BFEDE-71A8-4ED1-BAA0-DDE21B6ED1D8}" name="Superior parietal lobule_tested" dataDxfId="47"/>
+    <tableColumn id="51" xr3:uid="{F38E2651-2865-431D-A73E-7165F207C1DA}" name="Inferior parietal lobule_tested" dataDxfId="46"/>
+    <tableColumn id="53" xr3:uid="{93010864-E163-4CC3-BAD3-27A1FF7B3AAB}" name="Superior temporal gyrus_tested" dataDxfId="45"/>
+    <tableColumn id="52" xr3:uid="{23D0396A-7FE5-4801-8888-D110ACCB3954}" name="Middle temporal gyrus_tested" dataDxfId="44"/>
+    <tableColumn id="54" xr3:uid="{4E85F3F2-E410-4BB7-8926-CAFC4CEDE9AC}" name="Inferior temporal gyrus_tested" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{1A40ABF2-1D5A-48E7-8A8F-9C18DB344981}" name="Parahippocampal gyrus_tested" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{FD2C8383-C149-4BDE-AA69-7C81182CA214}" name="Sensorimotor areas_tested" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{726FD500-95FD-4A7F-8C2F-751D88BB7D39}" name="Visual areas_tested" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{49DA7377-C1AD-4BF9-B9C7-885C3E9E91B9}" name="Amygdala_tested" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{B703DEDD-9CF5-4B3D-A8F6-250DFE259608}" name="Hippocampus_tested" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{122064C3-0D1F-4DB3-A7F8-03A1A21529D6}" name="Insula_tested" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{1DF26E41-FEF3-463F-BCA7-143E993A49F5}" name="Basal_ganglia_tested" dataDxfId="36"/>
+    <tableColumn id="57" xr3:uid="{CE3FFBAC-BD44-4892-B7E4-D841DDFD5444}" name="Thalamus_tested" dataDxfId="35"/>
+    <tableColumn id="55" xr3:uid="{BE220E44-1A9A-445F-B37B-FDD20A59ED26}" name="Midbrain_tested" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{5DB2C2FF-C382-4777-AAF3-621D0C0542B8}" name="Dorsolateral PFC_important" dataDxfId="33"/>
+    <tableColumn id="29" xr3:uid="{4FDED995-C633-48DF-94EB-BBF02D15BB1C}" name="Ventrolateral PFC_important" dataDxfId="32"/>
+    <tableColumn id="30" xr3:uid="{F257F39A-1803-4703-95AC-6D2BC8F7FD02}" name="Orbitofrontal cortex_important" dataDxfId="31"/>
+    <tableColumn id="42" xr3:uid="{DC78A950-11D6-4535-ACC8-0D875CCFE71C}" name="Medial PFC_important" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{70EE6249-79C4-4BC5-947F-85CD35642B20}" name="Anterior cingulate cortex_important" dataDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{6A8921B7-30D3-4D4A-948A-6A77F9E6AA47}" name="Posterior cingulate cortex_important" dataDxfId="28"/>
+    <tableColumn id="40" xr3:uid="{AC9DB8A2-1DCB-4AFD-A384-F32F55FC51D5}" name="Precuneus_important" dataDxfId="27"/>
+    <tableColumn id="37" xr3:uid="{ADA57684-7482-42B5-AF81-A09B85F2FABE}" name="Superior  parietal lobule_important" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{2CFFD25A-E301-499A-9C5D-31E7CD41016B}" name="Inferior parietal lobule_important" dataDxfId="25"/>
+    <tableColumn id="36" xr3:uid="{86E47DE8-16C0-4A53-AA00-8955818065E6}" name="Superior temporal gyrus_important" dataDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{E3929741-3F6E-44E0-BEBE-B6BDEC12A78B}" name="Middle temporal gyrus_important" dataDxfId="23"/>
+    <tableColumn id="49" xr3:uid="{7B8A258A-6B83-4025-86E8-483138F11985}" name="Inferior temporal gyrus_important" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{9FC3A2F6-0A63-46B1-95B5-348CF82D25BE}" name="Parahippocampal gyrus_important" dataDxfId="21"/>
+    <tableColumn id="38" xr3:uid="{CB0DD76B-1163-4547-AC35-2361709F42C4}" name="Sensorimotor areas_important" dataDxfId="20"/>
+    <tableColumn id="28" xr3:uid="{4E5B1A9B-DC8D-4117-89ED-CA19D041ED5D}" name="Visual areas_important" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{57CAB004-DA13-4120-8DEB-8832763848F8}" name="Amygdala_important" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{539151F3-0451-4E0B-8174-9CF3320B94D5}" name="Hippocampus_important" dataDxfId="17"/>
+    <tableColumn id="31" xr3:uid="{DDE71D82-19EC-46C5-95EF-D0196C5DA329}" name="Insula_important" dataDxfId="16"/>
+    <tableColumn id="35" xr3:uid="{756B6726-6E80-49E5-A226-384030D21472}" name="Basal_ganglia_important" dataDxfId="15"/>
+    <tableColumn id="43" xr3:uid="{D02C732B-A81D-425C-8EC6-F265D7135724}" name="Thalamus_important" dataDxfId="14"/>
+    <tableColumn id="44" xr3:uid="{A6C73A45-5E44-4C06-BAF0-6629472670FB}" name="Midbrain_important" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32345BC2-166C-462B-945A-2A5FCE2C90C9}" name="TabelleRQ3" displayName="TabelleRQ3" ref="A1:K14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32345BC2-166C-462B-945A-2A5FCE2C90C9}" name="TabelleRQ3" displayName="TabelleRQ3" ref="A1:K14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K14" xr:uid="{32345BC2-166C-462B-945A-2A5FCE2C90C9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EC001A90-3335-40E5-B7AF-994822BDDF6F}" name="Study" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{CC6B84FE-09AC-41D6-932C-A073DA7CC228}" name="Year" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FE59DC2F-0FDD-42DD-A7BA-898D2250377E}" name="approach to reduce the number of initially available connectivities" dataDxfId="10">
-      <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{EC001A90-3335-40E5-B7AF-994822BDDF6F}" name="Study" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CC6B84FE-09AC-41D6-932C-A073DA7CC228}" name="Year" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FE59DC2F-0FDD-42DD-A7BA-898D2250377E}" name="Approach to reduce the number of initially available connectivities" dataDxfId="8">
+      <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65389E39-0DBD-4379-83C4-3BD38593157B}" name="atlas-based parcellation" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{BE8EA88C-7A04-4904-88BA-E98B7C72A523}" name="data-driven parcellation" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{295083FB-6BA4-4372-AC13-4F89F925BFDA}" name="theory-based selection" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{65ECF915-11C7-4CF9-BEBF-B7D67A41DD9E}" name="distribution to different models" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{6650CE8A-3468-4AC1-B9F7-B8C5474880AE}" name="dimensionality reduction" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E0938C17-98D3-4593-A50E-779FA830B233}" name="filter feature selection" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{BA52A5FE-6AC3-4D8E-AC54-75897A2A67AC}" name="wrapper feature selection" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{50D64290-E826-4AAE-81FE-5244EFE8E3E0}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{65389E39-0DBD-4379-83C4-3BD38593157B}" name="atlas-based parcellation" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{BE8EA88C-7A04-4904-88BA-E98B7C72A523}" name="data-driven parcellation" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{295083FB-6BA4-4372-AC13-4F89F925BFDA}" name="theory-based selection" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{65ECF915-11C7-4CF9-BEBF-B7D67A41DD9E}" name="model allocation" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{6650CE8A-3468-4AC1-B9F7-B8C5474880AE}" name="dimensionality reduction" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E0938C17-98D3-4593-A50E-779FA830B233}" name="filter feature selection" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{BA52A5FE-6AC3-4D8E-AC54-75897A2A67AC}" name="wrapper feature selection" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{50D64290-E826-4AAE-81FE-5244EFE8E3E0}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3136,24 +3109,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.453125" customWidth="1"/>
+    <col min="1" max="1" width="113.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3171,22 +3144,22 @@
       <selection pane="topRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3194,7 +3167,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>46</v>
@@ -3209,19 +3182,19 @@
         <v>91</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
@@ -3229,10 +3202,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -3250,7 +3223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3258,7 +3231,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -3285,7 +3258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -3293,7 +3266,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -3318,7 +3291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -3326,7 +3299,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>78</v>
@@ -3349,7 +3322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -3357,10 +3330,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -3368,7 +3341,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -3380,7 +3353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -3415,7 +3388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -3423,7 +3396,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -3446,7 +3419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -3454,7 +3427,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -3477,7 +3450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -3485,7 +3458,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -3497,7 +3470,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -3506,7 +3479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -3514,7 +3487,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -3537,7 +3510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3545,7 +3518,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>34</v>
@@ -3568,7 +3541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -3576,7 +3549,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -3599,21 +3572,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>39</v>
@@ -3634,7 +3607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -3642,7 +3615,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -3669,7 +3642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -3677,7 +3650,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -3700,7 +3673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -3714,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>37</v>
@@ -3735,7 +3708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -3778,7 +3751,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -3801,7 +3774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3809,7 +3782,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -3834,7 +3807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -3842,7 +3815,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -3860,7 +3833,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>37</v>
@@ -3869,7 +3842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3877,7 +3850,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -3904,7 +3877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3912,13 +3885,13 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3935,7 +3908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3968,7 +3941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -3976,13 +3949,13 @@
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>39</v>
@@ -4003,7 +3976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -4011,13 +3984,13 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4032,7 +4005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -4040,7 +4013,7 @@
         <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -4067,7 +4040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4102,7 +4075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -4110,7 +4083,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -4133,7 +4106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -4141,13 +4114,13 @@
         <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4164,7 +4137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -4172,7 +4145,7 @@
         <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -4197,21 +4170,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>39</v>
@@ -4232,7 +4205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -4275,10 +4248,10 @@
         <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -4298,15 +4271,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -4331,7 +4304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -4339,7 +4312,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>78</v>
@@ -4351,7 +4324,7 @@
         <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>37</v>
@@ -4366,7 +4339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -4380,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>37</v>
@@ -4401,7 +4374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -4409,7 +4382,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -4432,7 +4405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -4440,7 +4413,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -4461,7 +4434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -4469,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -4496,7 +4469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -4531,7 +4504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -4545,7 +4518,7 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>37</v>
@@ -4566,9 +4539,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -4601,7 +4574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -4609,7 +4582,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -4621,7 +4594,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>37</v>
@@ -4630,7 +4603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -4638,10 +4611,10 @@
         <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -4665,7 +4638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4700,7 +4673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -4708,7 +4681,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -4731,7 +4704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
@@ -4739,19 +4712,19 @@
         <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>37</v>
@@ -4760,7 +4733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
@@ -4795,7 +4768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -4832,7 +4805,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:C23">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="145" priority="1" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4848,36 +4821,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1B465A-9749-46BF-8A21-FA206FEA8B0D}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="3" max="7" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" customWidth="1"/>
-    <col min="13" max="13" width="31.7265625" customWidth="1"/>
-    <col min="14" max="14" width="80.26953125" customWidth="1"/>
-    <col min="15" max="15" width="32.7265625" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" customWidth="1"/>
-    <col min="17" max="17" width="29.81640625" customWidth="1"/>
-    <col min="18" max="18" width="60.81640625" customWidth="1"/>
-    <col min="19" max="19" width="26.26953125" customWidth="1"/>
-    <col min="20" max="20" width="46.7265625" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" customWidth="1"/>
-    <col min="22" max="23" width="46.7265625" customWidth="1"/>
-    <col min="24" max="24" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" customWidth="1"/>
+    <col min="14" max="14" width="80.28515625" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" customWidth="1"/>
+    <col min="18" max="18" width="60.85546875" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" customWidth="1"/>
+    <col min="20" max="20" width="46.7109375" customWidth="1"/>
+    <col min="21" max="21" width="38.42578125" customWidth="1"/>
+    <col min="22" max="23" width="46.7109375" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>129</v>
@@ -4886,70 +4859,70 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -4961,20 +4934,20 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="F2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K2" s="2">
         <v>124</v>
@@ -4983,10 +4956,10 @@
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>65</v>
@@ -4995,29 +4968,29 @@
         <v>61</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -5028,16 +5001,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>104</v>
@@ -5046,31 +5019,31 @@
         <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K3" s="2">
         <v>144</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>119</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>36</v>
@@ -5082,14 +5055,14 @@
         <v>36</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5100,25 +5073,25 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="K4" s="2">
         <v>61</v>
@@ -5130,40 +5103,40 @@
         <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -5174,25 +5147,25 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K5" s="2">
         <v>82</v>
@@ -5204,42 +5177,42 @@
         <v>118</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>123</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -5248,16 +5221,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F6" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>104</v>
@@ -5266,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K6" s="2">
         <v>18</v>
@@ -5275,10 +5248,10 @@
         <v>113</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>103</v>
@@ -5287,29 +5260,29 @@
         <v>61</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="164.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -5320,23 +5293,23 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K7" s="2">
         <v>98</v>
@@ -5348,7 +5321,7 @@
         <v>64</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>121</v>
@@ -5357,29 +5330,29 @@
         <v>61</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>122</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>323</v>
+        <v>437</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -5390,13 +5363,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>104</v>
@@ -5405,7 +5378,7 @@
         <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K8" s="2">
         <v>21</v>
@@ -5417,7 +5390,7 @@
         <v>64</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>120</v>
@@ -5426,29 +5399,29 @@
         <v>61</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="281.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="281.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -5459,10 +5432,10 @@
         <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
@@ -5472,50 +5445,50 @@
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="K9" s="2">
         <v>122</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>135</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" s="9" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" s="9" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -5526,14 +5499,14 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="6" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>104</v>
@@ -5542,52 +5515,52 @@
         <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K10" s="2">
         <v>106</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -5596,13 +5569,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -5612,7 +5585,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K11" s="2">
         <v>45</v>
@@ -5621,10 +5594,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>65</v>
@@ -5633,29 +5606,29 @@
         <v>61</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -5666,13 +5639,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
@@ -5682,7 +5655,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K12" s="2">
         <v>67</v>
@@ -5694,7 +5667,7 @@
         <v>64</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>65</v>
@@ -5703,29 +5676,29 @@
         <v>61</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5736,20 +5709,20 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K13" s="2">
         <v>44</v>
@@ -5758,41 +5731,41 @@
         <v>116</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>249</v>
+        <v>425</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -5800,13 +5773,13 @@
         <v>2021</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="F14">
         <v>56.1</v>
@@ -5816,10 +5789,10 @@
         <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K14" s="2">
         <v>40</v>
@@ -5828,34 +5801,34 @@
         <v>117</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>292</v>
+        <v>428</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>248</v>
+        <v>422</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -5878,27 +5851,27 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="12"/>
-    <col min="3" max="3" width="16.26953125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="31.7265625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="29.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="12"/>
+    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="12" customWidth="1"/>
     <col min="9" max="9" width="52" style="12" customWidth="1"/>
     <col min="10" max="10" width="31" style="12" customWidth="1"/>
-    <col min="11" max="11" width="33.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="52.1796875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="52.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>129</v>
@@ -5907,40 +5880,40 @@
         <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -5996,7 +5969,7 @@
         <v>no other models tested</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6054,7 +6027,7 @@
 accuracies: 39% - 61% </v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -6092,7 +6065,7 @@
       <c r="J4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>4 specific ROI-to-cluster FCs:
-sgACC - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</v>
+subgenual anterior cingulate cortex (sgACC) - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), dorsolateral PFC (l) - central opercular cortex (l)</v>
       </c>
       <c r="K4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6114,7 +6087,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -6172,9 +6145,9 @@
 accuracies: ca. 50% - 90%</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -6210,7 +6183,7 @@
       <c r="J6" s="12" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v xml:space="preserve">5 specific between- &amp; within-ROI FCs:
-DLPFC(p9-46v) - Fundal area of the superior temporal sulcus within MT+ Complex, DLPFC(p9-46v) - MT+ Complex, DLPFC(46) - s32(part of the ACC), connectivity within the ventral stream visual cortex, connectivity within 10r(part of medial prefrontal cortex)
+dorsolateral PFC (p9-46v) - Fundal area of the superior temporal sulcus within MT+ Complex, dorsolateral PFC (p9-46v) - MT+ Complex, dorsolateral PFC (46) - subgenual anterior cingulate cortex, connectivity within the ventral stream visual cortex, connectivity within 10r (part of medial prefrontal cortex)
 </v>
       </c>
       <c r="K6" s="12" t="str">
@@ -6232,7 +6205,7 @@
 accuracies: 72% - 89% (mean: 83%)</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -6270,7 +6243,7 @@
       <c r="J7" s="12" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>seed-based whole-brain connectivity of 14 ROIs (all l/r):
-orbital part superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate and paracingulate gyri, posterior cingulate gyrus, hippocampus, amygdala</v>
+orbital part of superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate gyrus, paracingulate gyrus, posterior cingulate gyrus, hippocampus, amygdala</v>
       </c>
       <c r="K7" s="12" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6291,7 +6264,7 @@
 accuracies: 81%</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -6329,7 +6302,7 @@
       <c r="J8" s="12" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>between-ROI FCs between 13 ROIs:
-sgACC (l/r), amygdala (l/r), intraparietal sulcus (l/r), DLPFC (l/r), anterior insula (l/r), dACC, medial PFC, precuneus</v>
+subgenual anterior cingulate cortex (l/r), amygdala (l/r), intraparietal sulcus (l/r), dorsolateral PFC (l/r), anterior insula (l/r), dorsal anterior cingulate cortex, medial PFC, precuneus</v>
       </c>
       <c r="K8" s="12" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6350,7 +6323,7 @@
 accuracies: 44% - 89%</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -6412,7 +6385,7 @@
 accuracies: 58% - 75% (mean: 67%)</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -6470,9 +6443,9 @@
 accuracies: 69% - 79% (mean: 73%)</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -6528,7 +6501,7 @@
 2 of 25 models got significant</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="406" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -6566,7 +6539,10 @@
       <c r="J12" s="12" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>between-ROI FCs between 36 emotion regulation regions of 4 networks: 
-network 1: medial superior frontal gyrus (l, BA 8), middle frontal gyrus (r, BA 8), inferior parietal lobule (l/r, BA 40), medial PFC (l, BA 10), middle frontal gyrus (l, BA 6), middle frontal gyrus (r, BA 11), insula (r), cingulate gyrus (r, BA 23), precuneus (r); network 2: inferior frontal gyrus (l/r, BA 47), superior frontal gyrus (l, BA 6), superior temporal gyrus (l, BA 39), middle temporal gyrus (l, no BA), middle frontal gyrus (l, BA 6), superior frontal gyrus (l, BA 9), caudate (l), tuber (r); network 3: amygdala (l/r), fusiform gyrus (l/r, BA 37), thalamus (r), parahippocampal gyrus (l), medial PFC (bilateral, BA 10), inferior occipital gyrus (l, BA 19); network 4: postcentral gyrus (l/r, BA 2), insula (l, BA 13), superior parietal lobule (l, BA 7), cuneus (l, BA 18), middle occipital gyrus (l, BA 19), thalamus (r), precuneus (r, BA 19), posterior cingulate (r, BA 30)</v>
+network 1: medial superior frontal gyrus (l, BA 8), middle frontal gyrus (r, BA 8), inferior parietal lobule (l/r, BA 40), medial PFC (l, BA 10), middle frontal gyrus (l, BA 6), middle frontal gyrus (r, BA 11), insula (r), cingulate gyrus (r, BA 23), precuneus (r); 
+network 2: inferior frontal gyrus (l/r, BA 47), superior frontal gyrus (l, BA 6), superior temporal gyrus (l, BA 39), middle temporal gyrus (l, no BA), middle frontal gyrus (l, BA 6), superior frontal gyrus (l, BA 9), caudate (l), tuber (r); 
+network 3: amygdala (l/r), fusiform gyrus (l/r, BA 37), thalamus (r), parahippocampal gyrus (l), medial PFC (bilateral, BA 10), inferior occipital gyrus (l, BA 19);
+network 4: postcentral gyrus (l/r, BA 2), insula (l, BA 13), superior parietal lobule (l, BA 7), cuneus (l, BA 18), middle occipital gyrus (l, BA 19), thalamus (r), precuneus (r, BA 19), posterior cingulate (r, BA 30)</v>
       </c>
       <c r="K12" s="12" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6585,7 +6561,7 @@
         <v>no other models tested</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -6643,7 +6619,7 @@
 1 of 48 models got significant</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -6680,7 +6656,7 @@
       </c>
       <c r="J14" s="12" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>subject-specific spatial maps, connectivity between ICs (wb: including brainstem and cerebellum)</v>
+        <v>subject-specific spatial maps, connectivity between independent components (wb: including brainstem and cerebellum)</v>
       </c>
       <c r="K14" s="12" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6714,47 +6690,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F4D5AD-084B-4F09-AA74-A1999B986D46}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" customWidth="1"/>
-    <col min="8" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="13" max="18" width="10.81640625" customWidth="1"/>
-    <col min="19" max="19" width="53.453125" customWidth="1"/>
-    <col min="20" max="20" width="24.1796875" customWidth="1"/>
-    <col min="21" max="23" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="53.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="21" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>130</v>
@@ -6769,43 +6745,43 @@
         <v>133</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -6825,7 +6801,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="12" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -6861,7 +6837,7 @@
         <v>78</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="Q2" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -6876,7 +6852,7 @@
         <v>no other models tested</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>36</v>
@@ -6888,7 +6864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6943,7 +6919,7 @@
         <v>36</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -6961,10 +6937,10 @@
 no model got significant</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V3" s="12">
         <v>39</v>
@@ -6973,7 +6949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -7028,7 +7004,7 @@
         <v>36</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7046,19 +7022,19 @@
 accuracies: ca. 35% (visually reported) - 90%</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="W4" s="12">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -7079,7 +7055,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="12" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7115,7 +7091,7 @@
         <v>89</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7132,21 +7108,21 @@
 metrics are only reported visually; accuracies: ca. 50% - 90%</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="W5" s="12">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -7198,7 +7174,7 @@
         <v>36</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7215,10 +7191,10 @@
 accuracy: 0.72 - 0.89, CI: lower end 0.56 - 0.83</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V6" s="12">
         <v>72</v>
@@ -7227,7 +7203,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="76" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="75.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -7250,7 +7226,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="12" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7286,7 +7262,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7303,7 +7279,7 @@
 </v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U7" s="12">
         <v>81</v>
@@ -7315,7 +7291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -7371,7 +7347,7 @@
         <v>36</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7387,7 +7363,7 @@
 2nd significant model: left IPS: 83.3; mean accuracy of all models: 59.0 (CI: 15.3), range 44.4 - 88.9</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U8" s="12">
         <v>59</v>
@@ -7399,7 +7375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="163.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="163.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -7420,7 +7396,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="12" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7458,7 +7434,7 @@
         <v>67</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7482,10 +7458,10 @@
 LOOCV - response - negative + positive features: accuracy: 70.49%, sensitivity: 71.83%, specificity: 68.63%; </v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V9" s="12">
         <v>58</v>
@@ -7494,7 +7470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -7516,7 +7492,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="12" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -7551,7 +7527,7 @@
         <v>36</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7568,10 +7544,10 @@
 LOOCV: accuracy: 79.41; sens: 84.21%; spec: 73.33%</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V10" s="12">
         <v>69</v>
@@ -7580,9 +7556,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="106" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="105.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -7614,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="12">
         <v>50</v>
@@ -7634,7 +7610,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7651,19 +7627,19 @@
 1 other significant model: 80% sensitivity, 75% specificity and 80% positive predictive value</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="99.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="99.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -7720,7 +7696,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7735,7 +7711,7 @@
         <v>no other models tested</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>36</v>
@@ -7747,7 +7723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -7781,7 +7757,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K13" s="12">
         <v>50</v>
@@ -7801,7 +7777,7 @@
         <v>36</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="Q13" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7818,19 +7794,19 @@
 no other model got significant</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -7864,7 +7840,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K14" s="12">
         <v>50</v>
@@ -7884,7 +7860,7 @@
         <v>36</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7901,16 +7877,16 @@
 no other model got significant</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7932,131 +7908,131 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="3" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" customWidth="1"/>
-    <col min="7" max="8" width="35.54296875" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
-    <col min="10" max="11" width="3.453125" customWidth="1"/>
-    <col min="12" max="12" width="3.54296875" customWidth="1"/>
-    <col min="13" max="16" width="3.453125" customWidth="1"/>
-    <col min="17" max="17" width="4.54296875" customWidth="1"/>
-    <col min="18" max="18" width="3.453125" customWidth="1"/>
-    <col min="19" max="19" width="3.81640625" customWidth="1"/>
-    <col min="20" max="23" width="3.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.26953125" customWidth="1"/>
-    <col min="25" max="25" width="3.453125" customWidth="1"/>
-    <col min="26" max="26" width="4.54296875" customWidth="1"/>
-    <col min="27" max="28" width="3.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="3" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="8" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="10" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="23" width="3.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" customWidth="1"/>
+    <col min="27" max="28" width="3.42578125" customWidth="1"/>
     <col min="29" max="30" width="4" customWidth="1"/>
-    <col min="31" max="31" width="4.54296875" customWidth="1"/>
-    <col min="32" max="33" width="3.453125" customWidth="1"/>
-    <col min="34" max="34" width="4.54296875" customWidth="1"/>
-    <col min="35" max="35" width="5.1796875" customWidth="1"/>
-    <col min="36" max="37" width="3.453125" customWidth="1"/>
-    <col min="38" max="38" width="5.7265625" customWidth="1"/>
-    <col min="39" max="39" width="3.453125" customWidth="1"/>
-    <col min="40" max="40" width="6.1796875" customWidth="1"/>
-    <col min="41" max="41" width="7.54296875" customWidth="1"/>
-    <col min="42" max="43" width="6.81640625" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" customWidth="1"/>
+    <col min="32" max="33" width="3.42578125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" customWidth="1"/>
+    <col min="36" max="37" width="3.42578125" customWidth="1"/>
+    <col min="38" max="38" width="5.7109375" customWidth="1"/>
+    <col min="39" max="39" width="3.42578125" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" customWidth="1"/>
+    <col min="42" max="43" width="6.85546875" customWidth="1"/>
     <col min="44" max="44" width="6" customWidth="1"/>
-    <col min="45" max="45" width="6.26953125" customWidth="1"/>
-    <col min="46" max="46" width="5.453125" customWidth="1"/>
-    <col min="47" max="47" width="3.453125" customWidth="1"/>
-    <col min="48" max="49" width="4.453125" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" customWidth="1"/>
+    <col min="46" max="46" width="5.42578125" customWidth="1"/>
+    <col min="47" max="47" width="3.42578125" customWidth="1"/>
+    <col min="48" max="49" width="4.42578125" customWidth="1"/>
     <col min="50" max="50" width="5" customWidth="1"/>
-    <col min="51" max="51" width="5.54296875" customWidth="1"/>
-    <col min="52" max="52" width="3.453125" customWidth="1"/>
-    <col min="56" max="57" width="3.453125" customWidth="1"/>
-    <col min="58" max="58" width="5.54296875" customWidth="1"/>
-    <col min="59" max="59" width="5.453125" customWidth="1"/>
-    <col min="61" max="61" width="5.81640625" customWidth="1"/>
-    <col min="62" max="62" width="6.54296875" customWidth="1"/>
-    <col min="64" max="64" width="5.7265625" customWidth="1"/>
-    <col min="65" max="66" width="5.81640625" customWidth="1"/>
-    <col min="67" max="67" width="5.453125" customWidth="1"/>
-    <col min="68" max="68" width="6.26953125" customWidth="1"/>
-    <col min="72" max="72" width="3.453125" customWidth="1"/>
-    <col min="73" max="73" width="5.54296875" customWidth="1"/>
-    <col min="74" max="74" width="6.54296875" customWidth="1"/>
-    <col min="75" max="82" width="3.453125" customWidth="1"/>
+    <col min="51" max="51" width="5.5703125" customWidth="1"/>
+    <col min="52" max="52" width="3.42578125" customWidth="1"/>
+    <col min="56" max="57" width="3.42578125" customWidth="1"/>
+    <col min="58" max="58" width="5.5703125" customWidth="1"/>
+    <col min="59" max="59" width="5.42578125" customWidth="1"/>
+    <col min="61" max="61" width="5.85546875" customWidth="1"/>
+    <col min="62" max="62" width="6.5703125" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" customWidth="1"/>
+    <col min="65" max="66" width="5.85546875" customWidth="1"/>
+    <col min="67" max="67" width="5.42578125" customWidth="1"/>
+    <col min="68" max="68" width="6.28515625" customWidth="1"/>
+    <col min="72" max="72" width="3.42578125" customWidth="1"/>
+    <col min="73" max="73" width="5.5703125" customWidth="1"/>
+    <col min="74" max="74" width="6.5703125" customWidth="1"/>
+    <col min="75" max="82" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>259</v>
-      </c>
       <c r="K1" s="21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>127</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="S1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>108</v>
@@ -8068,58 +8044,58 @@
         <v>128</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AD1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP1" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="AE1" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR1" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="AO1" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>239</v>
-      </c>
       <c r="AS1" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AT1" s="22" t="s">
         <v>125</v>
@@ -8131,16 +8107,16 @@
         <v>126</v>
       </c>
       <c r="AW1" s="22" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AX1" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="AY1" s="23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="148" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:51" ht="147.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -8152,7 +8128,7 @@
         <v>selection frequency in feature selection with Wilcoxon rank sum test</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8164,14 +8140,14 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>Functional connectivities between: dorsomedial PFC, amygdala, dorsolateral PFC,  bilateral orbitofrontal, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, VLPFC, primary sensorimotor cortex, ACC, ventral tegmentum area</v>
+        <v>FCs of: dorsomedial PFC, amygdala, dorsolateral PCF,  bilateral orbitofrontal cortex, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, ventrolateral , primary sensorimotor cortex, anterior cingulate cortex, ventral tegmental area</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>Poweratlas (10 mm spheres) + subcortical and midbrain regions</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>37</v>
@@ -8300,7 +8276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -8460,7 +8436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="171" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" ht="171" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -8472,7 +8448,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8481,18 +8457,18 @@
       <c r="F4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>4 specific ROI-to-cluster FCs:
-sgACC - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), DLPFC (l) - central opercular cortex (l)</v>
+subgenual anterior cingulate cortex (sgACC) - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), dorsolateral PFC (l) - central opercular cortex (l)</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>From the 3 models that got significant across all metrics (A,D,E), one model used all 4 connectivities, the two other models used 3 connectivities, excluding either "sgACC-lateral occipital cortex" OR "sgACC - frontal pole". As 2 connectivities, namely "sgACC - superior parietal lobule" and "DLPFC -  central opercular cortex", were among all significant models, we defined them as the most important connectivties.</v>
+        <v>From the 3 models that got significant across all metrics (A, D, E), one model used all 4 FCs, the two other models used 3 FCs, excluding either "subgenual anterior cingulate cortex - lateral occipital cortex" OR "subgenual anterior cingulate cortex - frontal pole". As 2 FCs, namely "subgenual anterior cingulate cortex - superior parietal lobule" and "dorsolateral PFC - central opercular cortex", were among all significant models, we defined them as the most important FCs.</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>peaks of clusters of connectivity with sgACC and DLPFC</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>37</v>
@@ -8621,7 +8597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="167.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" ht="167.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -8633,7 +8609,7 @@
         <v>feature weights in STCGN</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8645,14 +8621,14 @@
       </c>
       <c r="G5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>putamen (left/right), pallidum (right), hippocampus (left), amygdala (right), Caudate (right), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are separately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant, insula left, lingual left, rectus left</v>
+        <v>putamen (l/r), pallidum (r), hippocampus (l), amygdala (r), caudate (r), triangular part of inferior frontal gyrus (in the paper, the inferior frontal gyrus and the triangular part are separately mentioned, however, in the corresponding figure, only the triangular part is depicted. Therefore, we assume that the triangular part of the inferior frontal gyrus was meant), insula (l), lingual (l), rectus (l)</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>atlas not clear; subcortical areas are probably included as pallidum, hippocampus, amygdala and caudate have shown to be important, midbrain structures are probably not investigated</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -8781,9 +8757,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -8793,7 +8769,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8802,19 +8778,19 @@
       <c r="F6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v xml:space="preserve">5 specific between- &amp; within-ROI FCs:
-DLPFC(p9-46v) - Fundal area of the superior temporal sulcus within MT+ Complex, DLPFC(p9-46v) - MT+ Complex, DLPFC(46) - s32(part of the ACC), connectivity within the ventral stream visual cortex, connectivity within 10r(part of medial prefrontal cortex)
+dorsolateral PFC (p9-46v) - Fundal area of the superior temporal sulcus within MT+ Complex, dorsolateral PFC (p9-46v) - MT+ Complex, dorsolateral PFC (46) - subgenual anterior cingulate cortex, connectivity within the ventral stream visual cortex, connectivity within 10r (part of medial prefrontal cortex)
 </v>
       </c>
       <c r="G6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>Connectivity between DLPFC(p9-46v) and MT+(FST)(= Fundal area of the superior temporal sulcus in the middle temporal visual area), and within-connectivtiy in visual ventral stream network (Glasser coarse area 4)</v>
+        <v>FC between dorsolateral PFC(p9-46v) and MT+(FST)(= Fundal area of the superior temporal sulcus in the middle temporal visual area), and FC within the visual ventral stream network (Glasser coarse area 4)</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>Glasser atlas</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
@@ -8943,7 +8919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="134.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" ht="134.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -8955,7 +8931,7 @@
         <v>position ranking in linear SVM with RFE (final classifier)</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8964,19 +8940,19 @@
       <c r="F7" s="2" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>seed-based whole-brain connectivity of 14 ROIs (all l/r):
-orbital part superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate and paracingulate gyri, posterior cingulate gyrus, hippocampus, amygdala</v>
+orbital part of superior frontal gyrus, triangular part inferior frontal gyrus, insula, anterior cingulate gyrus, paracingulate gyrus, posterior cingulate gyrus, hippocampus, amygdala</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>subset: whole-brain connectivities from left HIP, left ORBsup, right HIP, (right PCG), right AMYG, and left ACG
-wb: whole-brain connectivities from: left hip, right PCG</v>
+        <v>subset: whole-brain FCs from hippocampus (l), orbital part of the superior frontal gyrus (l), hippocampus (r), posterior cingulate gyrus (r), amygdala (r), and anterior cingulate gyrus (l)
+wb: whole-brain FCs from: hippocampus (left), posterior cingulate gyrus (r)</v>
       </c>
       <c r="H7" s="2" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>AAL atlas</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>39</v>
@@ -9105,7 +9081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="9" customFormat="1" ht="119.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" s="9" customFormat="1" ht="119.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -9117,7 +9093,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9126,18 +9102,18 @@
       <c r="F8" s="2" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>between-ROI FCs between 13 ROIs:
-sgACC (l/r), amygdala (l/r), intraparietal sulcus (l/r), DLPFC (l/r), anterior insula (l/r), dACC, medial PFC, precuneus</v>
+subgenual anterior cingulate cortex (l/r), amygdala (l/r), intraparietal sulcus (l/r), dorsolateral PFC (l/r), anterior insula (l/r), dorsal anterior cingulate cortex, medial PFC, precuneus</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>DLPFC-left model had highest model accuracy (and was significant), 2nd significant model: left intraparietal sulcus</v>
+        <v>Dorsolateral PFC (l) model had highest model accuracy (and was significant), 2nd significant model: left intraparietal sulcus</v>
       </c>
       <c r="H8" s="2" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>5 mm spheres around coordinates</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
@@ -9266,7 +9242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -9278,11 +9254,11 @@
         <v>selection frequency in feature selection with correlation analysis</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>single connectivities, grouped into connectivities between 24 coarse brain regions)</v>
+        <v>single connectivities, grouped into connectivities between 24 coarse brain regions</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9290,14 +9266,14 @@
       </c>
       <c r="G9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>Important connectivities of the negative feature model (best model):  inferior frontal gyrus (IFG) -  inferior temporal gyrus (ITG), IFG - parahippocampal gyrus (PhG), IFG - fusiform gyrus (FuG), Precuneus (Pcun) - middle frontal gyrus (MFG), BG - insular (INS).</v>
+        <v>Important FCs of the negative feature model (best model):  inferior frontal gyrus -  inferior temporal gyrus, inferior frontal gyrus - parahippocampal gyrus, inferior frontal gyrus - fusiform gyrus, precuneus - middle frontal gyrus, basal ganglia - insula.</v>
       </c>
       <c r="H9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>Brainnetome, exact coordinates can be extracted from the atlas</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
@@ -9426,7 +9402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -9438,7 +9414,7 @@
         <v>feature weights in SVM (final classifier)</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9450,14 +9426,14 @@
       </c>
       <c r="G10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>node-flexibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral ACC</v>
+        <v>node-flexibilities of: right middle temporal gyrus, right middle occipital gyrus, left superior occipital gyrus, right middle frontal gyrus (2 nodes: belonging to cognitive control network and default mode network), left supplementary motor area, right insula, bilateral anterior cingulate cortex</v>
       </c>
       <c r="H10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>6 mm spheres around coordinates (supplement)</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -9586,9 +9562,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -9598,11 +9574,11 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>brain regions IC components belong to</v>
+        <v>brain regions belonging to independent component</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9610,7 +9586,8 @@
       </c>
       <c r="G11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>after multiple comparisons: 2 networks:  best network: centered in the DMPFC, including DLPFC, OFC, PCC; 2nd network: centered in the ACC, including sensorimotor cortex, parahippocampal gyrus and midbrain</v>
+        <v>best network: centered in the dorsomedial PFC, including dorsolateral PFC, orbitofrontal cortex, posterior cingulate cortex; 
+2nd network: centered in the anterior cingulate cortex, including sensorimotor cortex, parahippocampal gyrus and midbrain</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9744,7 +9721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -9756,7 +9733,7 @@
         <v>selection frequency in feature selection with SVM RFE</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9765,36 +9742,21 @@
       <c r="F12" s="2" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>between-ROI FCs between 36 emotion regulation regions of 4 networks: 
-network 1: medial superior frontal gyrus (l, BA 8), middle frontal gyrus (r, BA 8), inferior parietal lobule (l/r, BA 40), medial PFC (l, BA 10), middle frontal gyrus (l, BA 6), middle frontal gyrus (r, BA 11), insula (r), cingulate gyrus (r, BA 23), precuneus (r); network 2: inferior frontal gyrus (l/r, BA 47), superior frontal gyrus (l, BA 6), superior temporal gyrus (l, BA 39), middle temporal gyrus (l, no BA), middle frontal gyrus (l, BA 6), superior frontal gyrus (l, BA 9), caudate (l), tuber (r); network 3: amygdala (l/r), fusiform gyrus (l/r, BA 37), thalamus (r), parahippocampal gyrus (l), medial PFC (bilateral, BA 10), inferior occipital gyrus (l, BA 19); network 4: postcentral gyrus (l/r, BA 2), insula (l, BA 13), superior parietal lobule (l, BA 7), cuneus (l, BA 18), middle occipital gyrus (l, BA 19), thalamus (r), precuneus (r, BA 19), posterior cingulate (r, BA 30)</v>
+network 1: medial superior frontal gyrus (l, BA 8), middle frontal gyrus (r, BA 8), inferior parietal lobule (l/r, BA 40), medial PFC (l, BA 10), middle frontal gyrus (l, BA 6), middle frontal gyrus (r, BA 11), insula (r), cingulate gyrus (r, BA 23), precuneus (r); 
+network 2: inferior frontal gyrus (l/r, BA 47), superior frontal gyrus (l, BA 6), superior temporal gyrus (l, BA 39), middle temporal gyrus (l, no BA), middle frontal gyrus (l, BA 6), superior frontal gyrus (l, BA 9), caudate (l), tuber (r); 
+network 3: amygdala (l/r), fusiform gyrus (l/r, BA 37), thalamus (r), parahippocampal gyrus (l), medial PFC (bilateral, BA 10), inferior occipital gyrus (l, BA 19);
+network 4: postcentral gyrus (l/r, BA 2), insula (l, BA 13), superior parietal lobule (l, BA 7), cuneus (l, BA 18), middle occipital gyrus (l, BA 19), thalamus (r), precuneus (r, BA 19), posterior cingulate (r, BA 30)</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>21 connectivities, mainly between emotion networks 1 and 3 and networks 1 and 4: 
-medial superior frontal gyrus (BA 8)
-inferior parietal lobule (BA 40)
-middle frontal gyrus (BA 6)
-insula (13)
-precuneus (BA 7)
-inferior frontal gyrus (BA 47)
-superior frontal gyrus (BA 9)
-caudate
-amygdala
-thalamus
-medial PFC (BA 10)
-precuneus (BA 19)
-superior parietal lobule (BA 7)
-posterior cingulate (BA 30)
-postcentral gyrus (BA 2)
-inferior occipital gyrus (BA 19)
-parahippocampal gyrus (BA 27)
-cuneus (BA 18)</v>
+        <v>21 FCs, mainly between emotion networks 1 and 3 and networks 1 and 4: medial superior frontal gyrus (BA 8), inferior parietal lobule (BA 40), middle frontal gyrus (BA 6), insula (13), precuneus (BA 7), inferior frontal gyrus (BA 47), superior frontal gyrus (BA 9), caudate, amygdala, thalamus, medial PFC (BA 10), precuneus (BA 19), superior parietal lobule (BA 7), posterior cingulate (BA 30), postcentral gyrus (BA 2), inferior occipital gyrus (BA 19), parahippocampal gyrus (BA 27), cuneus (BA 18)</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>5 mm spheres based on meta-analysis (Brodmann area reported!)</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>37</v>
@@ -9923,7 +9885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -9935,11 +9897,11 @@
         <v>two levels: 1. comparison of models based on different features, 2. selection frequency in univariate feature selection</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. brain regions IC components belong to, 2. brain regions voxel-clusters belonged to</v>
+        <v>1. brain regions belonging to independent component, 2. brain regions voxel-clusters belonged to</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9954,7 +9916,7 @@
         <v>not clear, but coordinates are roughly given!</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>37</v>
@@ -10083,7 +10045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -10095,19 +10057,19 @@
         <v>two levels: 1. comparison of models based on different features; 2. permutation testing of SVM weights for each voxel</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. brain regions IC components belong to, 2. single voxels</v>
+        <v>1. brain regions belonging to independent component, 2. single voxels</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>subject-specific spatial maps, connectivity between ICs (wb: including brainstem and cerebellum)</v>
+        <v>subject-specific spatial maps, connectivity between independent components (wb: including brainstem and cerebellum)</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1 significant network: ICN centered on the bilateral superior temporal gyrus (STG), 2. no clear picture with respect to important voxels</v>
+        <v>1 significant network: centered on the bilateral superior temporal gyrus (STG), 2. no clear picture with respect to important voxels</v>
       </c>
       <c r="H14" s="2">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -10244,7 +10206,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="AE2:AY14">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AE2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10260,55 +10222,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E63A5-4E10-42DF-8355-05B40A93C0B4}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -10316,7 +10278,7 @@
         <v>2017</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation (258 nodes: 33.153 connectivities), 
 2. feature selection: wilcoxon rank sum test</v>
       </c>
@@ -10324,28 +10286,28 @@
         <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -10353,21 +10315,21 @@
         <v>2022</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>VLOOKUP(A3,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A3,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation (5 different atlases), 
-2. dimensionality reduction or feature selection in inner loop (4 different approaches: PCA, ANOVA, Agglomeration, None)</v>
+2. dimensionality reduction or feature selection in inner loop (4 different approaches: PCA, ANOVA, agglomeration, None)</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>37</v>
@@ -10376,13 +10338,13 @@
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10390,15 +10352,16 @@
         <v>2021</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. theory-based seed selection: sgACC &amp; DLPFC, 
-2. feature selection outside ML (data leakage): seed-based analysis comparing responders vs. nonresponders in whole data set -&gt; use seed-cluster correlation of the 4 clusters that got significant (4 connectivities) and combine them in different models</v>
+        <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <v>1. theory-based seed selection (2 brain regions), 
+2. feature selection outside ML (data leakage): seed-based analysis comparing responders vs. nonresponders in whole data set -&gt; use seed-cluster correlation of the 4 clusters that got significant (4 connectivities), 
+3. create 15 models with different combinations of these 4 connectivities</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -10407,19 +10370,19 @@
         <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -10427,7 +10390,7 @@
         <v>2021</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation, 
 2. threshold functional connectivities (proportional), 
 3. pooling layers within STCGN (first layer: 90 ROIs, last layer: 14 ROIs)</v>
@@ -10436,13 +10399,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>37</v>
@@ -10451,30 +10414,30 @@
         <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" s="3">
         <v>2019</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. theory-based ROI selection: 9 areas in DLPFC, DMN, VIS (38 between- and within-ROI-connectivities), 
+        <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <v>1. theory-based ROI selection: 9 brain regions (38 between- and within-ROI-connectivities), 
 2. feature selection outside ML (data leakage): use connectivities that correlate significantly with treatment response
-3. create one model for each of the 4 connectivities (1-feature-model), and add Intra-Vis-connectivity to each connectivity</v>
+3. create a 1-feature-model for each of the 4 connectivities, create three 2-features-models by adding the feature that performed best in the 1-feature models</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -10483,19 +10446,19 @@
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -10503,38 +10466,38 @@
         <v>2020</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation (90 ROIs), 
 2. theory-based ROI selection (14 ROIs), 
-3. 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 
+3. create 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 
 4. 2nd-level model: SVM</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -10542,15 +10505,15 @@
         <v>2018</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. theory-based ROI selection: 13 ROIs, 
 2. create one model per ROI (input features: connectivities to the 12 other ROIs)</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -10559,19 +10522,19 @@
         <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -10579,7 +10542,7 @@
         <v>2020</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 
 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 
 3. aggregate features by summing correlations</v>
@@ -10588,13 +10551,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>37</v>
@@ -10603,13 +10566,13 @@
         <v>37</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -10617,7 +10580,7 @@
         <v>2020</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. brain parcellation (95 ROIs), 
 2. feature extraction: extract time-dependent communities via a multilayer detection algorithm; create module allegiance matrices (show whether two nodes are assigned to the same community); calculate node flexibilities for 95 ROIs,
 3. feature selection: minimum redundancy maximum relevance (mRMR) (potential data leakage: It is not clear whether this process is applied on each training set or on the whole data set)</v>
@@ -10626,67 +10589,67 @@
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B11" s="3">
         <v>2015</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. data-based parcellation: MELODIC (Group-ICA. data leakage) -&gt; result: 25 non-noise related independent components (ICs),
-2. feature extraction: create subject-specific maps of group-based coomponents via dual regression, 
+        <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <v>1. data-based parcellation: MELODIC (Group-ICA, data leakage) -&gt; result: 25 non-noise related independent components (ICs),
+2. feature extraction: create subject-specific maps of group-based components via dual regression, 
 3. create a model for each IC,
 4. feature selection within ML: Group comparison per voxel; voxels whose average values differ most between groups are kept (z-threshold)</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -10694,34 +10657,36 @@
         <v>2022</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. theory-based ROI selection (36 ROIs: 630 connectivities),
 2. feature selection in inner loop: SVM-RFE</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -10729,38 +10694,38 @@
         <v>2019</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. data-driven parcellation: meta-ICA (based on combat controls) -&gt; result: 48 non-noise-related  independent components (ICs), 
-2. feature extraction: create subject-specific maps of group-based coomponents via dual regression,
+        <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <v>1. data-driven parcellation: meta-ICA (based on combat controls) -&gt; result: 48 non-noise-related independent components (ICs), 
+2. feature extraction: create subject-specific maps of group-based components via dual regression,
 3. create a model for each IC,
-4. univariate feature selection within ML: group comparison per voxel; voxels whose values differ most between groups are kept (z-threshold)</v>
+4. feature selection within ML: group comparison per voxel; voxels whose values differ most between groups are kept (z-threshold)</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -10768,34 +10733,34 @@
         <v>2021</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
+        <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. data-driven parcellation: meta-ICA (based on trauma-exposed subjects) -&gt; result: 48 non-noise-related independent components (ICs),
-2. feature extraction: create subject-specific maps of group-based coomponents via GIG-ICA, 
+2. feature extraction: create subject-specific maps of group-based components via GIG-ICA, 
 3. create a model for each IC and for each measure of between-IC-connectivity</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Summary_TR_predictions_with_rs.xlsx
+++ b/Summary_TR_predictions_with_rs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meinkcha.PSYCHOLOGIE\Documents\GitHub\Analysis_sys_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Promotion\sys_review\Analysis_sys_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF72B8-3EAB-419C-9DA8-A7E71CC944E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF778DE-5E7B-412F-89F7-CFC120B28D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{66A8DC06-0BB1-4A3D-A4A8-B85BACC4D187}"/>
+    <workbookView xWindow="29970" yWindow="1980" windowWidth="17370" windowHeight="11055" firstSheet="2" activeTab="4" xr2:uid="{66A8DC06-0BB1-4A3D-A4A8-B85BACC4D187}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="16" r:id="rId1"/>
@@ -25,6 +25,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -560,9 +571,6 @@
     <t>comparison of models based on different features</t>
   </si>
   <si>
-    <t>feature weights in STCGN</t>
-  </si>
-  <si>
     <t>feature weights in SVM (final classifier)</t>
   </si>
   <si>
@@ -748,10 +756,6 @@
   </si>
   <si>
     <t>improvement_above_chance</t>
-  </si>
-  <si>
-    <t>accuracy: 78.3% (further metrics are depicted in the confusion matrix in Fig. 4f, e.g., sensitivity: 77.9%, specify: 78.7%); no testing for significance against 0, only against clinical features only model;
-Predicting nonresponse</t>
   </si>
   <si>
     <t>accuracy: 89.63%; sensitivity: 84.57 %; specificity: 92.57%
@@ -786,9 +790,6 @@
   </si>
   <si>
     <t>model comparison; selection frequency</t>
-  </si>
-  <si>
-    <t>1. model based on pre-SMA network got significant, 2. selection frequency: largest clusters were located in the left inferior temporal gyrus (nvoxel = 14), left superior frontal gyrus (nvoxel = 10), and right precentral gyrus (nvoxel = 9).</t>
   </si>
   <si>
     <t>two levels: 1. comparison of models based on different features, 2. selection frequency in univariate feature selection</t>
@@ -1423,15 +1424,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>1. atlas-based brain parcellation (258 nodes: 33.153 connectivities), 
-2. feature selection: wilcoxon rank sum test</t>
-  </si>
-  <si>
-    <t>1. atlas-based brain parcellation, 
-2. threshold functional connectivities (proportional), 
-3. pooling layers within STCGN (first layer: 90 ROIs, last layer: 14 ROIs)</t>
-  </si>
-  <si>
     <t>1. atlas-based brain parcellation (246 ROIs; 30.135 connectivities), 
 2. feature selection via correlation analysis (keep only correlations above specific threshold value) 
 3. aggregate features by summing correlations</t>
@@ -1496,9 +1488,6 @@
   </si>
   <si>
     <t>single connectivities, grouped into connectivities between 24 coarse brain regions</t>
-  </si>
-  <si>
-    <t>1. brain regions belonging to independent component, 2. brain regions voxel-clusters belonged to</t>
   </si>
   <si>
     <t>1. brain regions belonging to independent component, 2. single voxels</t>
@@ -1532,9 +1521,6 @@
   <si>
     <t>4 specific ROI-to-cluster FCs:
 subgenual anterior cingulate cortex (sgACC) - frontal pole (l), sgACC - superior parietal lobule (l), sgACC - lateral occipital cortex (l), dorsolateral PFC (l) - central opercular cortex (l)</t>
-  </si>
-  <si>
-    <t>FCs of: dorsomedial PFC, amygdala, dorsolateral PCF,  bilateral orbitofrontal cortex, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, ventrolateral , primary sensorimotor cortex, anterior cingulate cortex, ventral tegmental area</t>
   </si>
   <si>
     <t>From the 3 models that got significant across all metrics (A, D, E), one model used all 4 FCs, the two other models used 3 FCs, excluding either "subgenual anterior cingulate cortex - lateral occipital cortex" OR "subgenual anterior cingulate cortex - frontal pole". As 2 FCs, namely "subgenual anterior cingulate cortex - superior parietal lobule" and "dorsolateral PFC - central opercular cortex", were among all significant models, we defined them as the most important FCs.</t>
@@ -1602,35 +1588,6 @@
 2. dimensionality reduction or feature selection in inner loop (4 different approaches: PCA, ANOVA, agglomeration, None)</t>
   </si>
   <si>
-    <r>
-      <t>1. data-based parcellation: MELODIC (Group-ICA, data leakage) -&gt; result: 25 non-noise related independent components (ICs)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. feature extraction: create subject-specific maps of group-based components via dual regression, 
-3. create a model for each IC,
-4. feature selection within ML: Group comparison per voxel; voxels whose average values differ most between groups are kept (z-threshold)</t>
-    </r>
-  </si>
-  <si>
     <t>1. atlas-based brain parcellation (90 ROIs), 
 2. theory-based ROI selection (14 ROIs), 
 3. create 1st-level model per ROI (input features: 89 connectivities to whole-brain ROIs, classifier: SVM-RFE), 
@@ -1677,6 +1634,60 @@
   </si>
   <si>
     <t>model allocation</t>
+  </si>
+  <si>
+    <t>accuracy: 78.3% (further percentage rates are depicted in the confusion matrix in Fig. 4f, from these, other metrics can be calculated, e.g., sensitivity: 73.7%, specificity: 82.1%); no testing for significance against 0, only against clinical features only model;
+Predicting nonresponse</t>
+  </si>
+  <si>
+    <t>feature weights in STGCN</t>
+  </si>
+  <si>
+    <t>1. atlas-based brain parcellation, 
+2. threshold functional connectivities (proportional), 
+3. pooling layers within STGCN (first layer: 90 ROIs, last layer: 14 ROIs)</t>
+  </si>
+  <si>
+    <t>FCs of: dorsomedial PFC, amygdala, dorsolateral PCF, bilateral orbitofrontal cortex, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, ventrolateral , primary sensorimotor cortex, anterior cingulate cortex, ventral tegmental area</t>
+  </si>
+  <si>
+    <t>1. brain regions belonging to independent component, 2. brain regions which overlap with voxel-clusters</t>
+  </si>
+  <si>
+    <t>1. model based on pre-supplementary motor area network got significant, 2. selection frequency: largest clusters were located in the left inferior temporal gyrus (n_voxel = 14), left superior frontal gyrus (n_voxel = 10), and right precentral gyrus (n_voxel = 9).</t>
+  </si>
+  <si>
+    <t>1. atlas-based brain parcellation (258 nodes: 33.153 connectivities), 
+2. feature selection: Wilcoxon rank sum test</t>
+  </si>
+  <si>
+    <r>
+      <t>1. data-based parcellation via ICA (Group-ICA, data leakage) -&gt; result: 25 non-noise related independent components (ICs)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. feature extraction: create subject-specific maps of group-based components via dual regression, 
+3. create a model for each IC,
+4. feature selection within ML: Group comparison per voxel; voxels whose average values differ most between groups are kept (z-threshold)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1806,7 +1817,7 @@
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1881,9 +1892,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1891,6 +1899,26 @@
     <cellStyle name="Stil 2" xfId="2" xr:uid="{C47F76B8-C660-4B10-9B02-9D699A4681A9}"/>
   </cellStyles>
   <dxfs count="146">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2181,16 +2209,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2518,16 +2536,6 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2542,101 +2550,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B93AC4FA-042C-41F0-816F-B3FB3FF7B6AC}" name="Tabelle449" displayName="Tabelle449" ref="A1:K50" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B93AC4FA-042C-41F0-816F-B3FB3FF7B6AC}" name="Tabelle449" displayName="Tabelle449" ref="A1:K50" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:K50" xr:uid="{AB7B0D2D-3E80-4270-9E29-90B19FED948E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5CF22EEB-0578-4AC4-86DE-80D9C8A1C134}" name="Autor" dataDxfId="142"/>
-    <tableColumn id="9" xr3:uid="{1E9E917A-8F1D-40F5-B43F-E8D7F661A38A}" name="Exclusion/inclusion" dataDxfId="141"/>
-    <tableColumn id="10" xr3:uid="{46439928-6F70-47E8-995A-C5008FA1F2B8}" name="Reason for exclusion" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{6F7FACA6-1DF8-4B08-9DB9-8B2C1D297113}" name="Primary disorder" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{58480E87-DD7C-4AD0-9E75-4A984E0767D3}" name="treatment" dataDxfId="138"/>
-    <tableColumn id="17" xr3:uid="{AB7320B9-8ED8-4AE3-84D3-5DA1447A2FCC}" name="6. Reporting at least one classifier whose input features are only based on or derived of/from resting-state functional connectivities" dataDxfId="137"/>
-    <tableColumn id="16" xr3:uid="{34B3A89A-51AF-48AC-A491-06B5EC0CCB25}" name="5. Predicting treatment outcome as a categorical outcome" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{63F283E2-347C-4F8C-8E3E-154154CADC6A}" name="4. Using a machine learning approach (SOME kind of validation; no correlation/association, at least linear regression)" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{2657D022-A7A6-4149-8296-9CD8FCBCDCAA}" name="3. Predicting outcome to any treatment or intervention that might improve the patients` condition " dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{EB4DA99F-C74D-4584-9A46-26F53E4C7F07}" name="2. Analysing a sample of patients with one of the following disorders as primary_x000a_disorder: unipolar depressive disorders, anxiety disorders, obsessive compulsive disorder, or post-traumatic_x000a_stress disorder" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{AB77DDDB-A77A-4509-95E9-F0D1F804EA94}" name="1. Publication in a peer-reviewed journal, written in English" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{5CF22EEB-0578-4AC4-86DE-80D9C8A1C134}" name="Autor" dataDxfId="143"/>
+    <tableColumn id="9" xr3:uid="{1E9E917A-8F1D-40F5-B43F-E8D7F661A38A}" name="Exclusion/inclusion" dataDxfId="142"/>
+    <tableColumn id="10" xr3:uid="{46439928-6F70-47E8-995A-C5008FA1F2B8}" name="Reason for exclusion" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{6F7FACA6-1DF8-4B08-9DB9-8B2C1D297113}" name="Primary disorder" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{58480E87-DD7C-4AD0-9E75-4A984E0767D3}" name="treatment" dataDxfId="139"/>
+    <tableColumn id="17" xr3:uid="{AB7320B9-8ED8-4AE3-84D3-5DA1447A2FCC}" name="6. Reporting at least one classifier whose input features are only based on or derived of/from resting-state functional connectivities" dataDxfId="138"/>
+    <tableColumn id="16" xr3:uid="{34B3A89A-51AF-48AC-A491-06B5EC0CCB25}" name="5. Predicting treatment outcome as a categorical outcome" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{63F283E2-347C-4F8C-8E3E-154154CADC6A}" name="4. Using a machine learning approach (SOME kind of validation; no correlation/association, at least linear regression)" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{2657D022-A7A6-4149-8296-9CD8FCBCDCAA}" name="3. Predicting outcome to any treatment or intervention that might improve the patients` condition " dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{EB4DA99F-C74D-4584-9A46-26F53E4C7F07}" name="2. Analysing a sample of patients with one of the following disorders as primary_x000a_disorder: unipolar depressive disorders, anxiety disorders, obsessive compulsive disorder, or post-traumatic_x000a_stress disorder" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{AB77DDDB-A77A-4509-95E9-F0D1F804EA94}" name="1. Publication in a peer-reviewed journal, written in English" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}" name="Tabelle_extract" displayName="Tabelle_extract" ref="A1:X14" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}" name="Tabelle_extract" displayName="Tabelle_extract" ref="A1:X14" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A1:X14" xr:uid="{304422E4-81E0-462B-AB08-A0451C40D059}"/>
-  <sortState ref="A2:X14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X14">
     <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{303D52A4-F70F-4E10-BC40-21F5078D7514}" name="Study" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{9FD19389-1E46-4DB1-A20D-4D6964A4D9CD}" name="Year" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{40DC112B-6045-4F8F-9C5D-D258EEB975DF}" name="Primary disorder" dataDxfId="127"/>
-    <tableColumn id="22" xr3:uid="{E993F4CB-8480-430D-9B62-1328EF5A8A10}" name="How was diagnosis assessed?" dataDxfId="126"/>
-    <tableColumn id="19" xr3:uid="{16F940CF-D313-4B00-8FF5-D1344BC00A4C}" name="More specific diagnosis" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{303D52A4-F70F-4E10-BC40-21F5078D7514}" name="Study" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{9FD19389-1E46-4DB1-A20D-4D6964A4D9CD}" name="Year" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{40DC112B-6045-4F8F-9C5D-D258EEB975DF}" name="Primary disorder" dataDxfId="128"/>
+    <tableColumn id="22" xr3:uid="{E993F4CB-8480-430D-9B62-1328EF5A8A10}" name="How was diagnosis assessed?" dataDxfId="127"/>
+    <tableColumn id="19" xr3:uid="{16F940CF-D313-4B00-8FF5-D1344BC00A4C}" name="More specific diagnosis" dataDxfId="126"/>
     <tableColumn id="24" xr3:uid="{7F6FFA97-BBB5-4062-9245-3AABDE06025B}" name="mean severity "/>
-    <tableColumn id="20" xr3:uid="{2C923386-DD51-4240-8686-5C7D8D67810C}" name="inpatient/outpatient" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{1CF73E0B-6172-4CE9-98E1-2D7EDAF4BCAB}" name="Age group" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{BD5AEECF-DDF1-40E3-8289-EBA00FA3878E}" name="Treatment" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{EDDBEE09-F1E6-48A1-8762-06BD25ECBBCF}" name="Definition of treatment outcome" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{AC493E59-D67F-4C05-BA00-98B7CA3C763D}" name="Sample size" dataDxfId="120"/>
-    <tableColumn id="17" xr3:uid="{DCA81452-B3CB-4584-AEAB-EEE90E36C12B}" name="responders/nonresponders" dataDxfId="119"/>
-    <tableColumn id="8" xr3:uid="{29A83AC4-6D61-4F65-9948-C7266DCDC861}" name="Way of estimating the underlying functional connectivities" dataDxfId="118"/>
-    <tableColumn id="9" xr3:uid="{723E62BF-476A-4186-96E7-1944610C27A4}" name="Type of functional-connectivity-based input features" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{C61BF466-AF87-4B7D-B3EB-6A4E3E08591F}" name="Algorithm(s) of the final classifier(s)" dataDxfId="116"/>
-    <tableColumn id="11" xr3:uid="{399ACFD1-ECD0-4D6A-9AB0-5D9830C3BDC2}" name="Validation method" dataDxfId="115"/>
-    <tableColumn id="12" xr3:uid="{73B944F1-2A6E-4FAE-9E8E-E516F6235F38}" name="Classification metrics of the best model reported" dataDxfId="114"/>
-    <tableColumn id="21" xr3:uid="{8335D2B7-9B83-4894-93D8-48EC76B10566}" name="Information about all other models tested" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{8CE8E53E-3392-4892-B132-8E5D3E4F0CEE}" name="Way of measuring predictive value" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{11725636-EC25-4720-BDCD-5FDC50A9ACD3}" name="Resolution of reporting features with high predictive value" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{B6CC0645-E5E2-48DD-99FB-65CF941C0014}" name="Features with high predictive value" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{212BF901-6AF0-4E2D-BB8B-AE09C9A82706}" name="Approach to reduce the number of initially available connectivities" dataDxfId="109"/>
-    <tableColumn id="18" xr3:uid="{44F820D4-8EA5-403F-AB63-6A88A53D0AF9}" name="How were regions defined?" dataDxfId="108"/>
-    <tableColumn id="23" xr3:uid="{61AB724A-B83C-45FE-8213-7EA05196F4A4}" name="Comments" dataDxfId="107"/>
+    <tableColumn id="20" xr3:uid="{2C923386-DD51-4240-8686-5C7D8D67810C}" name="inpatient/outpatient" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{1CF73E0B-6172-4CE9-98E1-2D7EDAF4BCAB}" name="Age group" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{BD5AEECF-DDF1-40E3-8289-EBA00FA3878E}" name="Treatment" dataDxfId="123"/>
+    <tableColumn id="6" xr3:uid="{EDDBEE09-F1E6-48A1-8762-06BD25ECBBCF}" name="Definition of treatment outcome" dataDxfId="122"/>
+    <tableColumn id="7" xr3:uid="{AC493E59-D67F-4C05-BA00-98B7CA3C763D}" name="Sample size" dataDxfId="121"/>
+    <tableColumn id="17" xr3:uid="{DCA81452-B3CB-4584-AEAB-EEE90E36C12B}" name="responders/nonresponders" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{29A83AC4-6D61-4F65-9948-C7266DCDC861}" name="Way of estimating the underlying functional connectivities" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{723E62BF-476A-4186-96E7-1944610C27A4}" name="Type of functional-connectivity-based input features" dataDxfId="118"/>
+    <tableColumn id="10" xr3:uid="{C61BF466-AF87-4B7D-B3EB-6A4E3E08591F}" name="Algorithm(s) of the final classifier(s)" dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{399ACFD1-ECD0-4D6A-9AB0-5D9830C3BDC2}" name="Validation method" dataDxfId="116"/>
+    <tableColumn id="12" xr3:uid="{73B944F1-2A6E-4FAE-9E8E-E516F6235F38}" name="Classification metrics of the best model reported" dataDxfId="115"/>
+    <tableColumn id="21" xr3:uid="{8335D2B7-9B83-4894-93D8-48EC76B10566}" name="Information about all other models tested" dataDxfId="114"/>
+    <tableColumn id="13" xr3:uid="{8CE8E53E-3392-4892-B132-8E5D3E4F0CEE}" name="Way of measuring predictive value" dataDxfId="113"/>
+    <tableColumn id="14" xr3:uid="{11725636-EC25-4720-BDCD-5FDC50A9ACD3}" name="Resolution of reporting features with high predictive value" dataDxfId="112"/>
+    <tableColumn id="15" xr3:uid="{B6CC0645-E5E2-48DD-99FB-65CF941C0014}" name="Features with high predictive value" dataDxfId="111"/>
+    <tableColumn id="16" xr3:uid="{212BF901-6AF0-4E2D-BB8B-AE09C9A82706}" name="Approach to reduce the number of initially available connectivities" dataDxfId="110"/>
+    <tableColumn id="18" xr3:uid="{44F820D4-8EA5-403F-AB63-6A88A53D0AF9}" name="How were regions defined?" dataDxfId="109"/>
+    <tableColumn id="23" xr3:uid="{61AB724A-B83C-45FE-8213-7EA05196F4A4}" name="Comments" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{78EFE8E8-F850-4284-B59D-FBB75F2E87A6}" name="TabelleRQ0" displayName="TabelleRQ0" ref="A1:N14" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{78EFE8E8-F850-4284-B59D-FBB75F2E87A6}" name="TabelleRQ0" displayName="TabelleRQ0" ref="A1:N14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:N14" xr:uid="{78EFE8E8-F850-4284-B59D-FBB75F2E87A6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C7393895-ED15-4F2E-A989-1CCA8CF0D9E2}" name="Study" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{3AF91C48-2F73-43D1-AA5B-8CD6A64B1DEA}" name="Year" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{29590781-5792-4AD1-9BB1-61DB7518322B}" name="Primary disorder" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{C7393895-ED15-4F2E-A989-1CCA8CF0D9E2}" name="Study" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{3AF91C48-2F73-43D1-AA5B-8CD6A64B1DEA}" name="Year" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{29590781-5792-4AD1-9BB1-61DB7518322B}" name="Primary disorder" dataDxfId="103">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Primary disorder]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B6820231-B0F5-4EA3-8977-ACBF62C62400}" name="Age group" dataDxfId="101">
+    <tableColumn id="4" xr3:uid="{B6820231-B0F5-4EA3-8977-ACBF62C62400}" name="Age group" dataDxfId="102">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Age group]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C16F6EDB-61FA-43F7-8453-02A73E32092E}" name="Treatment" dataDxfId="100">
+    <tableColumn id="5" xr3:uid="{C16F6EDB-61FA-43F7-8453-02A73E32092E}" name="Treatment" dataDxfId="101">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Treatment]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A52A86F4-B99E-4CB7-81A3-1E9E5BE7F7C3}" name="Definition of treatment outcome" dataDxfId="99">
+    <tableColumn id="6" xr3:uid="{A52A86F4-B99E-4CB7-81A3-1E9E5BE7F7C3}" name="Definition of treatment outcome" dataDxfId="100">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Definition of treatment outcome]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9EB0DB04-D0F9-427A-89E5-E47E36F5F23B}" name="Sample size" dataDxfId="98">
+    <tableColumn id="7" xr3:uid="{9EB0DB04-D0F9-427A-89E5-E47E36F5F23B}" name="Sample size" dataDxfId="99">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1BC3FD7D-03CD-4B39-9D46-158CB06FEE04}" name="Responders/nonresponders" dataDxfId="97">
+    <tableColumn id="8" xr3:uid="{1BC3FD7D-03CD-4B39-9D46-158CB06FEE04}" name="Responders/nonresponders" dataDxfId="98">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5C0B472B-14EC-4F77-890E-BDDD8DCCC857}" name="Way of estimating the underlying functional connectivities" dataDxfId="96">
+    <tableColumn id="9" xr3:uid="{5C0B472B-14EC-4F77-890E-BDDD8DCCC857}" name="Way of estimating the underlying functional connectivities" dataDxfId="97">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Way of estimating the underlying functional connectivities]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{549E771D-9F78-47A8-9FE9-67F5D76C5867}" name="Type of functional-connectivity-based input features" dataDxfId="95">
+    <tableColumn id="10" xr3:uid="{549E771D-9F78-47A8-9FE9-67F5D76C5867}" name="Type of functional-connectivity-based input features" dataDxfId="96">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{2CDD70C2-C04F-4B91-9C88-6F683313C071}" name="Algorithm(s) of the final classifier(s)" dataDxfId="94">
+    <tableColumn id="11" xr3:uid="{2CDD70C2-C04F-4B91-9C88-6F683313C071}" name="Algorithm(s) of the final classifier(s)" dataDxfId="95">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Algorithm(s) of the final classifier(s)]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6E2C9E31-FC06-4DB8-ACE2-CCEA6B5D507C}" name="Validation method" dataDxfId="93">
+    <tableColumn id="12" xr3:uid="{6E2C9E31-FC06-4DB8-ACE2-CCEA6B5D507C}" name="Validation method" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ0[[#Headers],[Validation method]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{73B9EBC2-24F7-4B50-AD72-4CE3D3A97257}" name="Balanced_acc_final" dataDxfId="92">
+    <tableColumn id="13" xr3:uid="{73B9EBC2-24F7-4B50-AD72-4CE3D3A97257}" name="Balanced_acc_final" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(A2,TabelleRQ1[#All],(MATCH(TabelleRQ0[[#Headers],[Balanced_acc_final]],TabelleRQ1[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{41ABA4C7-53C9-4319-B821-10E105A60176}" name="Information on models tested" dataDxfId="91">
+    <tableColumn id="14" xr3:uid="{41ABA4C7-53C9-4319-B821-10E105A60176}" name="Information on models tested" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP(A2,TabelleRQ1[#All],(MATCH(TabelleRQ0[[#Headers],[Information on models tested]],TabelleRQ1[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2645,70 +2653,67 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}" name="TabelleRQ1" displayName="TabelleRQ1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}" name="TabelleRQ1" displayName="TabelleRQ1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A1:W14" xr:uid="{52D034B9-3080-44EA-9FFD-7543CF403B2E}">
     <filterColumn colId="15">
       <filters>
-        <filter val="proxy"/>
+        <filter val="calculated"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:W14">
-    <sortCondition ref="A1:A14"/>
-  </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{ED57257D-9738-4588-9815-662A66415EF1}" name="Study" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{E498A5B8-931F-4B60-9292-00755C54BBBE}" name="Year" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{45676C08-837F-4954-B266-5D9A426B1630}" name="Classification metrics of the best model reported" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{ED57257D-9738-4588-9815-662A66415EF1}" name="Study" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{E498A5B8-931F-4B60-9292-00755C54BBBE}" name="Year" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{45676C08-837F-4954-B266-5D9A426B1630}" name="Classification metrics of the best model reported" dataDxfId="87">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2697BAC4-7C68-4BA5-928F-72703A5AE8E3}" name="Accuracy (of the best model reported)" dataDxfId="85"/>
-    <tableColumn id="14" xr3:uid="{7E029B47-132C-4956-8C32-45BCD2DE74CF}" name="Reported_Accuracy_rounded" dataDxfId="84">
+    <tableColumn id="4" xr3:uid="{2697BAC4-7C68-4BA5-928F-72703A5AE8E3}" name="Accuracy (of the best model reported)" dataDxfId="86"/>
+    <tableColumn id="14" xr3:uid="{7E029B47-132C-4956-8C32-45BCD2DE74CF}" name="Reported_Accuracy_rounded" dataDxfId="85">
       <calculatedColumnFormula>ROUND(TabelleRQ1[[#This Row],[Accuracy (of the best model reported)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{82C42500-CF6C-44D9-83A7-BF19EE605BB2}" name="Significant prediction" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{A1B2E231-8C33-4040-8CCA-E7A840F62E1C}" name="responders/nonresponders" dataDxfId="82">
+    <tableColumn id="13" xr3:uid="{82C42500-CF6C-44D9-83A7-BF19EE605BB2}" name="Significant prediction" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{A1B2E231-8C33-4040-8CCA-E7A840F62E1C}" name="responders/nonresponders" dataDxfId="83">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[responders/nonresponders]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{45B6005B-26A4-4178-8967-3F127EFD242E}" name="responders" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{ADDFEA65-4F9D-4A5D-9F1E-BBCB166C83BD}" name="nonresponders" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{0A7DF5CD-792E-4D04-A86E-706E5160E13B}" name="n_maj_class" dataDxfId="79">
+    <tableColumn id="8" xr3:uid="{45B6005B-26A4-4178-8967-3F127EFD242E}" name="responders" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{ADDFEA65-4F9D-4A5D-9F1E-BBCB166C83BD}" name="nonresponders" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{0A7DF5CD-792E-4D04-A86E-706E5160E13B}" name="n_maj_class" dataDxfId="80">
       <calculatedColumnFormula>IF(TabelleRQ1[[#This Row],[responders]]&gt;TabelleRQ1[[#This Row],[nonresponders]],TabelleRQ1[[#This Row],[responders]],TabelleRQ1[[#This Row],[nonresponders]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{970D86F6-FB12-4100-80A5-42A454EE8654}" name="acc maj. class" dataDxfId="78">
+    <tableColumn id="10" xr3:uid="{970D86F6-FB12-4100-80A5-42A454EE8654}" name="acc maj. class" dataDxfId="79">
       <calculatedColumnFormula>ROUND(TabelleRQ1[[#This Row],[n_maj_class]]/(TabelleRQ1[[#This Row],[responders]]+TabelleRQ1[[#This Row],[nonresponders]])*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A74524C5-06F9-4070-87C0-7A2096C4C728}" name="improvement_above_chance" dataDxfId="77">
+    <tableColumn id="12" xr3:uid="{A74524C5-06F9-4070-87C0-7A2096C4C728}" name="improvement_above_chance" dataDxfId="78">
       <calculatedColumnFormula xml:space="preserve"> TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]]-TabelleRQ1[[#This Row],[acc maj. class]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{4411F087-9B45-4E5A-8C4A-4DC472D738FE}" name="Balanced_acc_proxy" dataDxfId="76">
+    <tableColumn id="21" xr3:uid="{4411F087-9B45-4E5A-8C4A-4DC472D738FE}" name="Balanced_acc_proxy" dataDxfId="77">
       <calculatedColumnFormula>TabelleRQ1[[#This Row],[improvement_above_chance]]+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6375C778-144E-4BCF-9FB8-A0251EFA3F08}" name="Balanced_acc_based_on_sens_and_spec" dataDxfId="75"/>
-    <tableColumn id="24" xr3:uid="{0D95107A-FD96-408C-A7CC-9261DD01761B}" name="Balanced_acc_based_on_sens_and_spec_round" dataDxfId="74">
+    <tableColumn id="6" xr3:uid="{6375C778-144E-4BCF-9FB8-A0251EFA3F08}" name="Balanced_acc_based_on_sens_and_spec" dataDxfId="76"/>
+    <tableColumn id="24" xr3:uid="{0D95107A-FD96-408C-A7CC-9261DD01761B}" name="Balanced_acc_based_on_sens_and_spec_round" dataDxfId="75">
       <calculatedColumnFormula xml:space="preserve"> ROUND(TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{85018829-7282-4F60-90B7-96E702548402}" name="Technique of calculating balanced acc" dataDxfId="73"/>
-    <tableColumn id="23" xr3:uid="{13C8BACB-17FB-42C5-B31F-E2FE859D8903}" name="Balanced_acc_final" dataDxfId="72">
+    <tableColumn id="5" xr3:uid="{85018829-7282-4F60-90B7-96E702548402}" name="Technique of calculating balanced acc" dataDxfId="74"/>
+    <tableColumn id="23" xr3:uid="{13C8BACB-17FB-42C5-B31F-E2FE859D8903}" name="Balanced_acc_final" dataDxfId="73">
       <calculatedColumnFormula xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7AFF4EA4-9825-48BC-91A5-4557E81E3C05}" name="Sample size" dataDxfId="71">
+    <tableColumn id="15" xr3:uid="{7AFF4EA4-9825-48BC-91A5-4557E81E3C05}" name="Sample size" dataDxfId="72">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Sample size]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7143B2EE-E343-462D-83F9-B0C544D45732}" name="Information about all other models tested" dataDxfId="70">
+    <tableColumn id="16" xr3:uid="{7143B2EE-E343-462D-83F9-B0C544D45732}" name="Information about all other models tested" dataDxfId="71">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Information about all other models tested]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{43600BC9-99D3-451C-A36C-388C5218E288}" name="Information on models tested" dataDxfId="69"/>
-    <tableColumn id="17" xr3:uid="{D5024A1E-1428-4F0C-9475-D98D48DE56E5}" name="mean_acc_other_models" dataDxfId="68"/>
-    <tableColumn id="18" xr3:uid="{28FE75F4-20A5-4BA4-A4B8-D8D8EFEBAD3F}" name="min_acc_other_models" dataDxfId="67"/>
-    <tableColumn id="19" xr3:uid="{F3C496B4-2DC5-4C89-8A37-BFA11FE33FA7}" name="max_acc_other_models" dataDxfId="66"/>
+    <tableColumn id="20" xr3:uid="{43600BC9-99D3-451C-A36C-388C5218E288}" name="Information on models tested" dataDxfId="70"/>
+    <tableColumn id="17" xr3:uid="{D5024A1E-1428-4F0C-9475-D98D48DE56E5}" name="mean_acc_other_models" dataDxfId="69"/>
+    <tableColumn id="18" xr3:uid="{28FE75F4-20A5-4BA4-A4B8-D8D8EFEBAD3F}" name="min_acc_other_models" dataDxfId="68"/>
+    <tableColumn id="19" xr3:uid="{F3C496B4-2DC5-4C89-8A37-BFA11FE33FA7}" name="max_acc_other_models" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{64B94352-7FCC-40BA-91A4-C7D8E68A5804}" name="TabelleRQ2" displayName="TabelleRQ2" ref="A1:AY14" totalsRowShown="0" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{64B94352-7FCC-40BA-91A4-C7D8E68A5804}" name="TabelleRQ2" displayName="TabelleRQ2" ref="A1:AY14" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="A1:AY14" xr:uid="{64B94352-7FCC-40BA-91A4-C7D8E68A5804}">
     <filterColumn colId="3">
       <filters>
@@ -2718,89 +2723,89 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="51">
-    <tableColumn id="1" xr3:uid="{7FFA2538-CD17-4287-96E8-8041F65E83A1}" name="Study" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{94EFB65D-B7E3-4260-9C98-3A0FDD02B7F4}" name="year" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{96EB699E-8415-4ECC-BE58-AC36AF219F10}" name="Way of measuring predictive value" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{7FFA2538-CD17-4287-96E8-8041F65E83A1}" name="Study" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{94EFB65D-B7E3-4260-9C98-3A0FDD02B7F4}" name="year" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{96EB699E-8415-4ECC-BE58-AC36AF219F10}" name="Way of measuring predictive value" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Way of measuring predictive value]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{E9C3DD70-0381-4396-8ADD-E98DEE2F0816}" name="Way of measuring predictive value - categories" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{1F7A4417-535C-4567-9DCC-3445F6DAF4FF}" name="Resolution of reporting features with high predictive value" dataDxfId="59">
+    <tableColumn id="18" xr3:uid="{E9C3DD70-0381-4396-8ADD-E98DEE2F0816}" name="Way of measuring predictive value - categories" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{1F7A4417-535C-4567-9DCC-3445F6DAF4FF}" name="Resolution of reporting features with high predictive value" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CFF2BCF-613D-4FF8-B154-C55889618C19}" name="Type of FC-based input features" dataDxfId="58">
+    <tableColumn id="17" xr3:uid="{0CFF2BCF-613D-4FF8-B154-C55889618C19}" name="Type of FC-based input features" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6A5A5F13-F5D6-4BFA-AE92-51B1AC2C90BD}" name="Features with high predictive value" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{6A5A5F13-F5D6-4BFA-AE92-51B1AC2C90BD}" name="Features with high predictive value" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{2377D5CF-32E2-47E0-A83F-D35C9BAEC336}" name="How were regions defined?" dataDxfId="56">
+    <tableColumn id="23" xr3:uid="{2377D5CF-32E2-47E0-A83F-D35C9BAEC336}" name="How were regions defined?" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E11B576B-BA5D-4D1F-92B5-A58210B411FA}" name="Comments/unclear assigments" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{4E4F98AB-3FD4-45E1-B50E-C62C876A8D74}" name="Dorsolateral PFC_tested" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{BC53AF80-E873-4133-9AFA-625CF1AA14B2}" name="Ventrolateral PFC_tested" dataDxfId="53"/>
-    <tableColumn id="15" xr3:uid="{7E97AE28-BEBB-44E8-9D29-31D9096B99C0}" name="Orbitofrontal Cortex_tested" dataDxfId="52"/>
-    <tableColumn id="41" xr3:uid="{5433F938-9FB1-4B85-9ADB-E2445E4317BA}" name="Medial PFC_tested" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{B1FB5E72-3320-44AE-815D-35CF027F779B}" name="Anterior cingulate cortex_tested" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{DADE950E-BD3B-4153-BEFA-677EC1521569}" name="Posterior cingulate cortex_tested" dataDxfId="49"/>
-    <tableColumn id="39" xr3:uid="{8104C15F-96D8-4140-A155-EA490F3B8920}" name="Precuneus_tested" dataDxfId="48"/>
-    <tableColumn id="50" xr3:uid="{830BFEDE-71A8-4ED1-BAA0-DDE21B6ED1D8}" name="Superior parietal lobule_tested" dataDxfId="47"/>
-    <tableColumn id="51" xr3:uid="{F38E2651-2865-431D-A73E-7165F207C1DA}" name="Inferior parietal lobule_tested" dataDxfId="46"/>
-    <tableColumn id="53" xr3:uid="{93010864-E163-4CC3-BAD3-27A1FF7B3AAB}" name="Superior temporal gyrus_tested" dataDxfId="45"/>
-    <tableColumn id="52" xr3:uid="{23D0396A-7FE5-4801-8888-D110ACCB3954}" name="Middle temporal gyrus_tested" dataDxfId="44"/>
-    <tableColumn id="54" xr3:uid="{4E85F3F2-E410-4BB7-8926-CAFC4CEDE9AC}" name="Inferior temporal gyrus_tested" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{1A40ABF2-1D5A-48E7-8A8F-9C18DB344981}" name="Parahippocampal gyrus_tested" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{FD2C8383-C149-4BDE-AA69-7C81182CA214}" name="Sensorimotor areas_tested" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{726FD500-95FD-4A7F-8C2F-751D88BB7D39}" name="Visual areas_tested" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{49DA7377-C1AD-4BF9-B9C7-885C3E9E91B9}" name="Amygdala_tested" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{B703DEDD-9CF5-4B3D-A8F6-250DFE259608}" name="Hippocampus_tested" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{122064C3-0D1F-4DB3-A7F8-03A1A21529D6}" name="Insula_tested" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{1DF26E41-FEF3-463F-BCA7-143E993A49F5}" name="Basal_ganglia_tested" dataDxfId="36"/>
-    <tableColumn id="57" xr3:uid="{CE3FFBAC-BD44-4892-B7E4-D841DDFD5444}" name="Thalamus_tested" dataDxfId="35"/>
-    <tableColumn id="55" xr3:uid="{BE220E44-1A9A-445F-B37B-FDD20A59ED26}" name="Midbrain_tested" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{5DB2C2FF-C382-4777-AAF3-621D0C0542B8}" name="Dorsolateral PFC_important" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{4FDED995-C633-48DF-94EB-BBF02D15BB1C}" name="Ventrolateral PFC_important" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{F257F39A-1803-4703-95AC-6D2BC8F7FD02}" name="Orbitofrontal cortex_important" dataDxfId="31"/>
-    <tableColumn id="42" xr3:uid="{DC78A950-11D6-4535-ACC8-0D875CCFE71C}" name="Medial PFC_important" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{70EE6249-79C4-4BC5-947F-85CD35642B20}" name="Anterior cingulate cortex_important" dataDxfId="29"/>
-    <tableColumn id="34" xr3:uid="{6A8921B7-30D3-4D4A-948A-6A77F9E6AA47}" name="Posterior cingulate cortex_important" dataDxfId="28"/>
-    <tableColumn id="40" xr3:uid="{AC9DB8A2-1DCB-4AFD-A384-F32F55FC51D5}" name="Precuneus_important" dataDxfId="27"/>
-    <tableColumn id="37" xr3:uid="{ADA57684-7482-42B5-AF81-A09B85F2FABE}" name="Superior  parietal lobule_important" dataDxfId="26"/>
-    <tableColumn id="32" xr3:uid="{2CFFD25A-E301-499A-9C5D-31E7CD41016B}" name="Inferior parietal lobule_important" dataDxfId="25"/>
-    <tableColumn id="36" xr3:uid="{86E47DE8-16C0-4A53-AA00-8955818065E6}" name="Superior temporal gyrus_important" dataDxfId="24"/>
-    <tableColumn id="33" xr3:uid="{E3929741-3F6E-44E0-BEBE-B6BDEC12A78B}" name="Middle temporal gyrus_important" dataDxfId="23"/>
-    <tableColumn id="49" xr3:uid="{7B8A258A-6B83-4025-86E8-483138F11985}" name="Inferior temporal gyrus_important" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{9FC3A2F6-0A63-46B1-95B5-348CF82D25BE}" name="Parahippocampal gyrus_important" dataDxfId="21"/>
-    <tableColumn id="38" xr3:uid="{CB0DD76B-1163-4547-AC35-2361709F42C4}" name="Sensorimotor areas_important" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{4E5B1A9B-DC8D-4117-89ED-CA19D041ED5D}" name="Visual areas_important" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{57CAB004-DA13-4120-8DEB-8832763848F8}" name="Amygdala_important" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{539151F3-0451-4E0B-8174-9CF3320B94D5}" name="Hippocampus_important" dataDxfId="17"/>
-    <tableColumn id="31" xr3:uid="{DDE71D82-19EC-46C5-95EF-D0196C5DA329}" name="Insula_important" dataDxfId="16"/>
-    <tableColumn id="35" xr3:uid="{756B6726-6E80-49E5-A226-384030D21472}" name="Basal_ganglia_important" dataDxfId="15"/>
-    <tableColumn id="43" xr3:uid="{D02C732B-A81D-425C-8EC6-F265D7135724}" name="Thalamus_important" dataDxfId="14"/>
-    <tableColumn id="44" xr3:uid="{A6C73A45-5E44-4C06-BAF0-6629472670FB}" name="Midbrain_important" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{E11B576B-BA5D-4D1F-92B5-A58210B411FA}" name="Comments/unclear assigments" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{4E4F98AB-3FD4-45E1-B50E-C62C876A8D74}" name="Dorsolateral PFC_tested" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{BC53AF80-E873-4133-9AFA-625CF1AA14B2}" name="Ventrolateral PFC_tested" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{7E97AE28-BEBB-44E8-9D29-31D9096B99C0}" name="Orbitofrontal Cortex_tested" dataDxfId="54"/>
+    <tableColumn id="41" xr3:uid="{5433F938-9FB1-4B85-9ADB-E2445E4317BA}" name="Medial PFC_tested" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{B1FB5E72-3320-44AE-815D-35CF027F779B}" name="Anterior cingulate cortex_tested" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{DADE950E-BD3B-4153-BEFA-677EC1521569}" name="Posterior cingulate cortex_tested" dataDxfId="51"/>
+    <tableColumn id="39" xr3:uid="{8104C15F-96D8-4140-A155-EA490F3B8920}" name="Precuneus_tested" dataDxfId="50"/>
+    <tableColumn id="50" xr3:uid="{830BFEDE-71A8-4ED1-BAA0-DDE21B6ED1D8}" name="Superior parietal lobule_tested" dataDxfId="49"/>
+    <tableColumn id="51" xr3:uid="{F38E2651-2865-431D-A73E-7165F207C1DA}" name="Inferior parietal lobule_tested" dataDxfId="48"/>
+    <tableColumn id="53" xr3:uid="{93010864-E163-4CC3-BAD3-27A1FF7B3AAB}" name="Superior temporal gyrus_tested" dataDxfId="47"/>
+    <tableColumn id="52" xr3:uid="{23D0396A-7FE5-4801-8888-D110ACCB3954}" name="Middle temporal gyrus_tested" dataDxfId="46"/>
+    <tableColumn id="54" xr3:uid="{4E85F3F2-E410-4BB7-8926-CAFC4CEDE9AC}" name="Inferior temporal gyrus_tested" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{1A40ABF2-1D5A-48E7-8A8F-9C18DB344981}" name="Parahippocampal gyrus_tested" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{FD2C8383-C149-4BDE-AA69-7C81182CA214}" name="Sensorimotor areas_tested" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{726FD500-95FD-4A7F-8C2F-751D88BB7D39}" name="Visual areas_tested" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{49DA7377-C1AD-4BF9-B9C7-885C3E9E91B9}" name="Amygdala_tested" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{B703DEDD-9CF5-4B3D-A8F6-250DFE259608}" name="Hippocampus_tested" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{122064C3-0D1F-4DB3-A7F8-03A1A21529D6}" name="Insula_tested" dataDxfId="39"/>
+    <tableColumn id="20" xr3:uid="{1DF26E41-FEF3-463F-BCA7-143E993A49F5}" name="Basal_ganglia_tested" dataDxfId="38"/>
+    <tableColumn id="57" xr3:uid="{CE3FFBAC-BD44-4892-B7E4-D841DDFD5444}" name="Thalamus_tested" dataDxfId="37"/>
+    <tableColumn id="55" xr3:uid="{BE220E44-1A9A-445F-B37B-FDD20A59ED26}" name="Midbrain_tested" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{5DB2C2FF-C382-4777-AAF3-621D0C0542B8}" name="Dorsolateral PFC_important" dataDxfId="35"/>
+    <tableColumn id="29" xr3:uid="{4FDED995-C633-48DF-94EB-BBF02D15BB1C}" name="Ventrolateral PFC_important" dataDxfId="34"/>
+    <tableColumn id="30" xr3:uid="{F257F39A-1803-4703-95AC-6D2BC8F7FD02}" name="Orbitofrontal cortex_important" dataDxfId="33"/>
+    <tableColumn id="42" xr3:uid="{DC78A950-11D6-4535-ACC8-0D875CCFE71C}" name="Medial PFC_important" dataDxfId="32"/>
+    <tableColumn id="27" xr3:uid="{70EE6249-79C4-4BC5-947F-85CD35642B20}" name="Anterior cingulate cortex_important" dataDxfId="31"/>
+    <tableColumn id="34" xr3:uid="{6A8921B7-30D3-4D4A-948A-6A77F9E6AA47}" name="Posterior cingulate cortex_important" dataDxfId="30"/>
+    <tableColumn id="40" xr3:uid="{AC9DB8A2-1DCB-4AFD-A384-F32F55FC51D5}" name="Precuneus_important" dataDxfId="29"/>
+    <tableColumn id="37" xr3:uid="{ADA57684-7482-42B5-AF81-A09B85F2FABE}" name="Superior  parietal lobule_important" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{2CFFD25A-E301-499A-9C5D-31E7CD41016B}" name="Inferior parietal lobule_important" dataDxfId="27"/>
+    <tableColumn id="36" xr3:uid="{86E47DE8-16C0-4A53-AA00-8955818065E6}" name="Superior temporal gyrus_important" dataDxfId="26"/>
+    <tableColumn id="33" xr3:uid="{E3929741-3F6E-44E0-BEBE-B6BDEC12A78B}" name="Middle temporal gyrus_important" dataDxfId="25"/>
+    <tableColumn id="49" xr3:uid="{7B8A258A-6B83-4025-86E8-483138F11985}" name="Inferior temporal gyrus_important" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{9FC3A2F6-0A63-46B1-95B5-348CF82D25BE}" name="Parahippocampal gyrus_important" dataDxfId="23"/>
+    <tableColumn id="38" xr3:uid="{CB0DD76B-1163-4547-AC35-2361709F42C4}" name="Sensorimotor areas_important" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{4E5B1A9B-DC8D-4117-89ED-CA19D041ED5D}" name="Visual areas_important" dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{57CAB004-DA13-4120-8DEB-8832763848F8}" name="Amygdala_important" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{539151F3-0451-4E0B-8174-9CF3320B94D5}" name="Hippocampus_important" dataDxfId="19"/>
+    <tableColumn id="31" xr3:uid="{DDE71D82-19EC-46C5-95EF-D0196C5DA329}" name="Insula_important" dataDxfId="18"/>
+    <tableColumn id="35" xr3:uid="{756B6726-6E80-49E5-A226-384030D21472}" name="Basal_ganglia_important" dataDxfId="17"/>
+    <tableColumn id="43" xr3:uid="{D02C732B-A81D-425C-8EC6-F265D7135724}" name="Thalamus_important" dataDxfId="16"/>
+    <tableColumn id="44" xr3:uid="{A6C73A45-5E44-4C06-BAF0-6629472670FB}" name="Midbrain_important" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32345BC2-166C-462B-945A-2A5FCE2C90C9}" name="TabelleRQ3" displayName="TabelleRQ3" ref="A1:K14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32345BC2-166C-462B-945A-2A5FCE2C90C9}" name="TabelleRQ3" displayName="TabelleRQ3" ref="A1:K14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:K14" xr:uid="{32345BC2-166C-462B-945A-2A5FCE2C90C9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EC001A90-3335-40E5-B7AF-994822BDDF6F}" name="Study" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CC6B84FE-09AC-41D6-932C-A073DA7CC228}" name="Year" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{FE59DC2F-0FDD-42DD-A7BA-898D2250377E}" name="Approach to reduce the number of initially available connectivities" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{EC001A90-3335-40E5-B7AF-994822BDDF6F}" name="Study" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{CC6B84FE-09AC-41D6-932C-A073DA7CC228}" name="Year" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FE59DC2F-0FDD-42DD-A7BA-898D2250377E}" name="Approach to reduce the number of initially available connectivities" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65389E39-0DBD-4379-83C4-3BD38593157B}" name="atlas-based parcellation" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{BE8EA88C-7A04-4904-88BA-E98B7C72A523}" name="data-driven parcellation" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{295083FB-6BA4-4372-AC13-4F89F925BFDA}" name="theory-based selection" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{65ECF915-11C7-4CF9-BEBF-B7D67A41DD9E}" name="model allocation" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{6650CE8A-3468-4AC1-B9F7-B8C5474880AE}" name="dimensionality reduction" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E0938C17-98D3-4593-A50E-779FA830B233}" name="filter feature selection" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{BA52A5FE-6AC3-4D8E-AC54-75897A2A67AC}" name="wrapper feature selection" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{50D64290-E826-4AAE-81FE-5244EFE8E3E0}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{65389E39-0DBD-4379-83C4-3BD38593157B}" name="atlas-based parcellation" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{BE8EA88C-7A04-4904-88BA-E98B7C72A523}" name="data-driven parcellation" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{295083FB-6BA4-4372-AC13-4F89F925BFDA}" name="theory-based selection" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{65ECF915-11C7-4CF9-BEBF-B7D67A41DD9E}" name="model allocation" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{6650CE8A-3468-4AC1-B9F7-B8C5474880AE}" name="dimensionality reduction" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E0938C17-98D3-4593-A50E-779FA830B233}" name="filter feature selection" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{BA52A5FE-6AC3-4D8E-AC54-75897A2A67AC}" name="wrapper feature selection" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{50D64290-E826-4AAE-81FE-5244EFE8E3E0}" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3109,24 +3114,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="113.42578125" customWidth="1"/>
+    <col min="1" max="1" width="113.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3141,25 +3146,25 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="H44" sqref="H44"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>46</v>
@@ -3182,19 +3187,19 @@
         <v>91</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
@@ -3202,10 +3207,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -3223,7 +3228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -3258,7 +3263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -3291,7 +3296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>78</v>
@@ -3322,7 +3327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -3330,10 +3335,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -3341,7 +3346,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -3353,7 +3358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -3419,7 +3424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -3450,7 +3455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -3470,7 +3475,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -3479,7 +3484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -3487,7 +3492,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -3510,7 +3515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>34</v>
@@ -3541,7 +3546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -3572,21 +3577,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>39</v>
@@ -3607,7 +3612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -3615,7 +3620,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -3642,7 +3647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -3673,7 +3678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>37</v>
@@ -3708,7 +3713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -3774,7 +3779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -3807,7 +3812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -3833,7 +3838,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>37</v>
@@ -3842,7 +3847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -3877,7 +3882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3885,13 +3890,13 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3908,7 +3913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -3949,13 +3954,13 @@
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>39</v>
@@ -3976,7 +3981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3984,13 +3989,13 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4005,7 +4010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -4040,7 +4045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4075,7 +4080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -4083,7 +4088,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -4106,7 +4111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -4114,13 +4119,13 @@
         <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4137,7 +4142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -4170,21 +4175,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>39</v>
@@ -4205,7 +4210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -4248,10 +4253,10 @@
         <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -4271,15 +4276,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -4304,7 +4309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>78</v>
@@ -4324,7 +4329,7 @@
         <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>37</v>
@@ -4339,7 +4344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>37</v>
@@ -4374,7 +4379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -4382,7 +4387,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -4405,7 +4410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -4413,7 +4418,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -4434,7 +4439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -4442,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -4469,7 +4474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -4504,7 +4509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>37</v>
@@ -4539,9 +4544,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -4574,7 +4579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -4582,7 +4587,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -4594,7 +4599,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>37</v>
@@ -4603,7 +4608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -4611,10 +4616,10 @@
         <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -4638,7 +4643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -4681,7 +4686,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -4704,7 +4709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
@@ -4712,19 +4717,19 @@
         <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>37</v>
@@ -4733,7 +4738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
@@ -4768,7 +4773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -4805,7 +4810,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:C23">
-    <cfRule type="containsText" dxfId="145" priority="1" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4821,36 +4826,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1B465A-9749-46BF-8A21-FA206FEA8B0D}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="3" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" customWidth="1"/>
-    <col min="14" max="14" width="80.28515625" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" customWidth="1"/>
-    <col min="18" max="18" width="60.85546875" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" customWidth="1"/>
-    <col min="20" max="20" width="46.7109375" customWidth="1"/>
-    <col min="21" max="21" width="38.42578125" customWidth="1"/>
-    <col min="22" max="23" width="46.7109375" customWidth="1"/>
-    <col min="24" max="24" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="3" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" customWidth="1"/>
+    <col min="13" max="13" width="31.7265625" customWidth="1"/>
+    <col min="14" max="14" width="80.26953125" customWidth="1"/>
+    <col min="15" max="15" width="32.7265625" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" customWidth="1"/>
+    <col min="17" max="17" width="29.81640625" customWidth="1"/>
+    <col min="18" max="18" width="60.81640625" customWidth="1"/>
+    <col min="19" max="19" width="26.26953125" customWidth="1"/>
+    <col min="20" max="20" width="46.7265625" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" customWidth="1"/>
+    <col min="22" max="23" width="46.7265625" customWidth="1"/>
+    <col min="24" max="24" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>129</v>
@@ -4859,40 +4864,40 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>59</v>
@@ -4901,28 +4906,28 @@
         <v>149</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -4934,20 +4939,20 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K2" s="2">
         <v>124</v>
@@ -4956,10 +4961,10 @@
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>65</v>
@@ -4968,29 +4973,29 @@
         <v>61</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>212</v>
+        <v>441</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -5001,16 +5006,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>104</v>
@@ -5019,7 +5024,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K3" s="2">
         <v>144</v>
@@ -5031,19 +5036,19 @@
         <v>110</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>119</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>136</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>36</v>
@@ -5055,14 +5060,14 @@
         <v>36</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5073,25 +5078,25 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K4" s="2">
         <v>61</v>
@@ -5103,19 +5108,19 @@
         <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>137</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>159</v>
@@ -5124,19 +5129,19 @@
         <v>99</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -5147,25 +5152,25 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K5" s="2">
         <v>82</v>
@@ -5177,42 +5182,42 @@
         <v>118</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>160</v>
+        <v>442</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>123</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -5221,16 +5226,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>104</v>
@@ -5239,7 +5244,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="2">
         <v>18</v>
@@ -5251,7 +5256,7 @@
         <v>158</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>103</v>
@@ -5263,26 +5268,26 @@
         <v>138</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>159</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="164.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -5293,23 +5298,23 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K7" s="2">
         <v>98</v>
@@ -5321,7 +5326,7 @@
         <v>64</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>121</v>
@@ -5330,29 +5335,29 @@
         <v>61</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>122</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -5363,13 +5368,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>104</v>
@@ -5378,7 +5383,7 @@
         <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K8" s="2">
         <v>21</v>
@@ -5390,7 +5395,7 @@
         <v>64</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>120</v>
@@ -5402,26 +5407,26 @@
         <v>139</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>159</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="281.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="281.14999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -5432,10 +5437,10 @@
         <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
@@ -5445,50 +5450,50 @@
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K9" s="2">
         <v>122</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>135</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" s="9" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="9" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -5499,14 +5504,14 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>104</v>
@@ -5515,52 +5520,52 @@
         <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="2">
         <v>106</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>148</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -5569,13 +5574,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -5585,7 +5590,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K11" s="2">
         <v>45</v>
@@ -5594,10 +5599,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>65</v>
@@ -5609,26 +5614,26 @@
         <v>140</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>159</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="167.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -5639,13 +5644,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
@@ -5655,7 +5660,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K12" s="2">
         <v>67</v>
@@ -5667,7 +5672,7 @@
         <v>64</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>65</v>
@@ -5679,26 +5684,26 @@
         <v>141</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5709,20 +5714,20 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K13" s="2">
         <v>44</v>
@@ -5731,41 +5736,41 @@
         <v>116</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>142</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>221</v>
+        <v>446</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -5773,13 +5778,13 @@
         <v>2021</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F14">
         <v>56.1</v>
@@ -5789,10 +5794,10 @@
         <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K14" s="2">
         <v>40</v>
@@ -5801,34 +5806,34 @@
         <v>117</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>143</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -5851,27 +5856,27 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="12"/>
-    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="12"/>
+    <col min="3" max="3" width="16.26953125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.7265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29.1796875" style="12" customWidth="1"/>
     <col min="9" max="9" width="52" style="12" customWidth="1"/>
     <col min="10" max="10" width="31" style="12" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="52.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="33.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="52.1796875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>129</v>
@@ -5880,40 +5885,40 @@
         <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -5969,7 +5974,7 @@
         <v>no other models tested</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6027,7 +6032,7 @@
 accuracies: 39% - 61% </v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -6087,7 +6092,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -6145,9 +6150,9 @@
 accuracies: ca. 50% - 90%</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -6205,7 +6210,7 @@
 accuracies: 72% - 89% (mean: 83%)</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -6264,7 +6269,7 @@
 accuracies: 81%</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -6323,7 +6328,7 @@
 accuracies: 44% - 89%</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -6385,7 +6390,7 @@
 accuracies: 58% - 75% (mean: 67%)</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -6443,9 +6448,9 @@
 accuracies: 69% - 79% (mean: 73%)</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -6501,7 +6506,7 @@
 2 of 25 models got significant</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -6561,7 +6566,7 @@
         <v>no other models tested</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -6619,7 +6624,7 @@
 1 of 48 models got significant</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -6690,29 +6695,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F4D5AD-084B-4F09-AA74-A1999B986D46}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="53.42578125" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
-    <col min="21" max="23" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="10.81640625" customWidth="1"/>
+    <col min="19" max="19" width="53.453125" customWidth="1"/>
+    <col min="20" max="20" width="24.1796875" customWidth="1"/>
+    <col min="21" max="23" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>129</v>
@@ -6724,13 +6730,13 @@
         <v>157</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>130</v>
@@ -6745,31 +6751,31 @@
         <v>133</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="P1" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>150</v>
@@ -6781,7 +6787,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -6790,7 +6796,7 @@
       </c>
       <c r="C2" s="12" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>accuracy: 78.3% (further metrics are depicted in the confusion matrix in Fig. 4f, e.g., sensitivity: 77.9%, specify: 78.7%); no testing for significance against 0, only against clinical features only model;
+        <v>accuracy: 78.3% (further percentage rates are depicted in the confusion matrix in Fig. 4f, from these, other metrics can be calculated, e.g., sensitivity: 73.7%, specificity: 82.1%); no testing for significance against 0, only against clinical features only model;
 Predicting nonresponse</v>
       </c>
       <c r="D2" s="12">
@@ -6830,14 +6836,14 @@
         <v>72</v>
       </c>
       <c r="N2" s="12">
-        <v>78.3</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="O2" s="12">
         <f xml:space="preserve"> ROUND(TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec]],0)</f>
         <v>78</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q2" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -6852,7 +6858,7 @@
         <v>no other models tested</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>36</v>
@@ -6864,14 +6870,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>2022</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="12" t="str">
         <f>VLOOKUP(A3,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>accuracy; 61.2% (SD 10.5), not significant
 Predicting response?</v>
@@ -6919,7 +6925,7 @@
         <v>36</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q3" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -6937,7 +6943,7 @@
 no model got significant</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>153</v>
@@ -6949,14 +6955,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="86.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>2021</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="12" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>accuracy: 88.89%, CI: 69.93-100; other metrics are visually depicted; significant
 Predicting response</v>
@@ -7004,7 +7010,7 @@
         <v>36</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7022,19 +7028,19 @@
 accuracies: ca. 35% (visually reported) - 90%</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>153</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="W4" s="12">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>89</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7108,21 +7114,21 @@
 metrics are only reported visually; accuracies: ca. 50% - 90%</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>153</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="W5" s="12">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -7174,7 +7180,7 @@
         <v>36</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7191,10 +7197,10 @@
 accuracy: 0.72 - 0.89, CI: lower end 0.56 - 0.83</v>
       </c>
       <c r="T6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="V6" s="12">
         <v>72</v>
@@ -7203,7 +7209,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="75.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="113.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7279,7 +7285,7 @@
 </v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U7" s="12">
         <v>81</v>
@@ -7291,14 +7297,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="2">
         <v>2018</v>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="12" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v xml:space="preserve">accuracy: 88.9, 
 significant,
@@ -7347,7 +7353,7 @@
         <v>36</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7363,7 +7369,7 @@
 2nd significant model: left IPS: 83.3; mean accuracy of all models: 59.0 (CI: 15.3), range 44.4 - 88.9</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U8" s="12">
         <v>59</v>
@@ -7375,7 +7381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="163.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="163.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>67</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q9" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7458,10 +7464,10 @@
 LOOCV - response - negative + positive features: accuracy: 70.49%, sensitivity: 71.83%, specificity: 68.63%; </v>
       </c>
       <c r="T9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="V9" s="12">
         <v>58</v>
@@ -7470,14 +7476,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="2">
         <v>2020</v>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="12" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(TabelleRQ1[[#Headers],[Classification metrics of the best model reported]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>leave-one-site-out: 69% for leaving Site 1 out, 71% for leaving Site 2 out, 72% for leaving Site 3 out),
 not testing significance; 
@@ -7527,7 +7533,7 @@
         <v>36</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7544,10 +7550,10 @@
 LOOCV: accuracy: 79.41; sens: 84.21%; spec: 73.33%</v>
       </c>
       <c r="T10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="V10" s="12">
         <v>69</v>
@@ -7556,9 +7562,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="105.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="106" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -7610,7 +7616,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7627,19 +7633,19 @@
 1 other significant model: 80% sensitivity, 75% specificity and 80% positive predictive value</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>153</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="99.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>81</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7711,7 +7717,7 @@
         <v>no other models tested</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>36</v>
@@ -7723,7 +7729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>36</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7794,7 +7800,7 @@
 no other model got significant</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>153</v>
@@ -7806,7 +7812,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>36</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="12">
         <f xml:space="preserve"> IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="calculated",TabelleRQ1[[#This Row],[Balanced_acc_based_on_sens_and_spec_round]], IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="proxy",TabelleRQ1[[#This Row],[Balanced_acc_proxy]],IF(TabelleRQ1[[#This Row],[Technique of calculating balanced acc]]="reported",TabelleRQ1[[#This Row],[Reported_Accuracy_rounded]])))</f>
@@ -7877,7 +7883,7 @@
 no other model got significant</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U14" s="12" t="s">
         <v>153</v>
@@ -7903,136 +7909,136 @@
   <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="3" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="8" width="35.5703125" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
-    <col min="10" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" customWidth="1"/>
-    <col min="13" max="16" width="3.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" customWidth="1"/>
-    <col min="20" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" customWidth="1"/>
-    <col min="26" max="26" width="4.5703125" customWidth="1"/>
-    <col min="27" max="28" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="3" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" customWidth="1"/>
+    <col min="7" max="8" width="35.54296875" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="10" max="11" width="3.453125" customWidth="1"/>
+    <col min="12" max="12" width="3.54296875" customWidth="1"/>
+    <col min="13" max="16" width="3.453125" customWidth="1"/>
+    <col min="17" max="17" width="4.54296875" customWidth="1"/>
+    <col min="18" max="18" width="3.453125" customWidth="1"/>
+    <col min="19" max="19" width="3.81640625" customWidth="1"/>
+    <col min="20" max="23" width="3.453125" customWidth="1"/>
+    <col min="24" max="24" width="4.26953125" customWidth="1"/>
+    <col min="25" max="25" width="3.453125" customWidth="1"/>
+    <col min="26" max="26" width="4.54296875" customWidth="1"/>
+    <col min="27" max="28" width="3.453125" customWidth="1"/>
     <col min="29" max="30" width="4" customWidth="1"/>
-    <col min="31" max="31" width="4.5703125" customWidth="1"/>
-    <col min="32" max="33" width="3.42578125" customWidth="1"/>
-    <col min="34" max="34" width="4.5703125" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="37" width="3.42578125" customWidth="1"/>
-    <col min="38" max="38" width="5.7109375" customWidth="1"/>
-    <col min="39" max="39" width="3.42578125" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7.5703125" customWidth="1"/>
-    <col min="42" max="43" width="6.85546875" customWidth="1"/>
+    <col min="31" max="31" width="4.54296875" customWidth="1"/>
+    <col min="32" max="33" width="3.453125" customWidth="1"/>
+    <col min="34" max="34" width="4.54296875" customWidth="1"/>
+    <col min="35" max="35" width="5.1796875" customWidth="1"/>
+    <col min="36" max="37" width="3.453125" customWidth="1"/>
+    <col min="38" max="38" width="5.7265625" customWidth="1"/>
+    <col min="39" max="39" width="3.453125" customWidth="1"/>
+    <col min="40" max="40" width="6.1796875" customWidth="1"/>
+    <col min="41" max="41" width="7.54296875" customWidth="1"/>
+    <col min="42" max="43" width="6.81640625" customWidth="1"/>
     <col min="44" max="44" width="6" customWidth="1"/>
-    <col min="45" max="45" width="6.28515625" customWidth="1"/>
-    <col min="46" max="46" width="5.42578125" customWidth="1"/>
-    <col min="47" max="47" width="3.42578125" customWidth="1"/>
-    <col min="48" max="49" width="4.42578125" customWidth="1"/>
+    <col min="45" max="45" width="6.26953125" customWidth="1"/>
+    <col min="46" max="46" width="5.453125" customWidth="1"/>
+    <col min="47" max="47" width="3.453125" customWidth="1"/>
+    <col min="48" max="49" width="4.453125" customWidth="1"/>
     <col min="50" max="50" width="5" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" customWidth="1"/>
-    <col min="52" max="52" width="3.42578125" customWidth="1"/>
-    <col min="56" max="57" width="3.42578125" customWidth="1"/>
-    <col min="58" max="58" width="5.5703125" customWidth="1"/>
-    <col min="59" max="59" width="5.42578125" customWidth="1"/>
-    <col min="61" max="61" width="5.85546875" customWidth="1"/>
-    <col min="62" max="62" width="6.5703125" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" customWidth="1"/>
-    <col min="65" max="66" width="5.85546875" customWidth="1"/>
-    <col min="67" max="67" width="5.42578125" customWidth="1"/>
-    <col min="68" max="68" width="6.28515625" customWidth="1"/>
-    <col min="72" max="72" width="3.42578125" customWidth="1"/>
-    <col min="73" max="73" width="5.5703125" customWidth="1"/>
-    <col min="74" max="74" width="6.5703125" customWidth="1"/>
-    <col min="75" max="82" width="3.42578125" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" customWidth="1"/>
+    <col min="52" max="52" width="3.453125" customWidth="1"/>
+    <col min="56" max="57" width="3.453125" customWidth="1"/>
+    <col min="58" max="58" width="5.54296875" customWidth="1"/>
+    <col min="59" max="59" width="5.453125" customWidth="1"/>
+    <col min="61" max="61" width="5.81640625" customWidth="1"/>
+    <col min="62" max="62" width="6.54296875" customWidth="1"/>
+    <col min="64" max="64" width="5.7265625" customWidth="1"/>
+    <col min="65" max="66" width="5.81640625" customWidth="1"/>
+    <col min="67" max="67" width="5.453125" customWidth="1"/>
+    <col min="68" max="68" width="6.26953125" customWidth="1"/>
+    <col min="72" max="72" width="3.453125" customWidth="1"/>
+    <col min="73" max="73" width="5.54296875" customWidth="1"/>
+    <col min="74" max="74" width="6.54296875" customWidth="1"/>
+    <col min="75" max="82" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="79" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>127</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>108</v>
@@ -8044,58 +8050,58 @@
         <v>128</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG1" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="AK1" s="22" t="s">
         <v>154</v>
       </c>
       <c r="AL1" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM1" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AN1" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AO1" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AP1" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AQ1" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AR1" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AS1" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AT1" s="22" t="s">
         <v>125</v>
@@ -8107,16 +8113,16 @@
         <v>126</v>
       </c>
       <c r="AW1" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AX1" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AY1" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="147.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="148" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -8128,7 +8134,7 @@
         <v>selection frequency in feature selection with Wilcoxon rank sum test</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8140,14 +8146,14 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>FCs of: dorsomedial PFC, amygdala, dorsolateral PCF,  bilateral orbitofrontal cortex, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, ventrolateral , primary sensorimotor cortex, anterior cingulate cortex, ventral tegmental area</v>
+        <v>FCs of: dorsomedial PFC, amygdala, dorsolateral PCF, bilateral orbitofrontal cortex, posterior cingulate cortex, visual cortex (lingual, middle occipital), thalamus, nucleus accumbens, globus pallidus, ventrolateral , primary sensorimotor cortex, anterior cingulate cortex, ventral tegmental area</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>Poweratlas (10 mm spheres) + subcortical and midbrain regions</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>37</v>
@@ -8276,7 +8282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -8436,7 +8442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="171" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="171" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -8448,7 +8454,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>VLOOKUP(A4,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8468,7 +8474,7 @@
         <v>peaks of clusters of connectivity with sgACC and DLPFC</v>
       </c>
       <c r="I4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>37</v>
@@ -8597,7 +8603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="167.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="167.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -8606,10 +8612,10 @@
       </c>
       <c r="C5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Way of measuring predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>feature weights in STCGN</v>
+        <v>feature weights in STGCN</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8628,7 +8634,7 @@
         <v>atlas not clear; subcortical areas are probably included as pallidum, hippocampus, amygdala and caudate have shown to be important, midbrain structures are probably not investigated</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -8757,9 +8763,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
@@ -8769,7 +8775,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>VLOOKUP(A6,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8790,7 +8796,7 @@
         <v>Glasser atlas</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
@@ -8919,7 +8925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="134.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="134.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -8931,7 +8937,7 @@
         <v>position ranking in linear SVM with RFE (final classifier)</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>VLOOKUP(A7,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -8952,7 +8958,7 @@
         <v>AAL atlas</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>39</v>
@@ -9081,7 +9087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="9" customFormat="1" ht="119.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="9" customFormat="1" ht="119.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(A8,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9113,7 +9119,7 @@
         <v>5 mm spheres around coordinates</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
@@ -9242,7 +9248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -9254,7 +9260,7 @@
         <v>selection frequency in feature selection with correlation analysis</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>VLOOKUP(A9,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9273,7 +9279,7 @@
         <v>Brainnetome, exact coordinates can be extracted from the atlas</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
@@ -9402,7 +9408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>feature weights in SVM (final classifier)</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(A10,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9433,7 +9439,7 @@
         <v>6 mm spheres around coordinates (supplement)</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>37</v>
@@ -9562,9 +9568,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="2">
         <v>2015</v>
@@ -9574,7 +9580,7 @@
         <v>comparison of models based on different features</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9721,7 +9727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -9733,7 +9739,7 @@
         <v>selection frequency in feature selection with SVM RFE</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>VLOOKUP(A12,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9756,7 +9762,7 @@
         <v>5 mm spheres based on meta-analysis (Brodmann area reported!)</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>37</v>
@@ -9885,7 +9891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -9897,11 +9903,11 @@
         <v>two levels: 1. comparison of models based on different features, 2. selection frequency in univariate feature selection</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. brain regions belonging to independent component, 2. brain regions voxel-clusters belonged to</v>
+        <v>1. brain regions belonging to independent component, 2. brain regions which overlap with voxel-clusters</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Type of functional-connectivity-based input features]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -9909,14 +9915,14 @@
       </c>
       <c r="G13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. model based on pre-SMA network got significant, 2. selection frequency: largest clusters were located in the left inferior temporal gyrus (nvoxel = 14), left superior frontal gyrus (nvoxel = 10), and right precentral gyrus (nvoxel = 9).</v>
+        <v>1. model based on pre-supplementary motor area network got significant, 2. selection frequency: largest clusters were located in the left inferior temporal gyrus (n_voxel = 14), left superior frontal gyrus (n_voxel = 10), and right precentral gyrus (n_voxel = 9).</v>
       </c>
       <c r="H13" s="2" t="str">
         <f>VLOOKUP(A13,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[How were regions defined?]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>not clear, but coordinates are roughly given!</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>37</v>
@@ -10045,7 +10051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -10057,7 +10063,7 @@
         <v>two levels: 1. comparison of models based on different features; 2. permutation testing of SVM weights for each voxel</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>VLOOKUP(A14,Tabelle_extract[#All],(MATCH(Tabelle_extract[[#Headers],[Resolution of reporting features with high predictive value]],Tabelle_extract[#Headers],0)),FALSE)</f>
@@ -10206,7 +10212,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="AE2:AY14">
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AE2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10222,28 +10228,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032E63A5-4E10-42DF-8355-05B40A93C0B4}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>156</v>
@@ -10252,25 +10258,25 @@
         <v>147</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -10280,34 +10286,34 @@
       <c r="C2" s="2" t="str">
         <f>VLOOKUP(A2,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation (258 nodes: 33.153 connectivities), 
-2. feature selection: wilcoxon rank sum test</v>
+2. feature selection: Wilcoxon rank sum test</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -10323,13 +10329,13 @@
         <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>37</v>
@@ -10338,13 +10344,13 @@
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10358,10 +10364,10 @@
 3. create 15 models with different combinations of these 4 connectivities</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -10370,19 +10376,19 @@
         <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -10393,19 +10399,19 @@
         <f>VLOOKUP(A5,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
         <v>1. atlas-based brain parcellation, 
 2. threshold functional connectivities (proportional), 
-3. pooling layers within STCGN (first layer: 90 ROIs, last layer: 14 ROIs)</v>
+3. pooling layers within STGCN (first layer: 90 ROIs, last layer: 14 ROIs)</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>37</v>
@@ -10414,15 +10420,15 @@
         <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B6" s="3">
         <v>2019</v>
@@ -10434,10 +10440,10 @@
 3. create a 1-feature-model for each of the 4 connectivities, create three 2-features-models by adding the feature that performed best in the 1-feature models</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -10446,19 +10452,19 @@
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -10476,7 +10482,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -10485,19 +10491,19 @@
         <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -10510,10 +10516,10 @@
 2. create one model per ROI (input features: connectivities to the 12 other ROIs)</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -10522,19 +10528,19 @@
         <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -10551,13 +10557,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>37</v>
@@ -10566,13 +10572,13 @@
         <v>37</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -10589,67 +10595,67 @@
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="3">
         <v>2015</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>VLOOKUP(A11,Tabelle_extract[#All],(MATCH(TabelleRQ3[[#Headers],[Approach to reduce the number of initially available connectivities]],Tabelle_extract[#Headers],0)),FALSE)</f>
-        <v>1. data-based parcellation: MELODIC (Group-ICA, data leakage) -&gt; result: 25 non-noise related independent components (ICs),
+        <v>1. data-based parcellation via ICA (Group-ICA, data leakage) -&gt; result: 25 non-noise related independent components (ICs),
 2. feature extraction: create subject-specific maps of group-based components via dual regression, 
 3. create a model for each IC,
 4. feature selection within ML: Group comparison per voxel; voxels whose average values differ most between groups are kept (z-threshold)</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -10662,31 +10668,31 @@
 2. feature selection in inner loop: SVM-RFE</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -10701,31 +10707,31 @@
 4. feature selection within ML: group comparison per voxel; voxels whose values differ most between groups are kept (z-threshold)</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -10739,28 +10745,28 @@
 3. create a model for each IC and for each measure of between-IC-connectivity</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
